--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -642,6 +642,72 @@
   <si>
     <t>05-08-2021</t>
   </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -998,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH150"/>
+  <dimension ref="A1:BH172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28304,6 +28370,4010 @@
         <v>3.8361</v>
       </c>
     </row>
+    <row r="151" spans="1:60">
+      <c r="A151" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151">
+        <v>33.254</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>4026104.3598</v>
+      </c>
+      <c r="E151">
+        <v>6.86</v>
+      </c>
+      <c r="F151">
+        <v>619.58</v>
+      </c>
+      <c r="G151">
+        <v>21.446</v>
+      </c>
+      <c r="H151">
+        <v>6.2823</v>
+      </c>
+      <c r="I151">
+        <v>124.78</v>
+      </c>
+      <c r="J151">
+        <v>8.806800000000001</v>
+      </c>
+      <c r="K151">
+        <v>8.611499999999999</v>
+      </c>
+      <c r="L151">
+        <v>0.701</v>
+      </c>
+      <c r="M151">
+        <v>3.672</v>
+      </c>
+      <c r="N151">
+        <v>8.9307</v>
+      </c>
+      <c r="O151">
+        <v>1.3506</v>
+      </c>
+      <c r="P151">
+        <v>1.2496</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
+      <c r="R151">
+        <v>2.0859</v>
+      </c>
+      <c r="S151">
+        <v>0.82</v>
+      </c>
+      <c r="T151">
+        <v>1</v>
+      </c>
+      <c r="U151">
+        <v>1.3508</v>
+      </c>
+      <c r="V151">
+        <v>7.7773</v>
+      </c>
+      <c r="W151">
+        <v>1.4168</v>
+      </c>
+      <c r="X151">
+        <v>27.757</v>
+      </c>
+      <c r="Y151">
+        <v>22896</v>
+      </c>
+      <c r="Z151">
+        <v>0.8448</v>
+      </c>
+      <c r="AA151">
+        <v>298.7</v>
+      </c>
+      <c r="AB151">
+        <v>100.3954</v>
+      </c>
+      <c r="AC151">
+        <v>0.9063</v>
+      </c>
+      <c r="AD151">
+        <v>6921.8</v>
+      </c>
+      <c r="AE151">
+        <v>26.7546</v>
+      </c>
+      <c r="AF151">
+        <v>4.1487</v>
+      </c>
+      <c r="AG151">
+        <v>15.6896</v>
+      </c>
+      <c r="AH151">
+        <v>0.7178</v>
+      </c>
+      <c r="AI151">
+        <v>8.5305</v>
+      </c>
+      <c r="AJ151">
+        <v>4.0714</v>
+      </c>
+      <c r="AK151">
+        <v>96.88379999999999</v>
+      </c>
+      <c r="AL151">
+        <v>776.6900000000001</v>
+      </c>
+      <c r="AM151">
+        <v>3908.02</v>
+      </c>
+      <c r="AN151">
+        <v>24</v>
+      </c>
+      <c r="AO151">
+        <v>56.926</v>
+      </c>
+      <c r="AP151">
+        <v>50.22</v>
+      </c>
+      <c r="AQ151">
+        <v>19.928</v>
+      </c>
+      <c r="AR151">
+        <v>43.5014</v>
+      </c>
+      <c r="AS151">
+        <v>7.7091</v>
+      </c>
+      <c r="AT151">
+        <v>14.3791</v>
+      </c>
+      <c r="AU151">
+        <v>5.2217</v>
+      </c>
+      <c r="AV151">
+        <v>42000</v>
+      </c>
+      <c r="AW151">
+        <v>3.75</v>
+      </c>
+      <c r="AX151">
+        <v>4.214</v>
+      </c>
+      <c r="AY151">
+        <v>73.0692</v>
+      </c>
+      <c r="AZ151">
+        <v>74.1725</v>
+      </c>
+      <c r="BA151">
+        <v>14340</v>
+      </c>
+      <c r="BB151">
+        <v>163.3152</v>
+      </c>
+      <c r="BC151">
+        <v>3.2132</v>
+      </c>
+      <c r="BD151">
+        <v>425.21</v>
+      </c>
+      <c r="BE151">
+        <v>1143.3</v>
+      </c>
+      <c r="BF151">
+        <v>109.76</v>
+      </c>
+      <c r="BG151">
+        <v>6.4611</v>
+      </c>
+      <c r="BH151">
+        <v>3.8395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:60">
+      <c r="A152" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152">
+        <v>33.42</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>4030682.7696</v>
+      </c>
+      <c r="E152">
+        <v>6.86</v>
+      </c>
+      <c r="F152">
+        <v>620.29</v>
+      </c>
+      <c r="G152">
+        <v>21.6075</v>
+      </c>
+      <c r="H152">
+        <v>6.3234</v>
+      </c>
+      <c r="I152">
+        <v>125.58</v>
+      </c>
+      <c r="J152">
+        <v>8.884</v>
+      </c>
+      <c r="K152">
+        <v>8.6654</v>
+      </c>
+      <c r="L152">
+        <v>0.7020999999999999</v>
+      </c>
+      <c r="M152">
+        <v>3.672</v>
+      </c>
+      <c r="N152">
+        <v>8.934900000000001</v>
+      </c>
+      <c r="O152">
+        <v>1.36</v>
+      </c>
+      <c r="P152">
+        <v>1.2556</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
+        <v>2.0833</v>
+      </c>
+      <c r="S152">
+        <v>0.82</v>
+      </c>
+      <c r="T152">
+        <v>1</v>
+      </c>
+      <c r="U152">
+        <v>1.3548</v>
+      </c>
+      <c r="V152">
+        <v>7.7806</v>
+      </c>
+      <c r="W152">
+        <v>1.4265</v>
+      </c>
+      <c r="X152">
+        <v>27.78</v>
+      </c>
+      <c r="Y152">
+        <v>22904</v>
+      </c>
+      <c r="Z152">
+        <v>0.8502999999999999</v>
+      </c>
+      <c r="AA152">
+        <v>300.8</v>
+      </c>
+      <c r="AB152">
+        <v>100.565</v>
+      </c>
+      <c r="AC152">
+        <v>0.9146</v>
+      </c>
+      <c r="AD152">
+        <v>6929.3</v>
+      </c>
+      <c r="AE152">
+        <v>26.6446</v>
+      </c>
+      <c r="AF152">
+        <v>4.1757</v>
+      </c>
+      <c r="AG152">
+        <v>15.6669</v>
+      </c>
+      <c r="AH152">
+        <v>0.7208</v>
+      </c>
+      <c r="AI152">
+        <v>8.620100000000001</v>
+      </c>
+      <c r="AJ152">
+        <v>4.0914</v>
+      </c>
+      <c r="AK152">
+        <v>96.8965</v>
+      </c>
+      <c r="AL152">
+        <v>784.5</v>
+      </c>
+      <c r="AM152">
+        <v>3954.6</v>
+      </c>
+      <c r="AN152">
+        <v>24</v>
+      </c>
+      <c r="AO152">
+        <v>56.954</v>
+      </c>
+      <c r="AP152">
+        <v>50.396</v>
+      </c>
+      <c r="AQ152">
+        <v>20.0558</v>
+      </c>
+      <c r="AR152">
+        <v>43.54</v>
+      </c>
+      <c r="AS152">
+        <v>7.7445</v>
+      </c>
+      <c r="AT152">
+        <v>14.6585</v>
+      </c>
+      <c r="AU152">
+        <v>5.2439</v>
+      </c>
+      <c r="AV152">
+        <v>42000</v>
+      </c>
+      <c r="AW152">
+        <v>3.75</v>
+      </c>
+      <c r="AX152">
+        <v>4.218</v>
+      </c>
+      <c r="AY152">
+        <v>73.4491</v>
+      </c>
+      <c r="AZ152">
+        <v>74.15000000000001</v>
+      </c>
+      <c r="BA152">
+        <v>14350</v>
+      </c>
+      <c r="BB152">
+        <v>163.3422</v>
+      </c>
+      <c r="BC152">
+        <v>3.224</v>
+      </c>
+      <c r="BD152">
+        <v>423.82</v>
+      </c>
+      <c r="BE152">
+        <v>1141.96</v>
+      </c>
+      <c r="BF152">
+        <v>110.22</v>
+      </c>
+      <c r="BG152">
+        <v>6.478</v>
+      </c>
+      <c r="BH152">
+        <v>3.8895</v>
+      </c>
+    </row>
+    <row r="153" spans="1:60">
+      <c r="A153" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153">
+        <v>33.459</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>4058650.9698</v>
+      </c>
+      <c r="E153">
+        <v>6.86</v>
+      </c>
+      <c r="F153">
+        <v>618.9299999999999</v>
+      </c>
+      <c r="G153">
+        <v>21.591</v>
+      </c>
+      <c r="H153">
+        <v>6.3305</v>
+      </c>
+      <c r="I153">
+        <v>125.85</v>
+      </c>
+      <c r="J153">
+        <v>8.928000000000001</v>
+      </c>
+      <c r="K153">
+        <v>8.696300000000001</v>
+      </c>
+      <c r="L153">
+        <v>0.7035</v>
+      </c>
+      <c r="M153">
+        <v>3.672</v>
+      </c>
+      <c r="N153">
+        <v>8.957700000000001</v>
+      </c>
+      <c r="O153">
+        <v>1.3624</v>
+      </c>
+      <c r="P153">
+        <v>1.2573</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <v>2.0916</v>
+      </c>
+      <c r="S153">
+        <v>0.82</v>
+      </c>
+      <c r="T153">
+        <v>1</v>
+      </c>
+      <c r="U153">
+        <v>1.3567</v>
+      </c>
+      <c r="V153">
+        <v>7.7817</v>
+      </c>
+      <c r="W153">
+        <v>1.4284</v>
+      </c>
+      <c r="X153">
+        <v>27.815</v>
+      </c>
+      <c r="Y153">
+        <v>22902</v>
+      </c>
+      <c r="Z153">
+        <v>0.8512999999999999</v>
+      </c>
+      <c r="AA153">
+        <v>300.27</v>
+      </c>
+      <c r="AB153">
+        <v>101.1174</v>
+      </c>
+      <c r="AC153">
+        <v>0.9196</v>
+      </c>
+      <c r="AD153">
+        <v>6913.8</v>
+      </c>
+      <c r="AE153">
+        <v>26.5647</v>
+      </c>
+      <c r="AF153">
+        <v>4.1803</v>
+      </c>
+      <c r="AG153">
+        <v>15.6569</v>
+      </c>
+      <c r="AH153">
+        <v>0.7217</v>
+      </c>
+      <c r="AI153">
+        <v>8.648400000000001</v>
+      </c>
+      <c r="AJ153">
+        <v>4.109</v>
+      </c>
+      <c r="AK153">
+        <v>96.98869999999999</v>
+      </c>
+      <c r="AL153">
+        <v>787.4</v>
+      </c>
+      <c r="AM153">
+        <v>3995</v>
+      </c>
+      <c r="AN153">
+        <v>24</v>
+      </c>
+      <c r="AO153">
+        <v>56.975</v>
+      </c>
+      <c r="AP153">
+        <v>50.38</v>
+      </c>
+      <c r="AQ153">
+        <v>20.0525</v>
+      </c>
+      <c r="AR153">
+        <v>43.5563</v>
+      </c>
+      <c r="AS153">
+        <v>7.7092</v>
+      </c>
+      <c r="AT153">
+        <v>14.7317</v>
+      </c>
+      <c r="AU153">
+        <v>5.2251</v>
+      </c>
+      <c r="AV153">
+        <v>42000</v>
+      </c>
+      <c r="AW153">
+        <v>3.75</v>
+      </c>
+      <c r="AX153">
+        <v>4.227</v>
+      </c>
+      <c r="AY153">
+        <v>73.61279999999999</v>
+      </c>
+      <c r="AZ153">
+        <v>74.2625</v>
+      </c>
+      <c r="BA153">
+        <v>14360</v>
+      </c>
+      <c r="BB153">
+        <v>163.7238</v>
+      </c>
+      <c r="BC153">
+        <v>3.2183</v>
+      </c>
+      <c r="BD153">
+        <v>426.21</v>
+      </c>
+      <c r="BE153">
+        <v>1144.01</v>
+      </c>
+      <c r="BF153">
+        <v>110.24</v>
+      </c>
+      <c r="BG153">
+        <v>6.4839</v>
+      </c>
+      <c r="BH153">
+        <v>3.8844</v>
+      </c>
+    </row>
+    <row r="154" spans="1:60">
+      <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154">
+        <v>33.46</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>4070177.132</v>
+      </c>
+      <c r="E154">
+        <v>6.86</v>
+      </c>
+      <c r="F154">
+        <v>619.37</v>
+      </c>
+      <c r="G154">
+        <v>21.6539</v>
+      </c>
+      <c r="H154">
+        <v>6.3439</v>
+      </c>
+      <c r="I154">
+        <v>126.13</v>
+      </c>
+      <c r="J154">
+        <v>8.917</v>
+      </c>
+      <c r="K154">
+        <v>8.711399999999999</v>
+      </c>
+      <c r="L154">
+        <v>0.7043</v>
+      </c>
+      <c r="M154">
+        <v>3.672</v>
+      </c>
+      <c r="N154">
+        <v>8.9543</v>
+      </c>
+      <c r="O154">
+        <v>1.3607</v>
+      </c>
+      <c r="P154">
+        <v>1.2526</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>2.0951</v>
+      </c>
+      <c r="S154">
+        <v>0.82</v>
+      </c>
+      <c r="T154">
+        <v>1</v>
+      </c>
+      <c r="U154">
+        <v>1.3589</v>
+      </c>
+      <c r="V154">
+        <v>7.7814</v>
+      </c>
+      <c r="W154">
+        <v>1.4271</v>
+      </c>
+      <c r="X154">
+        <v>27.827</v>
+      </c>
+      <c r="Y154">
+        <v>22871</v>
+      </c>
+      <c r="Z154">
+        <v>0.853</v>
+      </c>
+      <c r="AA154">
+        <v>301.53</v>
+      </c>
+      <c r="AB154">
+        <v>100.9193</v>
+      </c>
+      <c r="AC154">
+        <v>0.9227</v>
+      </c>
+      <c r="AD154">
+        <v>6905.6</v>
+      </c>
+      <c r="AE154">
+        <v>26.6548</v>
+      </c>
+      <c r="AF154">
+        <v>4.1901</v>
+      </c>
+      <c r="AG154">
+        <v>15.7017</v>
+      </c>
+      <c r="AH154">
+        <v>0.7225</v>
+      </c>
+      <c r="AI154">
+        <v>8.606299999999999</v>
+      </c>
+      <c r="AJ154">
+        <v>4.0774</v>
+      </c>
+      <c r="AK154">
+        <v>97.00960000000001</v>
+      </c>
+      <c r="AL154">
+        <v>780.08</v>
+      </c>
+      <c r="AM154">
+        <v>3966.75</v>
+      </c>
+      <c r="AN154">
+        <v>24</v>
+      </c>
+      <c r="AO154">
+        <v>56.762</v>
+      </c>
+      <c r="AP154">
+        <v>50.388</v>
+      </c>
+      <c r="AQ154">
+        <v>20.0844</v>
+      </c>
+      <c r="AR154">
+        <v>43.4802</v>
+      </c>
+      <c r="AS154">
+        <v>7.7053</v>
+      </c>
+      <c r="AT154">
+        <v>14.8148</v>
+      </c>
+      <c r="AU154">
+        <v>5.2039</v>
+      </c>
+      <c r="AV154">
+        <v>42000</v>
+      </c>
+      <c r="AW154">
+        <v>3.75</v>
+      </c>
+      <c r="AX154">
+        <v>4.227</v>
+      </c>
+      <c r="AY154">
+        <v>73.93689999999999</v>
+      </c>
+      <c r="AZ154">
+        <v>74.42749999999999</v>
+      </c>
+      <c r="BA154">
+        <v>14380</v>
+      </c>
+      <c r="BB154">
+        <v>163.6174</v>
+      </c>
+      <c r="BC154">
+        <v>3.2257</v>
+      </c>
+      <c r="BD154">
+        <v>425.11</v>
+      </c>
+      <c r="BE154">
+        <v>1149.55</v>
+      </c>
+      <c r="BF154">
+        <v>110.55</v>
+      </c>
+      <c r="BG154">
+        <v>6.4877</v>
+      </c>
+      <c r="BH154">
+        <v>3.9049</v>
+      </c>
+    </row>
+    <row r="155" spans="1:60">
+      <c r="A155" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155">
+        <v>33.114</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>4084265.7691</v>
+      </c>
+      <c r="E155">
+        <v>6.86</v>
+      </c>
+      <c r="F155">
+        <v>621.23</v>
+      </c>
+      <c r="G155">
+        <v>21.6141</v>
+      </c>
+      <c r="H155">
+        <v>6.3334</v>
+      </c>
+      <c r="I155">
+        <v>125.91</v>
+      </c>
+      <c r="J155">
+        <v>8.858499999999999</v>
+      </c>
+      <c r="K155">
+        <v>8.688700000000001</v>
+      </c>
+      <c r="L155">
+        <v>0.705</v>
+      </c>
+      <c r="M155">
+        <v>3.672</v>
+      </c>
+      <c r="N155">
+        <v>8.944900000000001</v>
+      </c>
+      <c r="O155">
+        <v>1.3559</v>
+      </c>
+      <c r="P155">
+        <v>1.2505</v>
+      </c>
+      <c r="Q155">
+        <v>1</v>
+      </c>
+      <c r="R155">
+        <v>2.0934</v>
+      </c>
+      <c r="S155">
+        <v>0.82</v>
+      </c>
+      <c r="T155">
+        <v>1</v>
+      </c>
+      <c r="U155">
+        <v>1.3563</v>
+      </c>
+      <c r="V155">
+        <v>7.7788</v>
+      </c>
+      <c r="W155">
+        <v>1.4192</v>
+      </c>
+      <c r="X155">
+        <v>27.835</v>
+      </c>
+      <c r="Y155">
+        <v>22798</v>
+      </c>
+      <c r="Z155">
+        <v>0.8516</v>
+      </c>
+      <c r="AA155">
+        <v>301.19</v>
+      </c>
+      <c r="AB155">
+        <v>101.4635</v>
+      </c>
+      <c r="AC155">
+        <v>0.9216</v>
+      </c>
+      <c r="AD155">
+        <v>6905</v>
+      </c>
+      <c r="AE155">
+        <v>26.6722</v>
+      </c>
+      <c r="AF155">
+        <v>4.1824</v>
+      </c>
+      <c r="AG155">
+        <v>15.6491</v>
+      </c>
+      <c r="AH155">
+        <v>0.721</v>
+      </c>
+      <c r="AI155">
+        <v>8.641299999999999</v>
+      </c>
+      <c r="AJ155">
+        <v>4.0914</v>
+      </c>
+      <c r="AK155">
+        <v>97.04089999999999</v>
+      </c>
+      <c r="AL155">
+        <v>773.01</v>
+      </c>
+      <c r="AM155">
+        <v>3942.15</v>
+      </c>
+      <c r="AN155">
+        <v>24</v>
+      </c>
+      <c r="AO155">
+        <v>56.718</v>
+      </c>
+      <c r="AP155">
+        <v>50.387</v>
+      </c>
+      <c r="AQ155">
+        <v>19.9265</v>
+      </c>
+      <c r="AR155">
+        <v>43.43</v>
+      </c>
+      <c r="AS155">
+        <v>7.7283</v>
+      </c>
+      <c r="AT155">
+        <v>14.6509</v>
+      </c>
+      <c r="AU155">
+        <v>5.2107</v>
+      </c>
+      <c r="AV155">
+        <v>42000</v>
+      </c>
+      <c r="AW155">
+        <v>3.75</v>
+      </c>
+      <c r="AX155">
+        <v>4.238</v>
+      </c>
+      <c r="AY155">
+        <v>73.4922</v>
+      </c>
+      <c r="AZ155">
+        <v>74.44</v>
+      </c>
+      <c r="BA155">
+        <v>14380</v>
+      </c>
+      <c r="BB155">
+        <v>162.8219</v>
+      </c>
+      <c r="BC155">
+        <v>3.2228</v>
+      </c>
+      <c r="BD155">
+        <v>425.33</v>
+      </c>
+      <c r="BE155">
+        <v>1156.1</v>
+      </c>
+      <c r="BF155">
+        <v>110.42</v>
+      </c>
+      <c r="BG155">
+        <v>6.4761</v>
+      </c>
+      <c r="BH155">
+        <v>3.8974</v>
+      </c>
+    </row>
+    <row r="156" spans="1:60">
+      <c r="A156" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156">
+        <v>33.097</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>4106762.0077</v>
+      </c>
+      <c r="E156">
+        <v>6.86</v>
+      </c>
+      <c r="F156">
+        <v>620.54</v>
+      </c>
+      <c r="G156">
+        <v>21.6309</v>
+      </c>
+      <c r="H156">
+        <v>6.3378</v>
+      </c>
+      <c r="I156">
+        <v>126.02</v>
+      </c>
+      <c r="J156">
+        <v>8.8452</v>
+      </c>
+      <c r="K156">
+        <v>8.686999999999999</v>
+      </c>
+      <c r="L156">
+        <v>0.7040999999999999</v>
+      </c>
+      <c r="M156">
+        <v>3.672</v>
+      </c>
+      <c r="N156">
+        <v>8.949</v>
+      </c>
+      <c r="O156">
+        <v>1.3633</v>
+      </c>
+      <c r="P156">
+        <v>1.2531</v>
+      </c>
+      <c r="Q156">
+        <v>1</v>
+      </c>
+      <c r="R156">
+        <v>2.0877</v>
+      </c>
+      <c r="S156">
+        <v>0.82</v>
+      </c>
+      <c r="T156">
+        <v>1</v>
+      </c>
+      <c r="U156">
+        <v>1.3579</v>
+      </c>
+      <c r="V156">
+        <v>7.7817</v>
+      </c>
+      <c r="W156">
+        <v>1.4288</v>
+      </c>
+      <c r="X156">
+        <v>27.801</v>
+      </c>
+      <c r="Y156">
+        <v>22780</v>
+      </c>
+      <c r="Z156">
+        <v>0.8522999999999999</v>
+      </c>
+      <c r="AA156">
+        <v>300.56</v>
+      </c>
+      <c r="AB156">
+        <v>101.317</v>
+      </c>
+      <c r="AC156">
+        <v>0.9238</v>
+      </c>
+      <c r="AD156">
+        <v>6922.6</v>
+      </c>
+      <c r="AE156">
+        <v>26.7207</v>
+      </c>
+      <c r="AF156">
+        <v>4.1829</v>
+      </c>
+      <c r="AG156">
+        <v>15.6604</v>
+      </c>
+      <c r="AH156">
+        <v>0.7246</v>
+      </c>
+      <c r="AI156">
+        <v>8.561999999999999</v>
+      </c>
+      <c r="AJ156">
+        <v>4.0845</v>
+      </c>
+      <c r="AK156">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="AL156">
+        <v>772.78</v>
+      </c>
+      <c r="AM156">
+        <v>3856</v>
+      </c>
+      <c r="AN156">
+        <v>24</v>
+      </c>
+      <c r="AO156">
+        <v>56.805</v>
+      </c>
+      <c r="AP156">
+        <v>50.39</v>
+      </c>
+      <c r="AQ156">
+        <v>19.9492</v>
+      </c>
+      <c r="AR156">
+        <v>43.35</v>
+      </c>
+      <c r="AS156">
+        <v>7.7357</v>
+      </c>
+      <c r="AT156">
+        <v>14.7836</v>
+      </c>
+      <c r="AU156">
+        <v>5.2401</v>
+      </c>
+      <c r="AV156">
+        <v>42000</v>
+      </c>
+      <c r="AW156">
+        <v>3.75</v>
+      </c>
+      <c r="AX156">
+        <v>4.23</v>
+      </c>
+      <c r="AY156">
+        <v>73.5911</v>
+      </c>
+      <c r="AZ156">
+        <v>74.2525</v>
+      </c>
+      <c r="BA156">
+        <v>14380</v>
+      </c>
+      <c r="BB156">
+        <v>163.8136</v>
+      </c>
+      <c r="BC156">
+        <v>3.2232</v>
+      </c>
+      <c r="BD156">
+        <v>424.41</v>
+      </c>
+      <c r="BE156">
+        <v>1161.05</v>
+      </c>
+      <c r="BF156">
+        <v>110.42</v>
+      </c>
+      <c r="BG156">
+        <v>6.4776</v>
+      </c>
+      <c r="BH156">
+        <v>3.8989</v>
+      </c>
+    </row>
+    <row r="157" spans="1:60">
+      <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157">
+        <v>33.305</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>4103082.2621</v>
+      </c>
+      <c r="E157">
+        <v>6.86</v>
+      </c>
+      <c r="F157">
+        <v>619.21</v>
+      </c>
+      <c r="G157">
+        <v>21.5333</v>
+      </c>
+      <c r="H157">
+        <v>6.3035</v>
+      </c>
+      <c r="I157">
+        <v>125.34</v>
+      </c>
+      <c r="J157">
+        <v>8.793900000000001</v>
+      </c>
+      <c r="K157">
+        <v>8.632199999999999</v>
+      </c>
+      <c r="L157">
+        <v>0.7040999999999999</v>
+      </c>
+      <c r="M157">
+        <v>3.672</v>
+      </c>
+      <c r="N157">
+        <v>8.942399999999999</v>
+      </c>
+      <c r="O157">
+        <v>1.3569</v>
+      </c>
+      <c r="P157">
+        <v>1.2516</v>
+      </c>
+      <c r="Q157">
+        <v>1</v>
+      </c>
+      <c r="R157">
+        <v>2.0947</v>
+      </c>
+      <c r="S157">
+        <v>0.82</v>
+      </c>
+      <c r="T157">
+        <v>1</v>
+      </c>
+      <c r="U157">
+        <v>1.3551</v>
+      </c>
+      <c r="V157">
+        <v>7.7821</v>
+      </c>
+      <c r="W157">
+        <v>1.4205</v>
+      </c>
+      <c r="X157">
+        <v>27.836</v>
+      </c>
+      <c r="Y157">
+        <v>22800</v>
+      </c>
+      <c r="Z157">
+        <v>0.8477</v>
+      </c>
+      <c r="AA157">
+        <v>298.73</v>
+      </c>
+      <c r="AB157">
+        <v>100.9776</v>
+      </c>
+      <c r="AC157">
+        <v>0.9155</v>
+      </c>
+      <c r="AD157">
+        <v>6917.8</v>
+      </c>
+      <c r="AE157">
+        <v>26.5172</v>
+      </c>
+      <c r="AF157">
+        <v>4.1602</v>
+      </c>
+      <c r="AG157">
+        <v>15.6604</v>
+      </c>
+      <c r="AH157">
+        <v>0.721</v>
+      </c>
+      <c r="AI157">
+        <v>8.519</v>
+      </c>
+      <c r="AJ157">
+        <v>4.0755</v>
+      </c>
+      <c r="AK157">
+        <v>97.1037</v>
+      </c>
+      <c r="AL157">
+        <v>774.25</v>
+      </c>
+      <c r="AM157">
+        <v>3840.12</v>
+      </c>
+      <c r="AN157">
+        <v>24</v>
+      </c>
+      <c r="AO157">
+        <v>56.93</v>
+      </c>
+      <c r="AP157">
+        <v>50.454</v>
+      </c>
+      <c r="AQ157">
+        <v>19.8977</v>
+      </c>
+      <c r="AR157">
+        <v>43.2161</v>
+      </c>
+      <c r="AS157">
+        <v>7.732</v>
+      </c>
+      <c r="AT157">
+        <v>14.7239</v>
+      </c>
+      <c r="AU157">
+        <v>5.2401</v>
+      </c>
+      <c r="AV157">
+        <v>42000</v>
+      </c>
+      <c r="AW157">
+        <v>3.75</v>
+      </c>
+      <c r="AX157">
+        <v>4.2365</v>
+      </c>
+      <c r="AY157">
+        <v>73.2282</v>
+      </c>
+      <c r="AZ157">
+        <v>74.24250000000001</v>
+      </c>
+      <c r="BA157">
+        <v>14385</v>
+      </c>
+      <c r="BB157">
+        <v>163.6</v>
+      </c>
+      <c r="BC157">
+        <v>3.2118</v>
+      </c>
+      <c r="BD157">
+        <v>424.41</v>
+      </c>
+      <c r="BE157">
+        <v>1168.8</v>
+      </c>
+      <c r="BF157">
+        <v>109.61</v>
+      </c>
+      <c r="BG157">
+        <v>6.4763</v>
+      </c>
+      <c r="BH157">
+        <v>3.8697</v>
+      </c>
+    </row>
+    <row r="158" spans="1:60">
+      <c r="A158" t="s">
+        <v>216</v>
+      </c>
+      <c r="B158">
+        <v>33.386</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>4125149.366</v>
+      </c>
+      <c r="E158">
+        <v>6.86</v>
+      </c>
+      <c r="F158">
+        <v>617.24</v>
+      </c>
+      <c r="G158">
+        <v>21.5883</v>
+      </c>
+      <c r="H158">
+        <v>6.3135</v>
+      </c>
+      <c r="I158">
+        <v>125.91</v>
+      </c>
+      <c r="J158">
+        <v>8.831</v>
+      </c>
+      <c r="K158">
+        <v>8.651999999999999</v>
+      </c>
+      <c r="L158">
+        <v>0.7027</v>
+      </c>
+      <c r="M158">
+        <v>3.672</v>
+      </c>
+      <c r="N158">
+        <v>8.926500000000001</v>
+      </c>
+      <c r="O158">
+        <v>1.3633</v>
+      </c>
+      <c r="P158">
+        <v>1.2571</v>
+      </c>
+      <c r="Q158">
+        <v>1</v>
+      </c>
+      <c r="R158">
+        <v>2.0872</v>
+      </c>
+      <c r="S158">
+        <v>0.82</v>
+      </c>
+      <c r="T158">
+        <v>1</v>
+      </c>
+      <c r="U158">
+        <v>1.3558</v>
+      </c>
+      <c r="V158">
+        <v>7.7843</v>
+      </c>
+      <c r="W158">
+        <v>1.4257</v>
+      </c>
+      <c r="X158">
+        <v>27.839</v>
+      </c>
+      <c r="Y158">
+        <v>22805</v>
+      </c>
+      <c r="Z158">
+        <v>0.8491</v>
+      </c>
+      <c r="AA158">
+        <v>298.16</v>
+      </c>
+      <c r="AB158">
+        <v>100.6848</v>
+      </c>
+      <c r="AC158">
+        <v>0.9121</v>
+      </c>
+      <c r="AD158">
+        <v>6914.3</v>
+      </c>
+      <c r="AE158">
+        <v>26.6047</v>
+      </c>
+      <c r="AF158">
+        <v>4.1727</v>
+      </c>
+      <c r="AG158">
+        <v>15.6805</v>
+      </c>
+      <c r="AH158">
+        <v>0.7225</v>
+      </c>
+      <c r="AI158">
+        <v>8.456</v>
+      </c>
+      <c r="AJ158">
+        <v>4.0795</v>
+      </c>
+      <c r="AK158">
+        <v>97.1037</v>
+      </c>
+      <c r="AL158">
+        <v>784.1799999999999</v>
+      </c>
+      <c r="AM158">
+        <v>3847.64</v>
+      </c>
+      <c r="AN158">
+        <v>24</v>
+      </c>
+      <c r="AO158">
+        <v>56.743</v>
+      </c>
+      <c r="AP158">
+        <v>50.625</v>
+      </c>
+      <c r="AQ158">
+        <v>19.9178</v>
+      </c>
+      <c r="AR158">
+        <v>43.215</v>
+      </c>
+      <c r="AS158">
+        <v>7.7212</v>
+      </c>
+      <c r="AT158">
+        <v>14.8537</v>
+      </c>
+      <c r="AU158">
+        <v>5.2702</v>
+      </c>
+      <c r="AV158">
+        <v>42000</v>
+      </c>
+      <c r="AW158">
+        <v>3.75</v>
+      </c>
+      <c r="AX158">
+        <v>4.235</v>
+      </c>
+      <c r="AY158">
+        <v>73.27930000000001</v>
+      </c>
+      <c r="AZ158">
+        <v>74.24250000000001</v>
+      </c>
+      <c r="BA158">
+        <v>14370</v>
+      </c>
+      <c r="BB158">
+        <v>164.0723</v>
+      </c>
+      <c r="BC158">
+        <v>3.2233</v>
+      </c>
+      <c r="BD158">
+        <v>424.6</v>
+      </c>
+      <c r="BE158">
+        <v>1163.88</v>
+      </c>
+      <c r="BF158">
+        <v>109.21</v>
+      </c>
+      <c r="BG158">
+        <v>6.4766</v>
+      </c>
+      <c r="BH158">
+        <v>3.8708</v>
+      </c>
+    </row>
+    <row r="159" spans="1:60">
+      <c r="A159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159">
+        <v>33.331</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>4100221.754</v>
+      </c>
+      <c r="E159">
+        <v>6.86</v>
+      </c>
+      <c r="F159">
+        <v>619.27</v>
+      </c>
+      <c r="G159">
+        <v>21.721</v>
+      </c>
+      <c r="H159">
+        <v>6.3491</v>
+      </c>
+      <c r="I159">
+        <v>126.56</v>
+      </c>
+      <c r="J159">
+        <v>8.9085</v>
+      </c>
+      <c r="K159">
+        <v>8.7521</v>
+      </c>
+      <c r="L159">
+        <v>0.7033</v>
+      </c>
+      <c r="M159">
+        <v>3.672</v>
+      </c>
+      <c r="N159">
+        <v>8.986000000000001</v>
+      </c>
+      <c r="O159">
+        <v>1.3791</v>
+      </c>
+      <c r="P159">
+        <v>1.2633</v>
+      </c>
+      <c r="Q159">
+        <v>1</v>
+      </c>
+      <c r="R159">
+        <v>2.0912</v>
+      </c>
+      <c r="S159">
+        <v>0.82</v>
+      </c>
+      <c r="T159">
+        <v>1</v>
+      </c>
+      <c r="U159">
+        <v>1.3624</v>
+      </c>
+      <c r="V159">
+        <v>7.7911</v>
+      </c>
+      <c r="W159">
+        <v>1.4476</v>
+      </c>
+      <c r="X159">
+        <v>27.847</v>
+      </c>
+      <c r="Y159">
+        <v>22806</v>
+      </c>
+      <c r="Z159">
+        <v>0.8538</v>
+      </c>
+      <c r="AA159">
+        <v>300.19</v>
+      </c>
+      <c r="AB159">
+        <v>100.7197</v>
+      </c>
+      <c r="AC159">
+        <v>0.9145</v>
+      </c>
+      <c r="AD159">
+        <v>6904.3</v>
+      </c>
+      <c r="AE159">
+        <v>26.5448</v>
+      </c>
+      <c r="AF159">
+        <v>4.2039</v>
+      </c>
+      <c r="AG159">
+        <v>15.6568</v>
+      </c>
+      <c r="AH159">
+        <v>0.7282</v>
+      </c>
+      <c r="AI159">
+        <v>8.4329</v>
+      </c>
+      <c r="AJ159">
+        <v>4.0864</v>
+      </c>
+      <c r="AK159">
+        <v>97.2406</v>
+      </c>
+      <c r="AL159">
+        <v>789.62</v>
+      </c>
+      <c r="AM159">
+        <v>3876.7</v>
+      </c>
+      <c r="AN159">
+        <v>24</v>
+      </c>
+      <c r="AO159">
+        <v>56.906</v>
+      </c>
+      <c r="AP159">
+        <v>50.39</v>
+      </c>
+      <c r="AQ159">
+        <v>20.021</v>
+      </c>
+      <c r="AR159">
+        <v>43.1251</v>
+      </c>
+      <c r="AS159">
+        <v>7.7102</v>
+      </c>
+      <c r="AT159">
+        <v>14.9113</v>
+      </c>
+      <c r="AU159">
+        <v>5.2883</v>
+      </c>
+      <c r="AV159">
+        <v>42000</v>
+      </c>
+      <c r="AW159">
+        <v>3.75</v>
+      </c>
+      <c r="AX159">
+        <v>4.237</v>
+      </c>
+      <c r="AY159">
+        <v>73.58199999999999</v>
+      </c>
+      <c r="AZ159">
+        <v>74.345</v>
+      </c>
+      <c r="BA159">
+        <v>14370</v>
+      </c>
+      <c r="BB159">
+        <v>163.6</v>
+      </c>
+      <c r="BC159">
+        <v>3.2366</v>
+      </c>
+      <c r="BD159">
+        <v>424.73</v>
+      </c>
+      <c r="BE159">
+        <v>1176.32</v>
+      </c>
+      <c r="BF159">
+        <v>109.55</v>
+      </c>
+      <c r="BG159">
+        <v>6.4926</v>
+      </c>
+      <c r="BH159">
+        <v>3.897</v>
+      </c>
+    </row>
+    <row r="160" spans="1:60">
+      <c r="A160" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160">
+        <v>33.288</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>4119839.4439</v>
+      </c>
+      <c r="E160">
+        <v>6.86</v>
+      </c>
+      <c r="F160">
+        <v>618.98</v>
+      </c>
+      <c r="G160">
+        <v>21.7009</v>
+      </c>
+      <c r="H160">
+        <v>6.3432</v>
+      </c>
+      <c r="I160">
+        <v>126.45</v>
+      </c>
+      <c r="J160">
+        <v>8.8803</v>
+      </c>
+      <c r="K160">
+        <v>8.706799999999999</v>
+      </c>
+      <c r="L160">
+        <v>0.7047</v>
+      </c>
+      <c r="M160">
+        <v>3.672</v>
+      </c>
+      <c r="N160">
+        <v>8.942399999999999</v>
+      </c>
+      <c r="O160">
+        <v>1.378</v>
+      </c>
+      <c r="P160">
+        <v>1.262</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="R160">
+        <v>2.107</v>
+      </c>
+      <c r="S160">
+        <v>0.82</v>
+      </c>
+      <c r="T160">
+        <v>1</v>
+      </c>
+      <c r="U160">
+        <v>1.3592</v>
+      </c>
+      <c r="V160">
+        <v>7.7867</v>
+      </c>
+      <c r="W160">
+        <v>1.4482</v>
+      </c>
+      <c r="X160">
+        <v>27.842</v>
+      </c>
+      <c r="Y160">
+        <v>22793</v>
+      </c>
+      <c r="Z160">
+        <v>0.853</v>
+      </c>
+      <c r="AA160">
+        <v>298.63</v>
+      </c>
+      <c r="AB160">
+        <v>101.3369</v>
+      </c>
+      <c r="AC160">
+        <v>0.9161</v>
+      </c>
+      <c r="AD160">
+        <v>6917.3</v>
+      </c>
+      <c r="AE160">
+        <v>26.4749</v>
+      </c>
+      <c r="AF160">
+        <v>4.1978</v>
+      </c>
+      <c r="AG160">
+        <v>15.6559</v>
+      </c>
+      <c r="AH160">
+        <v>0.7261</v>
+      </c>
+      <c r="AI160">
+        <v>8.454800000000001</v>
+      </c>
+      <c r="AJ160">
+        <v>4.0918</v>
+      </c>
+      <c r="AK160">
+        <v>97.2469</v>
+      </c>
+      <c r="AL160">
+        <v>787.71</v>
+      </c>
+      <c r="AM160">
+        <v>3848.77</v>
+      </c>
+      <c r="AN160">
+        <v>24</v>
+      </c>
+      <c r="AO160">
+        <v>56.856</v>
+      </c>
+      <c r="AP160">
+        <v>50.402</v>
+      </c>
+      <c r="AQ160">
+        <v>19.9583</v>
+      </c>
+      <c r="AR160">
+        <v>43.04</v>
+      </c>
+      <c r="AS160">
+        <v>7.7328</v>
+      </c>
+      <c r="AT160">
+        <v>14.8947</v>
+      </c>
+      <c r="AU160">
+        <v>5.3331</v>
+      </c>
+      <c r="AV160">
+        <v>42000</v>
+      </c>
+      <c r="AW160">
+        <v>3.75</v>
+      </c>
+      <c r="AX160">
+        <v>4.235</v>
+      </c>
+      <c r="AY160">
+        <v>73.6396</v>
+      </c>
+      <c r="AZ160">
+        <v>74.24250000000001</v>
+      </c>
+      <c r="BA160">
+        <v>14370</v>
+      </c>
+      <c r="BB160">
+        <v>163.6</v>
+      </c>
+      <c r="BC160">
+        <v>3.2297</v>
+      </c>
+      <c r="BD160">
+        <v>425.28</v>
+      </c>
+      <c r="BE160">
+        <v>1168.26</v>
+      </c>
+      <c r="BF160">
+        <v>109.83</v>
+      </c>
+      <c r="BG160">
+        <v>6.4802</v>
+      </c>
+      <c r="BH160">
+        <v>3.8847</v>
+      </c>
+    </row>
+    <row r="161" spans="1:60">
+      <c r="A161" t="s">
+        <v>219</v>
+      </c>
+      <c r="B161">
+        <v>33.336</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>4075158.8195</v>
+      </c>
+      <c r="E161">
+        <v>6.86</v>
+      </c>
+      <c r="F161">
+        <v>619.42</v>
+      </c>
+      <c r="G161">
+        <v>21.8478</v>
+      </c>
+      <c r="H161">
+        <v>6.3684</v>
+      </c>
+      <c r="I161">
+        <v>127.5</v>
+      </c>
+      <c r="J161">
+        <v>9.0411</v>
+      </c>
+      <c r="K161">
+        <v>8.805</v>
+      </c>
+      <c r="L161">
+        <v>0.7054</v>
+      </c>
+      <c r="M161">
+        <v>3.672</v>
+      </c>
+      <c r="N161">
+        <v>8.9543</v>
+      </c>
+      <c r="O161">
+        <v>1.3988</v>
+      </c>
+      <c r="P161">
+        <v>1.2821</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>2.111</v>
+      </c>
+      <c r="S161">
+        <v>0.82</v>
+      </c>
+      <c r="T161">
+        <v>1</v>
+      </c>
+      <c r="U161">
+        <v>1.3645</v>
+      </c>
+      <c r="V161">
+        <v>7.7886</v>
+      </c>
+      <c r="W161">
+        <v>1.4643</v>
+      </c>
+      <c r="X161">
+        <v>27.978</v>
+      </c>
+      <c r="Y161">
+        <v>22808</v>
+      </c>
+      <c r="Z161">
+        <v>0.8564000000000001</v>
+      </c>
+      <c r="AA161">
+        <v>300.53</v>
+      </c>
+      <c r="AB161">
+        <v>101.5465</v>
+      </c>
+      <c r="AC161">
+        <v>0.9183</v>
+      </c>
+      <c r="AD161">
+        <v>6926.9</v>
+      </c>
+      <c r="AE161">
+        <v>26.5273</v>
+      </c>
+      <c r="AF161">
+        <v>4.2188</v>
+      </c>
+      <c r="AG161">
+        <v>15.6524</v>
+      </c>
+      <c r="AH161">
+        <v>0.733</v>
+      </c>
+      <c r="AI161">
+        <v>8.532299999999999</v>
+      </c>
+      <c r="AJ161">
+        <v>4.1041</v>
+      </c>
+      <c r="AK161">
+        <v>97.28149999999999</v>
+      </c>
+      <c r="AL161">
+        <v>789.98</v>
+      </c>
+      <c r="AM161">
+        <v>3867.02</v>
+      </c>
+      <c r="AN161">
+        <v>24</v>
+      </c>
+      <c r="AO161">
+        <v>56.934</v>
+      </c>
+      <c r="AP161">
+        <v>50.54</v>
+      </c>
+      <c r="AQ161">
+        <v>20.1855</v>
+      </c>
+      <c r="AR161">
+        <v>43.15</v>
+      </c>
+      <c r="AS161">
+        <v>7.7333</v>
+      </c>
+      <c r="AT161">
+        <v>15.2433</v>
+      </c>
+      <c r="AU161">
+        <v>5.4214</v>
+      </c>
+      <c r="AV161">
+        <v>42000</v>
+      </c>
+      <c r="AW161">
+        <v>3.75</v>
+      </c>
+      <c r="AX161">
+        <v>4.2355</v>
+      </c>
+      <c r="AY161">
+        <v>74.2928</v>
+      </c>
+      <c r="AZ161">
+        <v>74.24250000000001</v>
+      </c>
+      <c r="BA161">
+        <v>14400</v>
+      </c>
+      <c r="BB161">
+        <v>163.27</v>
+      </c>
+      <c r="BC161">
+        <v>3.246</v>
+      </c>
+      <c r="BD161">
+        <v>426.27</v>
+      </c>
+      <c r="BE161">
+        <v>1176.09</v>
+      </c>
+      <c r="BF161">
+        <v>109.78</v>
+      </c>
+      <c r="BG161">
+        <v>6.5002</v>
+      </c>
+      <c r="BH161">
+        <v>3.9264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:60">
+      <c r="A162" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162">
+        <v>33.337</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>4111917.8232</v>
+      </c>
+      <c r="E162">
+        <v>6.86</v>
+      </c>
+      <c r="F162">
+        <v>617.4299999999999</v>
+      </c>
+      <c r="G162">
+        <v>21.8428</v>
+      </c>
+      <c r="H162">
+        <v>6.3584</v>
+      </c>
+      <c r="I162">
+        <v>127.71</v>
+      </c>
+      <c r="J162">
+        <v>9.0284</v>
+      </c>
+      <c r="K162">
+        <v>8.807499999999999</v>
+      </c>
+      <c r="L162">
+        <v>0.7060999999999999</v>
+      </c>
+      <c r="M162">
+        <v>3.672</v>
+      </c>
+      <c r="N162">
+        <v>8.9758</v>
+      </c>
+      <c r="O162">
+        <v>1.4019</v>
+      </c>
+      <c r="P162">
+        <v>1.2845</v>
+      </c>
+      <c r="Q162">
+        <v>1</v>
+      </c>
+      <c r="R162">
+        <v>2.1231</v>
+      </c>
+      <c r="S162">
+        <v>0.82</v>
+      </c>
+      <c r="T162">
+        <v>1</v>
+      </c>
+      <c r="U162">
+        <v>1.362</v>
+      </c>
+      <c r="V162">
+        <v>7.7895</v>
+      </c>
+      <c r="W162">
+        <v>1.4646</v>
+      </c>
+      <c r="X162">
+        <v>28.021</v>
+      </c>
+      <c r="Y162">
+        <v>22797</v>
+      </c>
+      <c r="Z162">
+        <v>0.8551</v>
+      </c>
+      <c r="AA162">
+        <v>299.29</v>
+      </c>
+      <c r="AB162">
+        <v>100.9742</v>
+      </c>
+      <c r="AC162">
+        <v>0.9177</v>
+      </c>
+      <c r="AD162">
+        <v>6928.2</v>
+      </c>
+      <c r="AE162">
+        <v>26.5421</v>
+      </c>
+      <c r="AF162">
+        <v>4.2175</v>
+      </c>
+      <c r="AG162">
+        <v>15.6688</v>
+      </c>
+      <c r="AH162">
+        <v>0.7343</v>
+      </c>
+      <c r="AI162">
+        <v>8.4817</v>
+      </c>
+      <c r="AJ162">
+        <v>4.1125</v>
+      </c>
+      <c r="AK162">
+        <v>97.3103</v>
+      </c>
+      <c r="AL162">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="AM162">
+        <v>3868</v>
+      </c>
+      <c r="AN162">
+        <v>24</v>
+      </c>
+      <c r="AO162">
+        <v>56.95</v>
+      </c>
+      <c r="AP162">
+        <v>50.37</v>
+      </c>
+      <c r="AQ162">
+        <v>20.4083</v>
+      </c>
+      <c r="AR162">
+        <v>43.05</v>
+      </c>
+      <c r="AS162">
+        <v>7.7145</v>
+      </c>
+      <c r="AT162">
+        <v>15.3658</v>
+      </c>
+      <c r="AU162">
+        <v>5.4023</v>
+      </c>
+      <c r="AV162">
+        <v>42000</v>
+      </c>
+      <c r="AW162">
+        <v>3.75</v>
+      </c>
+      <c r="AX162">
+        <v>4.238</v>
+      </c>
+      <c r="AY162">
+        <v>74.30540000000001</v>
+      </c>
+      <c r="AZ162">
+        <v>74.39</v>
+      </c>
+      <c r="BA162">
+        <v>14450</v>
+      </c>
+      <c r="BB162">
+        <v>164.0099</v>
+      </c>
+      <c r="BC162">
+        <v>3.2374</v>
+      </c>
+      <c r="BD162">
+        <v>426.83</v>
+      </c>
+      <c r="BE162">
+        <v>1179.38</v>
+      </c>
+      <c r="BF162">
+        <v>109.81</v>
+      </c>
+      <c r="BG162">
+        <v>6.4994</v>
+      </c>
+      <c r="BH162">
+        <v>3.9199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:60">
+      <c r="A163" t="s">
+        <v>221</v>
+      </c>
+      <c r="B163">
+        <v>33.227</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>4113155.6565</v>
+      </c>
+      <c r="E163">
+        <v>6.86</v>
+      </c>
+      <c r="F163">
+        <v>618.9299999999999</v>
+      </c>
+      <c r="G163">
+        <v>21.7455</v>
+      </c>
+      <c r="H163">
+        <v>6.3306</v>
+      </c>
+      <c r="I163">
+        <v>127.78</v>
+      </c>
+      <c r="J163">
+        <v>8.904999999999999</v>
+      </c>
+      <c r="K163">
+        <v>8.6999</v>
+      </c>
+      <c r="L163">
+        <v>0.7049</v>
+      </c>
+      <c r="M163">
+        <v>3.672</v>
+      </c>
+      <c r="N163">
+        <v>8.9846</v>
+      </c>
+      <c r="O163">
+        <v>1.3864</v>
+      </c>
+      <c r="P163">
+        <v>1.265</v>
+      </c>
+      <c r="Q163">
+        <v>1</v>
+      </c>
+      <c r="R163">
+        <v>2.1263</v>
+      </c>
+      <c r="S163">
+        <v>0.82</v>
+      </c>
+      <c r="T163">
+        <v>1</v>
+      </c>
+      <c r="U163">
+        <v>1.3567</v>
+      </c>
+      <c r="V163">
+        <v>7.7926</v>
+      </c>
+      <c r="W163">
+        <v>1.4497</v>
+      </c>
+      <c r="X163">
+        <v>27.968</v>
+      </c>
+      <c r="Y163">
+        <v>22820</v>
+      </c>
+      <c r="Z163">
+        <v>0.8514</v>
+      </c>
+      <c r="AA163">
+        <v>297.81</v>
+      </c>
+      <c r="AB163">
+        <v>101.3127</v>
+      </c>
+      <c r="AC163">
+        <v>0.9124</v>
+      </c>
+      <c r="AD163">
+        <v>6924</v>
+      </c>
+      <c r="AE163">
+        <v>26.4495</v>
+      </c>
+      <c r="AF163">
+        <v>4.1937</v>
+      </c>
+      <c r="AG163">
+        <v>15.6466</v>
+      </c>
+      <c r="AH163">
+        <v>0.7284</v>
+      </c>
+      <c r="AI163">
+        <v>8.429600000000001</v>
+      </c>
+      <c r="AJ163">
+        <v>4.0996</v>
+      </c>
+      <c r="AK163">
+        <v>97.3967</v>
+      </c>
+      <c r="AL163">
+        <v>783.3</v>
+      </c>
+      <c r="AM163">
+        <v>3875.59</v>
+      </c>
+      <c r="AN163">
+        <v>24</v>
+      </c>
+      <c r="AO163">
+        <v>56.9</v>
+      </c>
+      <c r="AP163">
+        <v>50.25</v>
+      </c>
+      <c r="AQ163">
+        <v>20.3452</v>
+      </c>
+      <c r="AR163">
+        <v>42.875</v>
+      </c>
+      <c r="AS163">
+        <v>7.7166</v>
+      </c>
+      <c r="AT163">
+        <v>15.1312</v>
+      </c>
+      <c r="AU163">
+        <v>5.3826</v>
+      </c>
+      <c r="AV163">
+        <v>42000</v>
+      </c>
+      <c r="AW163">
+        <v>3.75</v>
+      </c>
+      <c r="AX163">
+        <v>4.2245</v>
+      </c>
+      <c r="AY163">
+        <v>74.1198</v>
+      </c>
+      <c r="AZ163">
+        <v>74.2075</v>
+      </c>
+      <c r="BA163">
+        <v>14410</v>
+      </c>
+      <c r="BB163">
+        <v>164.05</v>
+      </c>
+      <c r="BC163">
+        <v>3.2218</v>
+      </c>
+      <c r="BD163">
+        <v>425.09</v>
+      </c>
+      <c r="BE163">
+        <v>1173.7</v>
+      </c>
+      <c r="BF163">
+        <v>109.7</v>
+      </c>
+      <c r="BG163">
+        <v>6.4788</v>
+      </c>
+      <c r="BH163">
+        <v>3.9004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:60">
+      <c r="A164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164">
+        <v>32.892</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>4119336.7644</v>
+      </c>
+      <c r="E164">
+        <v>6.86</v>
+      </c>
+      <c r="F164">
+        <v>620.97</v>
+      </c>
+      <c r="G164">
+        <v>21.7191</v>
+      </c>
+      <c r="H164">
+        <v>6.3277</v>
+      </c>
+      <c r="I164">
+        <v>127.03</v>
+      </c>
+      <c r="J164">
+        <v>8.8285</v>
+      </c>
+      <c r="K164">
+        <v>8.6906</v>
+      </c>
+      <c r="L164">
+        <v>0.7044</v>
+      </c>
+      <c r="M164">
+        <v>3.672</v>
+      </c>
+      <c r="N164">
+        <v>8.9613</v>
+      </c>
+      <c r="O164">
+        <v>1.3782</v>
+      </c>
+      <c r="P164">
+        <v>1.2595</v>
+      </c>
+      <c r="Q164">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>2.1119</v>
+      </c>
+      <c r="S164">
+        <v>0.82</v>
+      </c>
+      <c r="T164">
+        <v>1</v>
+      </c>
+      <c r="U164">
+        <v>1.3547</v>
+      </c>
+      <c r="V164">
+        <v>7.7877</v>
+      </c>
+      <c r="W164">
+        <v>1.4397</v>
+      </c>
+      <c r="X164">
+        <v>27.946</v>
+      </c>
+      <c r="Y164">
+        <v>22822</v>
+      </c>
+      <c r="Z164">
+        <v>0.8509</v>
+      </c>
+      <c r="AA164">
+        <v>296.15</v>
+      </c>
+      <c r="AB164">
+        <v>101.2044</v>
+      </c>
+      <c r="AC164">
+        <v>0.9129</v>
+      </c>
+      <c r="AD164">
+        <v>6930</v>
+      </c>
+      <c r="AE164">
+        <v>26.4495</v>
+      </c>
+      <c r="AF164">
+        <v>4.1937</v>
+      </c>
+      <c r="AG164">
+        <v>15.7059</v>
+      </c>
+      <c r="AH164">
+        <v>0.7284</v>
+      </c>
+      <c r="AI164">
+        <v>8.410600000000001</v>
+      </c>
+      <c r="AJ164">
+        <v>4.089</v>
+      </c>
+      <c r="AK164">
+        <v>97.43389999999999</v>
+      </c>
+      <c r="AL164">
+        <v>782.17</v>
+      </c>
+      <c r="AM164">
+        <v>3863.96</v>
+      </c>
+      <c r="AN164">
+        <v>24</v>
+      </c>
+      <c r="AO164">
+        <v>56.88</v>
+      </c>
+      <c r="AP164">
+        <v>50.114</v>
+      </c>
+      <c r="AQ164">
+        <v>20.2118</v>
+      </c>
+      <c r="AR164">
+        <v>42.7561</v>
+      </c>
+      <c r="AS164">
+        <v>7.7068</v>
+      </c>
+      <c r="AT164">
+        <v>14.9796</v>
+      </c>
+      <c r="AU164">
+        <v>5.2498</v>
+      </c>
+      <c r="AV164">
+        <v>42000</v>
+      </c>
+      <c r="AW164">
+        <v>3.75</v>
+      </c>
+      <c r="AX164">
+        <v>4.216</v>
+      </c>
+      <c r="AY164">
+        <v>73.7458</v>
+      </c>
+      <c r="AZ164">
+        <v>74.19</v>
+      </c>
+      <c r="BA164">
+        <v>14390</v>
+      </c>
+      <c r="BB164">
+        <v>164.8443</v>
+      </c>
+      <c r="BC164">
+        <v>3.219</v>
+      </c>
+      <c r="BD164">
+        <v>423.67</v>
+      </c>
+      <c r="BE164">
+        <v>1165.59</v>
+      </c>
+      <c r="BF164">
+        <v>109.67</v>
+      </c>
+      <c r="BG164">
+        <v>6.4736</v>
+      </c>
+      <c r="BH164">
+        <v>3.8887</v>
+      </c>
+    </row>
+    <row r="165" spans="1:60">
+      <c r="A165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165">
+        <v>32.779</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>4111348.603</v>
+      </c>
+      <c r="E165">
+        <v>6.86</v>
+      </c>
+      <c r="F165">
+        <v>622.02</v>
+      </c>
+      <c r="G165">
+        <v>21.6828</v>
+      </c>
+      <c r="H165">
+        <v>6.3165</v>
+      </c>
+      <c r="I165">
+        <v>126.11</v>
+      </c>
+      <c r="J165">
+        <v>8.7935</v>
+      </c>
+      <c r="K165">
+        <v>8.6777</v>
+      </c>
+      <c r="L165">
+        <v>0.7040999999999999</v>
+      </c>
+      <c r="M165">
+        <v>3.672</v>
+      </c>
+      <c r="N165">
+        <v>8.848100000000001</v>
+      </c>
+      <c r="O165">
+        <v>1.3742</v>
+      </c>
+      <c r="P165">
+        <v>1.2601</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>2.1048</v>
+      </c>
+      <c r="S165">
+        <v>0.82</v>
+      </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
+      <c r="U165">
+        <v>1.3528</v>
+      </c>
+      <c r="V165">
+        <v>7.7839</v>
+      </c>
+      <c r="W165">
+        <v>1.4333</v>
+      </c>
+      <c r="X165">
+        <v>27.914</v>
+      </c>
+      <c r="Y165">
+        <v>22787</v>
+      </c>
+      <c r="Z165">
+        <v>0.8495</v>
+      </c>
+      <c r="AA165">
+        <v>296.04</v>
+      </c>
+      <c r="AB165">
+        <v>100.7896</v>
+      </c>
+      <c r="AC165">
+        <v>0.913</v>
+      </c>
+      <c r="AD165">
+        <v>6929.1</v>
+      </c>
+      <c r="AE165">
+        <v>26.71</v>
+      </c>
+      <c r="AF165">
+        <v>4.1844</v>
+      </c>
+      <c r="AG165">
+        <v>15.66</v>
+      </c>
+      <c r="AH165">
+        <v>0.7265</v>
+      </c>
+      <c r="AI165">
+        <v>8.371</v>
+      </c>
+      <c r="AJ165">
+        <v>4.0868</v>
+      </c>
+      <c r="AK165">
+        <v>97.4824</v>
+      </c>
+      <c r="AL165">
+        <v>783.03</v>
+      </c>
+      <c r="AM165">
+        <v>3850</v>
+      </c>
+      <c r="AN165">
+        <v>24</v>
+      </c>
+      <c r="AO165">
+        <v>56.841</v>
+      </c>
+      <c r="AP165">
+        <v>49.845</v>
+      </c>
+      <c r="AQ165">
+        <v>20.2656</v>
+      </c>
+      <c r="AR165">
+        <v>42.6199</v>
+      </c>
+      <c r="AS165">
+        <v>7.7263</v>
+      </c>
+      <c r="AT165">
+        <v>14.9517</v>
+      </c>
+      <c r="AU165">
+        <v>5.2153</v>
+      </c>
+      <c r="AV165">
+        <v>42000</v>
+      </c>
+      <c r="AW165">
+        <v>3.75</v>
+      </c>
+      <c r="AX165">
+        <v>4.201</v>
+      </c>
+      <c r="AY165">
+        <v>73.88549999999999</v>
+      </c>
+      <c r="AZ165">
+        <v>74.23999999999999</v>
+      </c>
+      <c r="BA165">
+        <v>14395</v>
+      </c>
+      <c r="BB165">
+        <v>165.75</v>
+      </c>
+      <c r="BC165">
+        <v>3.2267</v>
+      </c>
+      <c r="BD165">
+        <v>425.49</v>
+      </c>
+      <c r="BE165">
+        <v>1167.14</v>
+      </c>
+      <c r="BF165">
+        <v>109.98</v>
+      </c>
+      <c r="BG165">
+        <v>6.4693</v>
+      </c>
+      <c r="BH165">
+        <v>3.8832</v>
+      </c>
+    </row>
+    <row r="166" spans="1:60">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166">
+        <v>32.737</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>4136932.2646</v>
+      </c>
+      <c r="E166">
+        <v>6.86</v>
+      </c>
+      <c r="F166">
+        <v>622.6900000000001</v>
+      </c>
+      <c r="G166">
+        <v>21.7179</v>
+      </c>
+      <c r="H166">
+        <v>6.3274</v>
+      </c>
+      <c r="I166">
+        <v>126.52</v>
+      </c>
+      <c r="J166">
+        <v>8.8307</v>
+      </c>
+      <c r="K166">
+        <v>8.706799999999999</v>
+      </c>
+      <c r="L166">
+        <v>0.7037</v>
+      </c>
+      <c r="M166">
+        <v>3.672</v>
+      </c>
+      <c r="N166">
+        <v>8.9602</v>
+      </c>
+      <c r="O166">
+        <v>1.3814</v>
+      </c>
+      <c r="P166">
+        <v>1.2679</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>2.1004</v>
+      </c>
+      <c r="S166">
+        <v>0.82</v>
+      </c>
+      <c r="T166">
+        <v>1</v>
+      </c>
+      <c r="U166">
+        <v>1.3543</v>
+      </c>
+      <c r="V166">
+        <v>7.7872</v>
+      </c>
+      <c r="W166">
+        <v>1.4399</v>
+      </c>
+      <c r="X166">
+        <v>27.918</v>
+      </c>
+      <c r="Y166">
+        <v>22762</v>
+      </c>
+      <c r="Z166">
+        <v>0.8509</v>
+      </c>
+      <c r="AA166">
+        <v>296.84</v>
+      </c>
+      <c r="AB166">
+        <v>100.9178</v>
+      </c>
+      <c r="AC166">
+        <v>0.9184</v>
+      </c>
+      <c r="AD166">
+        <v>6930.6</v>
+      </c>
+      <c r="AE166">
+        <v>26.6415</v>
+      </c>
+      <c r="AF166">
+        <v>4.1971</v>
+      </c>
+      <c r="AG166">
+        <v>15.6788</v>
+      </c>
+      <c r="AH166">
+        <v>0.7301</v>
+      </c>
+      <c r="AI166">
+        <v>8.3818</v>
+      </c>
+      <c r="AJ166">
+        <v>4.07</v>
+      </c>
+      <c r="AK166">
+        <v>97.5163</v>
+      </c>
+      <c r="AL166">
+        <v>785.0599999999999</v>
+      </c>
+      <c r="AM166">
+        <v>3864.73</v>
+      </c>
+      <c r="AN166">
+        <v>24</v>
+      </c>
+      <c r="AO166">
+        <v>56.835</v>
+      </c>
+      <c r="AP166">
+        <v>49.96</v>
+      </c>
+      <c r="AQ166">
+        <v>20.3436</v>
+      </c>
+      <c r="AR166">
+        <v>42.55</v>
+      </c>
+      <c r="AS166">
+        <v>7.7067</v>
+      </c>
+      <c r="AT166">
+        <v>14.9196</v>
+      </c>
+      <c r="AU166">
+        <v>5.251</v>
+      </c>
+      <c r="AV166">
+        <v>42000</v>
+      </c>
+      <c r="AW166">
+        <v>3.75</v>
+      </c>
+      <c r="AX166">
+        <v>4.194</v>
+      </c>
+      <c r="AY166">
+        <v>74.2497</v>
+      </c>
+      <c r="AZ166">
+        <v>74.22</v>
+      </c>
+      <c r="BA166">
+        <v>14415</v>
+      </c>
+      <c r="BB166">
+        <v>165.898</v>
+      </c>
+      <c r="BC166">
+        <v>3.2265</v>
+      </c>
+      <c r="BD166">
+        <v>425.91</v>
+      </c>
+      <c r="BE166">
+        <v>1169.99</v>
+      </c>
+      <c r="BF166">
+        <v>110.05</v>
+      </c>
+      <c r="BG166">
+        <v>6.4842</v>
+      </c>
+      <c r="BH166">
+        <v>3.8887</v>
+      </c>
+    </row>
+    <row r="167" spans="1:60">
+      <c r="A167" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167">
+        <v>32.53</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>4129510.6073</v>
+      </c>
+      <c r="E167">
+        <v>6.86</v>
+      </c>
+      <c r="F167">
+        <v>622.29</v>
+      </c>
+      <c r="G167">
+        <v>21.6161</v>
+      </c>
+      <c r="H167">
+        <v>6.3042</v>
+      </c>
+      <c r="I167">
+        <v>126.57</v>
+      </c>
+      <c r="J167">
+        <v>8.716900000000001</v>
+      </c>
+      <c r="K167">
+        <v>8.6408</v>
+      </c>
+      <c r="L167">
+        <v>0.7042</v>
+      </c>
+      <c r="M167">
+        <v>3.672</v>
+      </c>
+      <c r="N167">
+        <v>8.965299999999999</v>
+      </c>
+      <c r="O167">
+        <v>1.368</v>
+      </c>
+      <c r="P167">
+        <v>1.2613</v>
+      </c>
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="R167">
+        <v>2.1061</v>
+      </c>
+      <c r="S167">
+        <v>0.82</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>1.3454</v>
+      </c>
+      <c r="V167">
+        <v>7.787</v>
+      </c>
+      <c r="W167">
+        <v>1.4259</v>
+      </c>
+      <c r="X167">
+        <v>27.932</v>
+      </c>
+      <c r="Y167">
+        <v>22783</v>
+      </c>
+      <c r="Z167">
+        <v>0.8478</v>
+      </c>
+      <c r="AA167">
+        <v>296.01</v>
+      </c>
+      <c r="AB167">
+        <v>100.6349</v>
+      </c>
+      <c r="AC167">
+        <v>0.9115</v>
+      </c>
+      <c r="AD167">
+        <v>6925.4</v>
+      </c>
+      <c r="AE167">
+        <v>26.8511</v>
+      </c>
+      <c r="AF167">
+        <v>4.1833</v>
+      </c>
+      <c r="AG167">
+        <v>15.6617</v>
+      </c>
+      <c r="AH167">
+        <v>0.7262999999999999</v>
+      </c>
+      <c r="AI167">
+        <v>8.343299999999999</v>
+      </c>
+      <c r="AJ167">
+        <v>4.0797</v>
+      </c>
+      <c r="AK167">
+        <v>97.5594</v>
+      </c>
+      <c r="AL167">
+        <v>784.39</v>
+      </c>
+      <c r="AM167">
+        <v>3825</v>
+      </c>
+      <c r="AN167">
+        <v>24</v>
+      </c>
+      <c r="AO167">
+        <v>56.764</v>
+      </c>
+      <c r="AP167">
+        <v>49.94</v>
+      </c>
+      <c r="AQ167">
+        <v>20.1859</v>
+      </c>
+      <c r="AR167">
+        <v>42.52</v>
+      </c>
+      <c r="AS167">
+        <v>7.7056</v>
+      </c>
+      <c r="AT167">
+        <v>14.6985</v>
+      </c>
+      <c r="AU167">
+        <v>5.1979</v>
+      </c>
+      <c r="AV167">
+        <v>42000</v>
+      </c>
+      <c r="AW167">
+        <v>3.75</v>
+      </c>
+      <c r="AX167">
+        <v>4.189</v>
+      </c>
+      <c r="AY167">
+        <v>73.565</v>
+      </c>
+      <c r="AZ167">
+        <v>73.6825</v>
+      </c>
+      <c r="BA167">
+        <v>14415</v>
+      </c>
+      <c r="BB167">
+        <v>165.7</v>
+      </c>
+      <c r="BC167">
+        <v>3.2204</v>
+      </c>
+      <c r="BD167">
+        <v>426.89</v>
+      </c>
+      <c r="BE167">
+        <v>1168.92</v>
+      </c>
+      <c r="BF167">
+        <v>109.83</v>
+      </c>
+      <c r="BG167">
+        <v>6.4625</v>
+      </c>
+      <c r="BH167">
+        <v>3.8774</v>
+      </c>
+    </row>
+    <row r="168" spans="1:60">
+      <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168">
+        <v>32.45</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>4123962.3032</v>
+      </c>
+      <c r="E168">
+        <v>6.86</v>
+      </c>
+      <c r="F168">
+        <v>623.3200000000001</v>
+      </c>
+      <c r="G168">
+        <v>21.6789</v>
+      </c>
+      <c r="H168">
+        <v>6.3021</v>
+      </c>
+      <c r="I168">
+        <v>126.88</v>
+      </c>
+      <c r="J168">
+        <v>8.6655</v>
+      </c>
+      <c r="K168">
+        <v>8.6205</v>
+      </c>
+      <c r="L168">
+        <v>0.7029</v>
+      </c>
+      <c r="M168">
+        <v>3.672</v>
+      </c>
+      <c r="N168">
+        <v>8.8299</v>
+      </c>
+      <c r="O168">
+        <v>1.3712</v>
+      </c>
+      <c r="P168">
+        <v>1.2612</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>2.0964</v>
+      </c>
+      <c r="S168">
+        <v>0.82</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+      <c r="U168">
+        <v>1.3448</v>
+      </c>
+      <c r="V168">
+        <v>7.787</v>
+      </c>
+      <c r="W168">
+        <v>1.428</v>
+      </c>
+      <c r="X168">
+        <v>27.764</v>
+      </c>
+      <c r="Y168">
+        <v>22755</v>
+      </c>
+      <c r="Z168">
+        <v>0.8476</v>
+      </c>
+      <c r="AA168">
+        <v>294.76</v>
+      </c>
+      <c r="AB168">
+        <v>100.8653</v>
+      </c>
+      <c r="AC168">
+        <v>0.9167</v>
+      </c>
+      <c r="AD168">
+        <v>6911.5</v>
+      </c>
+      <c r="AE168">
+        <v>26.6997</v>
+      </c>
+      <c r="AF168">
+        <v>4.1826</v>
+      </c>
+      <c r="AG168">
+        <v>15.6522</v>
+      </c>
+      <c r="AH168">
+        <v>0.7267</v>
+      </c>
+      <c r="AI168">
+        <v>8.3873</v>
+      </c>
+      <c r="AJ168">
+        <v>4.0748</v>
+      </c>
+      <c r="AK168">
+        <v>97.7029</v>
+      </c>
+      <c r="AL168">
+        <v>779.97</v>
+      </c>
+      <c r="AM168">
+        <v>3806.25</v>
+      </c>
+      <c r="AN168">
+        <v>24</v>
+      </c>
+      <c r="AO168">
+        <v>56.75</v>
+      </c>
+      <c r="AP168">
+        <v>49.82</v>
+      </c>
+      <c r="AQ168">
+        <v>20.1355</v>
+      </c>
+      <c r="AR168">
+        <v>42.3769</v>
+      </c>
+      <c r="AS168">
+        <v>7.7154</v>
+      </c>
+      <c r="AT168">
+        <v>14.6618</v>
+      </c>
+      <c r="AU168">
+        <v>5.1901</v>
+      </c>
+      <c r="AV168">
+        <v>42000</v>
+      </c>
+      <c r="AW168">
+        <v>3.75</v>
+      </c>
+      <c r="AX168">
+        <v>4.153</v>
+      </c>
+      <c r="AY168">
+        <v>73.5189</v>
+      </c>
+      <c r="AZ168">
+        <v>73.2675</v>
+      </c>
+      <c r="BA168">
+        <v>14368</v>
+      </c>
+      <c r="BB168">
+        <v>165.27</v>
+      </c>
+      <c r="BC168">
+        <v>3.2145</v>
+      </c>
+      <c r="BD168">
+        <v>426.57</v>
+      </c>
+      <c r="BE168">
+        <v>1166.39</v>
+      </c>
+      <c r="BF168">
+        <v>109.9</v>
+      </c>
+      <c r="BG168">
+        <v>6.4636</v>
+      </c>
+      <c r="BH168">
+        <v>3.8627</v>
+      </c>
+    </row>
+    <row r="169" spans="1:60">
+      <c r="A169" t="s">
+        <v>227</v>
+      </c>
+      <c r="B169">
+        <v>32.226</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>4134141.5975</v>
+      </c>
+      <c r="E169">
+        <v>6.86</v>
+      </c>
+      <c r="F169">
+        <v>622.08</v>
+      </c>
+      <c r="G169">
+        <v>21.5108</v>
+      </c>
+      <c r="H169">
+        <v>6.2966</v>
+      </c>
+      <c r="I169">
+        <v>125.9</v>
+      </c>
+      <c r="J169">
+        <v>8.689</v>
+      </c>
+      <c r="K169">
+        <v>8.6233</v>
+      </c>
+      <c r="L169">
+        <v>0.7020999999999999</v>
+      </c>
+      <c r="M169">
+        <v>3.672</v>
+      </c>
+      <c r="N169">
+        <v>8.882899999999999</v>
+      </c>
+      <c r="O169">
+        <v>1.3671</v>
+      </c>
+      <c r="P169">
+        <v>1.2607</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>2.0969</v>
+      </c>
+      <c r="S169">
+        <v>0.82</v>
+      </c>
+      <c r="T169">
+        <v>1</v>
+      </c>
+      <c r="U169">
+        <v>1.344</v>
+      </c>
+      <c r="V169">
+        <v>7.7774</v>
+      </c>
+      <c r="W169">
+        <v>1.418</v>
+      </c>
+      <c r="X169">
+        <v>27.662</v>
+      </c>
+      <c r="Y169">
+        <v>22776</v>
+      </c>
+      <c r="Z169">
+        <v>0.8467</v>
+      </c>
+      <c r="AA169">
+        <v>294.89</v>
+      </c>
+      <c r="AB169">
+        <v>101.0594</v>
+      </c>
+      <c r="AC169">
+        <v>0.9151</v>
+      </c>
+      <c r="AD169">
+        <v>6906.7</v>
+      </c>
+      <c r="AE169">
+        <v>26.7745</v>
+      </c>
+      <c r="AF169">
+        <v>4.1763</v>
+      </c>
+      <c r="AG169">
+        <v>15.6549</v>
+      </c>
+      <c r="AH169">
+        <v>0.727</v>
+      </c>
+      <c r="AI169">
+        <v>8.311400000000001</v>
+      </c>
+      <c r="AJ169">
+        <v>4.0875</v>
+      </c>
+      <c r="AK169">
+        <v>97.73779999999999</v>
+      </c>
+      <c r="AL169">
+        <v>775.14</v>
+      </c>
+      <c r="AM169">
+        <v>3768</v>
+      </c>
+      <c r="AN169">
+        <v>24</v>
+      </c>
+      <c r="AO169">
+        <v>56.702</v>
+      </c>
+      <c r="AP169">
+        <v>49.73</v>
+      </c>
+      <c r="AQ169">
+        <v>20.0774</v>
+      </c>
+      <c r="AR169">
+        <v>42.27</v>
+      </c>
+      <c r="AS169">
+        <v>7.7132</v>
+      </c>
+      <c r="AT169">
+        <v>14.5116</v>
+      </c>
+      <c r="AU169">
+        <v>5.1639</v>
+      </c>
+      <c r="AV169">
+        <v>42000</v>
+      </c>
+      <c r="AW169">
+        <v>3.75</v>
+      </c>
+      <c r="AX169">
+        <v>4.153</v>
+      </c>
+      <c r="AY169">
+        <v>73.2726</v>
+      </c>
+      <c r="AZ169">
+        <v>73.0025</v>
+      </c>
+      <c r="BA169">
+        <v>14265</v>
+      </c>
+      <c r="BB169">
+        <v>166.2213</v>
+      </c>
+      <c r="BC169">
+        <v>3.2062</v>
+      </c>
+      <c r="BD169">
+        <v>425.4</v>
+      </c>
+      <c r="BE169">
+        <v>1159.34</v>
+      </c>
+      <c r="BF169">
+        <v>109.97</v>
+      </c>
+      <c r="BG169">
+        <v>6.4539</v>
+      </c>
+      <c r="BH169">
+        <v>3.8289</v>
+      </c>
+    </row>
+    <row r="170" spans="1:60">
+      <c r="A170" t="s">
+        <v>228</v>
+      </c>
+      <c r="B170">
+        <v>32.28</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>4116706.6651</v>
+      </c>
+      <c r="E170">
+        <v>6.86</v>
+      </c>
+      <c r="F170">
+        <v>622.2</v>
+      </c>
+      <c r="G170">
+        <v>21.391</v>
+      </c>
+      <c r="H170">
+        <v>6.2775</v>
+      </c>
+      <c r="I170">
+        <v>126.53</v>
+      </c>
+      <c r="J170">
+        <v>8.6866</v>
+      </c>
+      <c r="K170">
+        <v>8.6059</v>
+      </c>
+      <c r="L170">
+        <v>0.7026</v>
+      </c>
+      <c r="M170">
+        <v>3.672</v>
+      </c>
+      <c r="N170">
+        <v>8.8101</v>
+      </c>
+      <c r="O170">
+        <v>1.3565</v>
+      </c>
+      <c r="P170">
+        <v>1.2618</v>
+      </c>
+      <c r="Q170">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>2.0921</v>
+      </c>
+      <c r="S170">
+        <v>0.82</v>
+      </c>
+      <c r="T170">
+        <v>1</v>
+      </c>
+      <c r="U170">
+        <v>1.3441</v>
+      </c>
+      <c r="V170">
+        <v>7.7769</v>
+      </c>
+      <c r="W170">
+        <v>1.415</v>
+      </c>
+      <c r="X170">
+        <v>27.721</v>
+      </c>
+      <c r="Y170">
+        <v>22765</v>
+      </c>
+      <c r="Z170">
+        <v>0.8442</v>
+      </c>
+      <c r="AA170">
+        <v>293.56</v>
+      </c>
+      <c r="AB170">
+        <v>100.9585</v>
+      </c>
+      <c r="AC170">
+        <v>0.9147999999999999</v>
+      </c>
+      <c r="AD170">
+        <v>6915</v>
+      </c>
+      <c r="AE170">
+        <v>26.8949</v>
+      </c>
+      <c r="AF170">
+        <v>4.1648</v>
+      </c>
+      <c r="AG170">
+        <v>15.6467</v>
+      </c>
+      <c r="AH170">
+        <v>0.7257</v>
+      </c>
+      <c r="AI170">
+        <v>8.289899999999999</v>
+      </c>
+      <c r="AJ170">
+        <v>4.0803</v>
+      </c>
+      <c r="AK170">
+        <v>97.7915</v>
+      </c>
+      <c r="AL170">
+        <v>767.1</v>
+      </c>
+      <c r="AM170">
+        <v>3759.1</v>
+      </c>
+      <c r="AN170">
+        <v>24</v>
+      </c>
+      <c r="AO170">
+        <v>56.7</v>
+      </c>
+      <c r="AP170">
+        <v>50.05</v>
+      </c>
+      <c r="AQ170">
+        <v>19.9919</v>
+      </c>
+      <c r="AR170">
+        <v>42.445</v>
+      </c>
+      <c r="AS170">
+        <v>7.7293</v>
+      </c>
+      <c r="AT170">
+        <v>14.4075</v>
+      </c>
+      <c r="AU170">
+        <v>5.1725</v>
+      </c>
+      <c r="AV170">
+        <v>42000</v>
+      </c>
+      <c r="AW170">
+        <v>3.75</v>
+      </c>
+      <c r="AX170">
+        <v>4.1535</v>
+      </c>
+      <c r="AY170">
+        <v>72.9503</v>
+      </c>
+      <c r="AZ170">
+        <v>73.0825</v>
+      </c>
+      <c r="BA170">
+        <v>14280</v>
+      </c>
+      <c r="BB170">
+        <v>166.7216</v>
+      </c>
+      <c r="BC170">
+        <v>3.2065</v>
+      </c>
+      <c r="BD170">
+        <v>425.28</v>
+      </c>
+      <c r="BE170">
+        <v>1157.15</v>
+      </c>
+      <c r="BF170">
+        <v>109.99</v>
+      </c>
+      <c r="BG170">
+        <v>6.4508</v>
+      </c>
+      <c r="BH170">
+        <v>3.8029</v>
+      </c>
+    </row>
+    <row r="171" spans="1:60">
+      <c r="A171" t="s">
+        <v>229</v>
+      </c>
+      <c r="B171">
+        <v>32.445</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>4089857.9598</v>
+      </c>
+      <c r="E171">
+        <v>6.86</v>
+      </c>
+      <c r="F171">
+        <v>622.1799999999999</v>
+      </c>
+      <c r="G171">
+        <v>21.3892</v>
+      </c>
+      <c r="H171">
+        <v>6.2638</v>
+      </c>
+      <c r="I171">
+        <v>126.59</v>
+      </c>
+      <c r="J171">
+        <v>8.656499999999999</v>
+      </c>
+      <c r="K171">
+        <v>8.575200000000001</v>
+      </c>
+      <c r="L171">
+        <v>0.7026</v>
+      </c>
+      <c r="M171">
+        <v>3.672</v>
+      </c>
+      <c r="N171">
+        <v>8.832800000000001</v>
+      </c>
+      <c r="O171">
+        <v>1.3515</v>
+      </c>
+      <c r="P171">
+        <v>1.2559</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>2.0864</v>
+      </c>
+      <c r="S171">
+        <v>0.82</v>
+      </c>
+      <c r="T171">
+        <v>1</v>
+      </c>
+      <c r="U171">
+        <v>1.3425</v>
+      </c>
+      <c r="V171">
+        <v>7.7709</v>
+      </c>
+      <c r="W171">
+        <v>1.4061</v>
+      </c>
+      <c r="X171">
+        <v>27.69</v>
+      </c>
+      <c r="Y171">
+        <v>22744</v>
+      </c>
+      <c r="Z171">
+        <v>0.8424</v>
+      </c>
+      <c r="AA171">
+        <v>293.72</v>
+      </c>
+      <c r="AB171">
+        <v>100.781</v>
+      </c>
+      <c r="AC171">
+        <v>0.9149</v>
+      </c>
+      <c r="AD171">
+        <v>6927.4</v>
+      </c>
+      <c r="AE171">
+        <v>26.8249</v>
+      </c>
+      <c r="AF171">
+        <v>4.1582</v>
+      </c>
+      <c r="AG171">
+        <v>15.7013</v>
+      </c>
+      <c r="AH171">
+        <v>0.7231</v>
+      </c>
+      <c r="AI171">
+        <v>8.2736</v>
+      </c>
+      <c r="AJ171">
+        <v>4.1005</v>
+      </c>
+      <c r="AK171">
+        <v>97.82510000000001</v>
+      </c>
+      <c r="AL171">
+        <v>768.36</v>
+      </c>
+      <c r="AM171">
+        <v>3788.39</v>
+      </c>
+      <c r="AN171">
+        <v>24</v>
+      </c>
+      <c r="AO171">
+        <v>56.525</v>
+      </c>
+      <c r="AP171">
+        <v>49.82</v>
+      </c>
+      <c r="AQ171">
+        <v>19.9773</v>
+      </c>
+      <c r="AR171">
+        <v>42.525</v>
+      </c>
+      <c r="AS171">
+        <v>7.7077</v>
+      </c>
+      <c r="AT171">
+        <v>14.4769</v>
+      </c>
+      <c r="AU171">
+        <v>5.1722</v>
+      </c>
+      <c r="AV171">
+        <v>42000</v>
+      </c>
+      <c r="AW171">
+        <v>3.75</v>
+      </c>
+      <c r="AX171">
+        <v>4.157</v>
+      </c>
+      <c r="AY171">
+        <v>72.91540000000001</v>
+      </c>
+      <c r="AZ171">
+        <v>73.065</v>
+      </c>
+      <c r="BA171">
+        <v>14270</v>
+      </c>
+      <c r="BB171">
+        <v>166.9733</v>
+      </c>
+      <c r="BC171">
+        <v>3.2058</v>
+      </c>
+      <c r="BD171">
+        <v>424.5</v>
+      </c>
+      <c r="BE171">
+        <v>1161.07</v>
+      </c>
+      <c r="BF171">
+        <v>109.97</v>
+      </c>
+      <c r="BG171">
+        <v>6.4487</v>
+      </c>
+      <c r="BH171">
+        <v>3.8033</v>
+      </c>
+    </row>
+    <row r="172" spans="1:60">
+      <c r="A172" t="s">
+        <v>230</v>
+      </c>
+      <c r="B172">
+        <v>32.451</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>4076918.5834</v>
+      </c>
+      <c r="E172">
+        <v>6.86</v>
+      </c>
+      <c r="F172">
+        <v>623.5599999999999</v>
+      </c>
+      <c r="G172">
+        <v>21.3213</v>
+      </c>
+      <c r="H172">
+        <v>6.2533</v>
+      </c>
+      <c r="I172">
+        <v>126.24</v>
+      </c>
+      <c r="J172">
+        <v>8.645899999999999</v>
+      </c>
+      <c r="K172">
+        <v>8.5372</v>
+      </c>
+      <c r="L172">
+        <v>0.7026</v>
+      </c>
+      <c r="M172">
+        <v>3.672</v>
+      </c>
+      <c r="N172">
+        <v>8.910500000000001</v>
+      </c>
+      <c r="O172">
+        <v>1.3405</v>
+      </c>
+      <c r="P172">
+        <v>1.2513</v>
+      </c>
+      <c r="Q172">
+        <v>1</v>
+      </c>
+      <c r="R172">
+        <v>2.0794</v>
+      </c>
+      <c r="S172">
+        <v>0.82</v>
+      </c>
+      <c r="T172">
+        <v>1</v>
+      </c>
+      <c r="U172">
+        <v>1.3408</v>
+      </c>
+      <c r="V172">
+        <v>7.7708</v>
+      </c>
+      <c r="W172">
+        <v>1.3955</v>
+      </c>
+      <c r="X172">
+        <v>27.663</v>
+      </c>
+      <c r="Y172">
+        <v>22764</v>
+      </c>
+      <c r="Z172">
+        <v>0.841</v>
+      </c>
+      <c r="AA172">
+        <v>291.96</v>
+      </c>
+      <c r="AB172">
+        <v>100.358</v>
+      </c>
+      <c r="AC172">
+        <v>0.9133</v>
+      </c>
+      <c r="AD172">
+        <v>6926.3</v>
+      </c>
+      <c r="AE172">
+        <v>26.8596</v>
+      </c>
+      <c r="AF172">
+        <v>4.1576</v>
+      </c>
+      <c r="AG172">
+        <v>15.6736</v>
+      </c>
+      <c r="AH172">
+        <v>0.7204</v>
+      </c>
+      <c r="AI172">
+        <v>8.3094</v>
+      </c>
+      <c r="AJ172">
+        <v>4.0915</v>
+      </c>
+      <c r="AK172">
+        <v>97.8616</v>
+      </c>
+      <c r="AL172">
+        <v>766.53</v>
+      </c>
+      <c r="AM172">
+        <v>3784.6</v>
+      </c>
+      <c r="AN172">
+        <v>24</v>
+      </c>
+      <c r="AO172">
+        <v>56.746</v>
+      </c>
+      <c r="AP172">
+        <v>49.804</v>
+      </c>
+      <c r="AQ172">
+        <v>19.8954</v>
+      </c>
+      <c r="AR172">
+        <v>42.54</v>
+      </c>
+      <c r="AS172">
+        <v>7.7277</v>
+      </c>
+      <c r="AT172">
+        <v>14.2654</v>
+      </c>
+      <c r="AU172">
+        <v>5.1862</v>
+      </c>
+      <c r="AV172">
+        <v>42000</v>
+      </c>
+      <c r="AW172">
+        <v>3.75</v>
+      </c>
+      <c r="AX172">
+        <v>4.1445</v>
+      </c>
+      <c r="AY172">
+        <v>72.69889999999999</v>
+      </c>
+      <c r="AZ172">
+        <v>73.015</v>
+      </c>
+      <c r="BA172">
+        <v>14260</v>
+      </c>
+      <c r="BB172">
+        <v>166.5001</v>
+      </c>
+      <c r="BC172">
+        <v>3.2006</v>
+      </c>
+      <c r="BD172">
+        <v>424.85</v>
+      </c>
+      <c r="BE172">
+        <v>1156.77</v>
+      </c>
+      <c r="BF172">
+        <v>109.64</v>
+      </c>
+      <c r="BG172">
+        <v>6.4363</v>
+      </c>
+      <c r="BH172">
+        <v>3.7898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Serie</t>
   </si>
@@ -708,6 +708,9 @@
   <si>
     <t>06-09-2021</t>
   </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH172"/>
+  <dimension ref="A1:BH173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32374,6 +32377,188 @@
         <v>3.7898</v>
       </c>
     </row>
+    <row r="173" spans="1:60">
+      <c r="A173" t="s">
+        <v>231</v>
+      </c>
+      <c r="B173">
+        <v>32.476</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>4048640.1469</v>
+      </c>
+      <c r="E173">
+        <v>6.86</v>
+      </c>
+      <c r="F173">
+        <v>624.27</v>
+      </c>
+      <c r="G173">
+        <v>21.3858</v>
+      </c>
+      <c r="H173">
+        <v>6.2647</v>
+      </c>
+      <c r="I173">
+        <v>126.97</v>
+      </c>
+      <c r="J173">
+        <v>8.6592</v>
+      </c>
+      <c r="K173">
+        <v>8.560700000000001</v>
+      </c>
+      <c r="L173">
+        <v>0.7026</v>
+      </c>
+      <c r="M173">
+        <v>3.672</v>
+      </c>
+      <c r="N173">
+        <v>8.7874</v>
+      </c>
+      <c r="O173">
+        <v>1.345</v>
+      </c>
+      <c r="P173">
+        <v>1.2529</v>
+      </c>
+      <c r="Q173">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>2.0717</v>
+      </c>
+      <c r="S173">
+        <v>0.82</v>
+      </c>
+      <c r="T173">
+        <v>1</v>
+      </c>
+      <c r="U173">
+        <v>1.342</v>
+      </c>
+      <c r="V173">
+        <v>7.7739</v>
+      </c>
+      <c r="W173">
+        <v>1.4019</v>
+      </c>
+      <c r="X173">
+        <v>27.583</v>
+      </c>
+      <c r="Y173">
+        <v>22764</v>
+      </c>
+      <c r="Z173">
+        <v>0.8426</v>
+      </c>
+      <c r="AA173">
+        <v>292.85</v>
+      </c>
+      <c r="AB173">
+        <v>100.8624</v>
+      </c>
+      <c r="AC173">
+        <v>0.915</v>
+      </c>
+      <c r="AD173">
+        <v>6902.8</v>
+      </c>
+      <c r="AE173">
+        <v>26.6371</v>
+      </c>
+      <c r="AF173">
+        <v>4.1667</v>
+      </c>
+      <c r="AG173">
+        <v>15.6453</v>
+      </c>
+      <c r="AH173">
+        <v>0.7229</v>
+      </c>
+      <c r="AI173">
+        <v>8.276999999999999</v>
+      </c>
+      <c r="AJ173">
+        <v>4.1028</v>
+      </c>
+      <c r="AK173">
+        <v>97.9533</v>
+      </c>
+      <c r="AL173">
+        <v>770.33</v>
+      </c>
+      <c r="AM173">
+        <v>3784.6</v>
+      </c>
+      <c r="AN173">
+        <v>24</v>
+      </c>
+      <c r="AO173">
+        <v>56.793</v>
+      </c>
+      <c r="AP173">
+        <v>49.925</v>
+      </c>
+      <c r="AQ173">
+        <v>19.8955</v>
+      </c>
+      <c r="AR173">
+        <v>42.55</v>
+      </c>
+      <c r="AS173">
+        <v>7.7284</v>
+      </c>
+      <c r="AT173">
+        <v>14.2318</v>
+      </c>
+      <c r="AU173">
+        <v>5.1625</v>
+      </c>
+      <c r="AV173">
+        <v>42000</v>
+      </c>
+      <c r="AW173">
+        <v>3.75</v>
+      </c>
+      <c r="AX173">
+        <v>4.1465</v>
+      </c>
+      <c r="AY173">
+        <v>73.0239</v>
+      </c>
+      <c r="AZ173">
+        <v>73.10250000000001</v>
+      </c>
+      <c r="BA173">
+        <v>14220</v>
+      </c>
+      <c r="BB173">
+        <v>166.7</v>
+      </c>
+      <c r="BC173">
+        <v>3.2009</v>
+      </c>
+      <c r="BD173">
+        <v>424.84</v>
+      </c>
+      <c r="BE173">
+        <v>1156.26</v>
+      </c>
+      <c r="BF173">
+        <v>109.85</v>
+      </c>
+      <c r="BG173">
+        <v>6.4507</v>
+      </c>
+      <c r="BH173">
+        <v>3.8119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -711,6 +711,9 @@
   <si>
     <t>07-09-2021</t>
   </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH173"/>
+  <dimension ref="A1:BH174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32559,6 +32562,188 @@
         <v>3.8119</v>
       </c>
     </row>
+    <row r="174" spans="1:60">
+      <c r="A174" t="s">
+        <v>232</v>
+      </c>
+      <c r="B174">
+        <v>32.68</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>4062683.9575</v>
+      </c>
+      <c r="E174">
+        <v>6.86</v>
+      </c>
+      <c r="F174">
+        <v>619.85</v>
+      </c>
+      <c r="G174">
+        <v>21.425</v>
+      </c>
+      <c r="H174">
+        <v>6.2778</v>
+      </c>
+      <c r="I174">
+        <v>127.06</v>
+      </c>
+      <c r="J174">
+        <v>8.6759</v>
+      </c>
+      <c r="K174">
+        <v>8.5899</v>
+      </c>
+      <c r="L174">
+        <v>0.7013</v>
+      </c>
+      <c r="M174">
+        <v>3.672</v>
+      </c>
+      <c r="N174">
+        <v>8.863099999999999</v>
+      </c>
+      <c r="O174">
+        <v>1.353</v>
+      </c>
+      <c r="P174">
+        <v>1.2633</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>2.0695</v>
+      </c>
+      <c r="S174">
+        <v>0.82</v>
+      </c>
+      <c r="T174">
+        <v>1</v>
+      </c>
+      <c r="U174">
+        <v>1.3453</v>
+      </c>
+      <c r="V174">
+        <v>7.7747</v>
+      </c>
+      <c r="W174">
+        <v>1.4086</v>
+      </c>
+      <c r="X174">
+        <v>27.598</v>
+      </c>
+      <c r="Y174">
+        <v>22735</v>
+      </c>
+      <c r="Z174">
+        <v>0.8443000000000001</v>
+      </c>
+      <c r="AA174">
+        <v>294.16</v>
+      </c>
+      <c r="AB174">
+        <v>100.5426</v>
+      </c>
+      <c r="AC174">
+        <v>0.9191</v>
+      </c>
+      <c r="AD174">
+        <v>6893.2</v>
+      </c>
+      <c r="AE174">
+        <v>26.5137</v>
+      </c>
+      <c r="AF174">
+        <v>4.1784</v>
+      </c>
+      <c r="AG174">
+        <v>15.715</v>
+      </c>
+      <c r="AH174">
+        <v>0.7252999999999999</v>
+      </c>
+      <c r="AI174">
+        <v>8.3416</v>
+      </c>
+      <c r="AJ174">
+        <v>4.0975</v>
+      </c>
+      <c r="AK174">
+        <v>97.9768</v>
+      </c>
+      <c r="AL174">
+        <v>777.9400000000001</v>
+      </c>
+      <c r="AM174">
+        <v>3804.38</v>
+      </c>
+      <c r="AN174">
+        <v>24</v>
+      </c>
+      <c r="AO174">
+        <v>56.578</v>
+      </c>
+      <c r="AP174">
+        <v>50.001</v>
+      </c>
+      <c r="AQ174">
+        <v>19.9432</v>
+      </c>
+      <c r="AR174">
+        <v>42.42</v>
+      </c>
+      <c r="AS174">
+        <v>7.709</v>
+      </c>
+      <c r="AT174">
+        <v>14.2877</v>
+      </c>
+      <c r="AU174">
+        <v>5.1685</v>
+      </c>
+      <c r="AV174">
+        <v>42000</v>
+      </c>
+      <c r="AW174">
+        <v>3.75</v>
+      </c>
+      <c r="AX174">
+        <v>4.1545</v>
+      </c>
+      <c r="AY174">
+        <v>73.2364</v>
+      </c>
+      <c r="AZ174">
+        <v>73.4225</v>
+      </c>
+      <c r="BA174">
+        <v>14210</v>
+      </c>
+      <c r="BB174">
+        <v>167.45</v>
+      </c>
+      <c r="BC174">
+        <v>3.2016</v>
+      </c>
+      <c r="BD174">
+        <v>425.36</v>
+      </c>
+      <c r="BE174">
+        <v>1157.64</v>
+      </c>
+      <c r="BF174">
+        <v>110.23</v>
+      </c>
+      <c r="BG174">
+        <v>6.4597</v>
+      </c>
+      <c r="BH174">
+        <v>3.8053</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -714,6 +714,9 @@
   <si>
     <t>08-09-2021</t>
   </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1070,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH174"/>
+  <dimension ref="A1:BH175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32744,6 +32747,188 @@
         <v>3.8053</v>
       </c>
     </row>
+    <row r="175" spans="1:60">
+      <c r="A175" t="s">
+        <v>233</v>
+      </c>
+      <c r="B175">
+        <v>32.745</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>4061686.5803</v>
+      </c>
+      <c r="E175">
+        <v>6.86</v>
+      </c>
+      <c r="F175">
+        <v>624.28</v>
+      </c>
+      <c r="G175">
+        <v>21.491</v>
+      </c>
+      <c r="H175">
+        <v>6.2887</v>
+      </c>
+      <c r="I175">
+        <v>127.26</v>
+      </c>
+      <c r="J175">
+        <v>8.7166</v>
+      </c>
+      <c r="K175">
+        <v>8.6191</v>
+      </c>
+      <c r="L175">
+        <v>0.7026</v>
+      </c>
+      <c r="M175">
+        <v>3.672</v>
+      </c>
+      <c r="N175">
+        <v>8.812799999999999</v>
+      </c>
+      <c r="O175">
+        <v>1.3563</v>
+      </c>
+      <c r="P175">
+        <v>1.2664</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>2.0829</v>
+      </c>
+      <c r="S175">
+        <v>0.82</v>
+      </c>
+      <c r="T175">
+        <v>1</v>
+      </c>
+      <c r="U175">
+        <v>1.3455</v>
+      </c>
+      <c r="V175">
+        <v>7.7759</v>
+      </c>
+      <c r="W175">
+        <v>1.4077</v>
+      </c>
+      <c r="X175">
+        <v>27.732</v>
+      </c>
+      <c r="Y175">
+        <v>22734</v>
+      </c>
+      <c r="Z175">
+        <v>0.8457</v>
+      </c>
+      <c r="AA175">
+        <v>295.86</v>
+      </c>
+      <c r="AB175">
+        <v>100.7645</v>
+      </c>
+      <c r="AC175">
+        <v>0.9217</v>
+      </c>
+      <c r="AD175">
+        <v>6909.6</v>
+      </c>
+      <c r="AE175">
+        <v>26.5717</v>
+      </c>
+      <c r="AF175">
+        <v>4.1808</v>
+      </c>
+      <c r="AG175">
+        <v>15.6565</v>
+      </c>
+      <c r="AH175">
+        <v>0.7259</v>
+      </c>
+      <c r="AI175">
+        <v>8.460599999999999</v>
+      </c>
+      <c r="AJ175">
+        <v>4.0827</v>
+      </c>
+      <c r="AK175">
+        <v>97.9911</v>
+      </c>
+      <c r="AL175">
+        <v>787.51</v>
+      </c>
+      <c r="AM175">
+        <v>3810.81</v>
+      </c>
+      <c r="AN175">
+        <v>24</v>
+      </c>
+      <c r="AO175">
+        <v>56.184</v>
+      </c>
+      <c r="AP175">
+        <v>50.11</v>
+      </c>
+      <c r="AQ175">
+        <v>19.9404</v>
+      </c>
+      <c r="AR175">
+        <v>42.4753</v>
+      </c>
+      <c r="AS175">
+        <v>7.7125</v>
+      </c>
+      <c r="AT175">
+        <v>14.2028</v>
+      </c>
+      <c r="AU175">
+        <v>5.3002</v>
+      </c>
+      <c r="AV175">
+        <v>42000</v>
+      </c>
+      <c r="AW175">
+        <v>3.75</v>
+      </c>
+      <c r="AX175">
+        <v>4.1495</v>
+      </c>
+      <c r="AY175">
+        <v>73.2308</v>
+      </c>
+      <c r="AZ175">
+        <v>73.5975</v>
+      </c>
+      <c r="BA175">
+        <v>14250</v>
+      </c>
+      <c r="BB175">
+        <v>167.05</v>
+      </c>
+      <c r="BC175">
+        <v>3.2047</v>
+      </c>
+      <c r="BD175">
+        <v>425.3</v>
+      </c>
+      <c r="BE175">
+        <v>1166.38</v>
+      </c>
+      <c r="BF175">
+        <v>110.25</v>
+      </c>
+      <c r="BG175">
+        <v>6.4558</v>
+      </c>
+      <c r="BH175">
+        <v>3.8197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Serie</t>
   </si>
@@ -717,6 +717,24 @@
   <si>
     <t>09-09-2021</t>
   </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1073,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH175"/>
+  <dimension ref="A1:BH181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32929,6 +32947,1098 @@
         <v>3.8197</v>
       </c>
     </row>
+    <row r="176" spans="1:60">
+      <c r="A176" t="s">
+        <v>234</v>
+      </c>
+      <c r="B176">
+        <v>32.688</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>4060251.6351</v>
+      </c>
+      <c r="E176">
+        <v>6.86</v>
+      </c>
+      <c r="F176">
+        <v>627.14</v>
+      </c>
+      <c r="G176">
+        <v>21.494</v>
+      </c>
+      <c r="H176">
+        <v>6.2843</v>
+      </c>
+      <c r="I176">
+        <v>127.34</v>
+      </c>
+      <c r="J176">
+        <v>8.676500000000001</v>
+      </c>
+      <c r="K176">
+        <v>8.5945</v>
+      </c>
+      <c r="L176">
+        <v>0.7019</v>
+      </c>
+      <c r="M176">
+        <v>3.672</v>
+      </c>
+      <c r="N176">
+        <v>8.8109</v>
+      </c>
+      <c r="O176">
+        <v>1.3567</v>
+      </c>
+      <c r="P176">
+        <v>1.2643</v>
+      </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
+      <c r="R176">
+        <v>2.0842</v>
+      </c>
+      <c r="S176">
+        <v>0.82</v>
+      </c>
+      <c r="T176">
+        <v>1</v>
+      </c>
+      <c r="U176">
+        <v>1.3424</v>
+      </c>
+      <c r="V176">
+        <v>7.777</v>
+      </c>
+      <c r="W176">
+        <v>1.4061</v>
+      </c>
+      <c r="X176">
+        <v>27.672</v>
+      </c>
+      <c r="Y176">
+        <v>22755</v>
+      </c>
+      <c r="Z176">
+        <v>0.8452</v>
+      </c>
+      <c r="AA176">
+        <v>296.24</v>
+      </c>
+      <c r="AB176">
+        <v>100.9522</v>
+      </c>
+      <c r="AC176">
+        <v>0.9167</v>
+      </c>
+      <c r="AD176">
+        <v>6900</v>
+      </c>
+      <c r="AE176">
+        <v>26.6058</v>
+      </c>
+      <c r="AF176">
+        <v>4.1763</v>
+      </c>
+      <c r="AG176">
+        <v>15.7141</v>
+      </c>
+      <c r="AH176">
+        <v>0.7222</v>
+      </c>
+      <c r="AI176">
+        <v>8.4338</v>
+      </c>
+      <c r="AJ176">
+        <v>4.0985</v>
+      </c>
+      <c r="AK176">
+        <v>98.03870000000001</v>
+      </c>
+      <c r="AL176">
+        <v>791.28</v>
+      </c>
+      <c r="AM176">
+        <v>3821.99</v>
+      </c>
+      <c r="AN176">
+        <v>24</v>
+      </c>
+      <c r="AO176">
+        <v>56.543</v>
+      </c>
+      <c r="AP176">
+        <v>49.92</v>
+      </c>
+      <c r="AQ176">
+        <v>19.9418</v>
+      </c>
+      <c r="AR176">
+        <v>42.5647</v>
+      </c>
+      <c r="AS176">
+        <v>7.7032</v>
+      </c>
+      <c r="AT176">
+        <v>14.191</v>
+      </c>
+      <c r="AU176">
+        <v>5.3001</v>
+      </c>
+      <c r="AV176">
+        <v>42000</v>
+      </c>
+      <c r="AW176">
+        <v>3.75</v>
+      </c>
+      <c r="AX176">
+        <v>4.147</v>
+      </c>
+      <c r="AY176">
+        <v>72.9602</v>
+      </c>
+      <c r="AZ176">
+        <v>73.495</v>
+      </c>
+      <c r="BA176">
+        <v>14250</v>
+      </c>
+      <c r="BB176">
+        <v>167.5</v>
+      </c>
+      <c r="BC176">
+        <v>3.2042</v>
+      </c>
+      <c r="BD176">
+        <v>425.43</v>
+      </c>
+      <c r="BE176">
+        <v>1169.3</v>
+      </c>
+      <c r="BF176">
+        <v>109.65</v>
+      </c>
+      <c r="BG176">
+        <v>6.4508</v>
+      </c>
+      <c r="BH176">
+        <v>3.8361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:60">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177">
+        <v>32.695</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>4074338.3223</v>
+      </c>
+      <c r="E177">
+        <v>6.86</v>
+      </c>
+      <c r="F177">
+        <v>626.38</v>
+      </c>
+      <c r="G177">
+        <v>21.4526</v>
+      </c>
+      <c r="H177">
+        <v>6.2938</v>
+      </c>
+      <c r="I177">
+        <v>127.89</v>
+      </c>
+      <c r="J177">
+        <v>8.652799999999999</v>
+      </c>
+      <c r="K177">
+        <v>8.622199999999999</v>
+      </c>
+      <c r="L177">
+        <v>0.7014</v>
+      </c>
+      <c r="M177">
+        <v>3.672</v>
+      </c>
+      <c r="N177">
+        <v>8.93</v>
+      </c>
+      <c r="O177">
+        <v>1.3572</v>
+      </c>
+      <c r="P177">
+        <v>1.2649</v>
+      </c>
+      <c r="Q177">
+        <v>1</v>
+      </c>
+      <c r="R177">
+        <v>2.0825</v>
+      </c>
+      <c r="S177">
+        <v>0.82</v>
+      </c>
+      <c r="T177">
+        <v>1</v>
+      </c>
+      <c r="U177">
+        <v>1.341</v>
+      </c>
+      <c r="V177">
+        <v>7.7785</v>
+      </c>
+      <c r="W177">
+        <v>1.4037</v>
+      </c>
+      <c r="X177">
+        <v>27.608</v>
+      </c>
+      <c r="Y177">
+        <v>22759</v>
+      </c>
+      <c r="Z177">
+        <v>0.8465</v>
+      </c>
+      <c r="AA177">
+        <v>296.26</v>
+      </c>
+      <c r="AB177">
+        <v>100.8594</v>
+      </c>
+      <c r="AC177">
+        <v>0.9181</v>
+      </c>
+      <c r="AD177">
+        <v>6897.8</v>
+      </c>
+      <c r="AE177">
+        <v>26.7</v>
+      </c>
+      <c r="AF177">
+        <v>4.1815</v>
+      </c>
+      <c r="AG177">
+        <v>15.6687</v>
+      </c>
+      <c r="AH177">
+        <v>0.7221</v>
+      </c>
+      <c r="AI177">
+        <v>8.451700000000001</v>
+      </c>
+      <c r="AJ177">
+        <v>4.0984</v>
+      </c>
+      <c r="AK177">
+        <v>98.09399999999999</v>
+      </c>
+      <c r="AL177">
+        <v>789.91</v>
+      </c>
+      <c r="AM177">
+        <v>3833.48</v>
+      </c>
+      <c r="AN177">
+        <v>24</v>
+      </c>
+      <c r="AO177">
+        <v>56.512</v>
+      </c>
+      <c r="AP177">
+        <v>49.852</v>
+      </c>
+      <c r="AQ177">
+        <v>19.8599</v>
+      </c>
+      <c r="AR177">
+        <v>42.64</v>
+      </c>
+      <c r="AS177">
+        <v>7.7062</v>
+      </c>
+      <c r="AT177">
+        <v>14.1697</v>
+      </c>
+      <c r="AU177">
+        <v>5.2535</v>
+      </c>
+      <c r="AV177">
+        <v>42000</v>
+      </c>
+      <c r="AW177">
+        <v>3.75</v>
+      </c>
+      <c r="AX177">
+        <v>4.134</v>
+      </c>
+      <c r="AY177">
+        <v>73.128</v>
+      </c>
+      <c r="AZ177">
+        <v>73.495</v>
+      </c>
+      <c r="BA177">
+        <v>14200</v>
+      </c>
+      <c r="BB177">
+        <v>167.7321</v>
+      </c>
+      <c r="BC177">
+        <v>3.1996</v>
+      </c>
+      <c r="BD177">
+        <v>425.36</v>
+      </c>
+      <c r="BE177">
+        <v>1168.85</v>
+      </c>
+      <c r="BF177">
+        <v>109.93</v>
+      </c>
+      <c r="BG177">
+        <v>6.4404</v>
+      </c>
+      <c r="BH177">
+        <v>3.8432</v>
+      </c>
+    </row>
+    <row r="178" spans="1:60">
+      <c r="A178" t="s">
+        <v>236</v>
+      </c>
+      <c r="B178">
+        <v>32.849</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>4047384.8298</v>
+      </c>
+      <c r="E178">
+        <v>6.86</v>
+      </c>
+      <c r="F178">
+        <v>621.88</v>
+      </c>
+      <c r="G178">
+        <v>21.4836</v>
+      </c>
+      <c r="H178">
+        <v>6.2989</v>
+      </c>
+      <c r="I178">
+        <v>128</v>
+      </c>
+      <c r="J178">
+        <v>8.6425</v>
+      </c>
+      <c r="K178">
+        <v>8.6137</v>
+      </c>
+      <c r="L178">
+        <v>0.703</v>
+      </c>
+      <c r="M178">
+        <v>3.672</v>
+      </c>
+      <c r="N178">
+        <v>8.9573</v>
+      </c>
+      <c r="O178">
+        <v>1.3585</v>
+      </c>
+      <c r="P178">
+        <v>1.2666</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>2.0838</v>
+      </c>
+      <c r="S178">
+        <v>0.82</v>
+      </c>
+      <c r="T178">
+        <v>1</v>
+      </c>
+      <c r="U178">
+        <v>1.3425</v>
+      </c>
+      <c r="V178">
+        <v>7.7793</v>
+      </c>
+      <c r="W178">
+        <v>1.4073</v>
+      </c>
+      <c r="X178">
+        <v>27.675</v>
+      </c>
+      <c r="Y178">
+        <v>22736</v>
+      </c>
+      <c r="Z178">
+        <v>0.8471</v>
+      </c>
+      <c r="AA178">
+        <v>296.55</v>
+      </c>
+      <c r="AB178">
+        <v>101.0683</v>
+      </c>
+      <c r="AC178">
+        <v>0.9221</v>
+      </c>
+      <c r="AD178">
+        <v>6902.2</v>
+      </c>
+      <c r="AE178">
+        <v>26.5317</v>
+      </c>
+      <c r="AF178">
+        <v>4.1905</v>
+      </c>
+      <c r="AG178">
+        <v>15.66</v>
+      </c>
+      <c r="AH178">
+        <v>0.723</v>
+      </c>
+      <c r="AI178">
+        <v>8.432499999999999</v>
+      </c>
+      <c r="AJ178">
+        <v>4.1017</v>
+      </c>
+      <c r="AK178">
+        <v>98.18089999999999</v>
+      </c>
+      <c r="AL178">
+        <v>784.26</v>
+      </c>
+      <c r="AM178">
+        <v>3831</v>
+      </c>
+      <c r="AN178">
+        <v>24</v>
+      </c>
+      <c r="AO178">
+        <v>56.515</v>
+      </c>
+      <c r="AP178">
+        <v>49.961</v>
+      </c>
+      <c r="AQ178">
+        <v>19.8675</v>
+      </c>
+      <c r="AR178">
+        <v>42.7</v>
+      </c>
+      <c r="AS178">
+        <v>7.7032</v>
+      </c>
+      <c r="AT178">
+        <v>14.1599</v>
+      </c>
+      <c r="AU178">
+        <v>5.227</v>
+      </c>
+      <c r="AV178">
+        <v>42000</v>
+      </c>
+      <c r="AW178">
+        <v>3.75</v>
+      </c>
+      <c r="AX178">
+        <v>4.149</v>
+      </c>
+      <c r="AY178">
+        <v>72.7273</v>
+      </c>
+      <c r="AZ178">
+        <v>73.675</v>
+      </c>
+      <c r="BA178">
+        <v>14250</v>
+      </c>
+      <c r="BB178">
+        <v>168</v>
+      </c>
+      <c r="BC178">
+        <v>3.2086</v>
+      </c>
+      <c r="BD178">
+        <v>425.41</v>
+      </c>
+      <c r="BE178">
+        <v>1175.75</v>
+      </c>
+      <c r="BF178">
+        <v>110.01</v>
+      </c>
+      <c r="BG178">
+        <v>6.4438</v>
+      </c>
+      <c r="BH178">
+        <v>3.8558</v>
+      </c>
+    </row>
+    <row r="179" spans="1:60">
+      <c r="A179" t="s">
+        <v>237</v>
+      </c>
+      <c r="B179">
+        <v>32.929</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>3986022.9934</v>
+      </c>
+      <c r="E179">
+        <v>6.86</v>
+      </c>
+      <c r="F179">
+        <v>624.64</v>
+      </c>
+      <c r="G179">
+        <v>21.4364</v>
+      </c>
+      <c r="H179">
+        <v>6.2896</v>
+      </c>
+      <c r="I179">
+        <v>127.78</v>
+      </c>
+      <c r="J179">
+        <v>8.6272</v>
+      </c>
+      <c r="K179">
+        <v>8.5938</v>
+      </c>
+      <c r="L179">
+        <v>0.7022</v>
+      </c>
+      <c r="M179">
+        <v>3.672</v>
+      </c>
+      <c r="N179">
+        <v>8.8202</v>
+      </c>
+      <c r="O179">
+        <v>1.3644</v>
+      </c>
+      <c r="P179">
+        <v>1.2666</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>2.0842</v>
+      </c>
+      <c r="S179">
+        <v>0.82</v>
+      </c>
+      <c r="T179">
+        <v>1</v>
+      </c>
+      <c r="U179">
+        <v>1.3421</v>
+      </c>
+      <c r="V179">
+        <v>7.7778</v>
+      </c>
+      <c r="W179">
+        <v>1.4086</v>
+      </c>
+      <c r="X179">
+        <v>27.674</v>
+      </c>
+      <c r="Y179">
+        <v>22761</v>
+      </c>
+      <c r="Z179">
+        <v>0.8459</v>
+      </c>
+      <c r="AA179">
+        <v>295.82</v>
+      </c>
+      <c r="AB179">
+        <v>100.9129</v>
+      </c>
+      <c r="AC179">
+        <v>0.9184</v>
+      </c>
+      <c r="AD179">
+        <v>6890.6</v>
+      </c>
+      <c r="AE179">
+        <v>26.502</v>
+      </c>
+      <c r="AF179">
+        <v>4.1838</v>
+      </c>
+      <c r="AG179">
+        <v>15.6641</v>
+      </c>
+      <c r="AH179">
+        <v>0.7226</v>
+      </c>
+      <c r="AI179">
+        <v>8.443199999999999</v>
+      </c>
+      <c r="AJ179">
+        <v>4.104</v>
+      </c>
+      <c r="AK179">
+        <v>98.2114</v>
+      </c>
+      <c r="AL179">
+        <v>783.25</v>
+      </c>
+      <c r="AM179">
+        <v>3830</v>
+      </c>
+      <c r="AN179">
+        <v>24</v>
+      </c>
+      <c r="AO179">
+        <v>56.563</v>
+      </c>
+      <c r="AP179">
+        <v>49.907</v>
+      </c>
+      <c r="AQ179">
+        <v>19.9001</v>
+      </c>
+      <c r="AR179">
+        <v>42.5607</v>
+      </c>
+      <c r="AS179">
+        <v>7.7031</v>
+      </c>
+      <c r="AT179">
+        <v>14.2966</v>
+      </c>
+      <c r="AU179">
+        <v>5.2399</v>
+      </c>
+      <c r="AV179">
+        <v>42000</v>
+      </c>
+      <c r="AW179">
+        <v>3.75</v>
+      </c>
+      <c r="AX179">
+        <v>4.1615</v>
+      </c>
+      <c r="AY179">
+        <v>72.9019</v>
+      </c>
+      <c r="AZ179">
+        <v>73.6825</v>
+      </c>
+      <c r="BA179">
+        <v>14245</v>
+      </c>
+      <c r="BB179">
+        <v>167.8846</v>
+      </c>
+      <c r="BC179">
+        <v>3.2071</v>
+      </c>
+      <c r="BD179">
+        <v>425.36</v>
+      </c>
+      <c r="BE179">
+        <v>1170.59</v>
+      </c>
+      <c r="BF179">
+        <v>109.57</v>
+      </c>
+      <c r="BG179">
+        <v>6.4332</v>
+      </c>
+      <c r="BH179">
+        <v>3.8447</v>
+      </c>
+    </row>
+    <row r="180" spans="1:60">
+      <c r="A180" t="s">
+        <v>238</v>
+      </c>
+      <c r="B180">
+        <v>32.896</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>4021575.1743</v>
+      </c>
+      <c r="E180">
+        <v>6.86</v>
+      </c>
+      <c r="F180">
+        <v>624.65</v>
+      </c>
+      <c r="G180">
+        <v>21.4408</v>
+      </c>
+      <c r="H180">
+        <v>6.297</v>
+      </c>
+      <c r="I180">
+        <v>126.77</v>
+      </c>
+      <c r="J180">
+        <v>8.580299999999999</v>
+      </c>
+      <c r="K180">
+        <v>8.5853</v>
+      </c>
+      <c r="L180">
+        <v>0.7013</v>
+      </c>
+      <c r="M180">
+        <v>3.672</v>
+      </c>
+      <c r="N180">
+        <v>8.9414</v>
+      </c>
+      <c r="O180">
+        <v>1.3646</v>
+      </c>
+      <c r="P180">
+        <v>1.2644</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>2.0886</v>
+      </c>
+      <c r="S180">
+        <v>0.82</v>
+      </c>
+      <c r="T180">
+        <v>1</v>
+      </c>
+      <c r="U180">
+        <v>1.3409</v>
+      </c>
+      <c r="V180">
+        <v>7.7823</v>
+      </c>
+      <c r="W180">
+        <v>1.4077</v>
+      </c>
+      <c r="X180">
+        <v>27.663</v>
+      </c>
+      <c r="Y180">
+        <v>22756</v>
+      </c>
+      <c r="Z180">
+        <v>0.8469</v>
+      </c>
+      <c r="AA180">
+        <v>295.61</v>
+      </c>
+      <c r="AB180">
+        <v>100.893</v>
+      </c>
+      <c r="AC180">
+        <v>0.9199000000000001</v>
+      </c>
+      <c r="AD180">
+        <v>6888.5</v>
+      </c>
+      <c r="AE180">
+        <v>26.63</v>
+      </c>
+      <c r="AF180">
+        <v>4.1891</v>
+      </c>
+      <c r="AG180">
+        <v>15.6525</v>
+      </c>
+      <c r="AH180">
+        <v>0.723</v>
+      </c>
+      <c r="AI180">
+        <v>8.4315</v>
+      </c>
+      <c r="AJ180">
+        <v>4.1065</v>
+      </c>
+      <c r="AK180">
+        <v>98.23139999999999</v>
+      </c>
+      <c r="AL180">
+        <v>781.85</v>
+      </c>
+      <c r="AM180">
+        <v>3817.51</v>
+      </c>
+      <c r="AN180">
+        <v>24</v>
+      </c>
+      <c r="AO180">
+        <v>56.431</v>
+      </c>
+      <c r="AP180">
+        <v>49.78</v>
+      </c>
+      <c r="AQ180">
+        <v>19.8721</v>
+      </c>
+      <c r="AR180">
+        <v>42.5</v>
+      </c>
+      <c r="AS180">
+        <v>7.7214</v>
+      </c>
+      <c r="AT180">
+        <v>14.4066</v>
+      </c>
+      <c r="AU180">
+        <v>5.2564</v>
+      </c>
+      <c r="AV180">
+        <v>42000</v>
+      </c>
+      <c r="AW180">
+        <v>3.75</v>
+      </c>
+      <c r="AX180">
+        <v>4.157</v>
+      </c>
+      <c r="AY180">
+        <v>72.38330000000001</v>
+      </c>
+      <c r="AZ180">
+        <v>73.4875</v>
+      </c>
+      <c r="BA180">
+        <v>14240</v>
+      </c>
+      <c r="BB180">
+        <v>169.25</v>
+      </c>
+      <c r="BC180">
+        <v>3.2027</v>
+      </c>
+      <c r="BD180">
+        <v>425.15</v>
+      </c>
+      <c r="BE180">
+        <v>1170.28</v>
+      </c>
+      <c r="BF180">
+        <v>109.37</v>
+      </c>
+      <c r="BG180">
+        <v>6.4264</v>
+      </c>
+      <c r="BH180">
+        <v>3.8649</v>
+      </c>
+    </row>
+    <row r="181" spans="1:60">
+      <c r="A181" t="s">
+        <v>239</v>
+      </c>
+      <c r="B181">
+        <v>33.148</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>4013219.3987</v>
+      </c>
+      <c r="E181">
+        <v>6.86</v>
+      </c>
+      <c r="F181">
+        <v>623.96</v>
+      </c>
+      <c r="G181">
+        <v>21.5332</v>
+      </c>
+      <c r="H181">
+        <v>6.3248</v>
+      </c>
+      <c r="I181">
+        <v>128.35</v>
+      </c>
+      <c r="J181">
+        <v>8.644600000000001</v>
+      </c>
+      <c r="K181">
+        <v>8.636900000000001</v>
+      </c>
+      <c r="L181">
+        <v>0.7027</v>
+      </c>
+      <c r="M181">
+        <v>3.672</v>
+      </c>
+      <c r="N181">
+        <v>8.966799999999999</v>
+      </c>
+      <c r="O181">
+        <v>1.3727</v>
+      </c>
+      <c r="P181">
+        <v>1.2689</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>2.0859</v>
+      </c>
+      <c r="S181">
+        <v>0.82</v>
+      </c>
+      <c r="T181">
+        <v>1</v>
+      </c>
+      <c r="U181">
+        <v>1.3455</v>
+      </c>
+      <c r="V181">
+        <v>7.7831</v>
+      </c>
+      <c r="W181">
+        <v>1.4146</v>
+      </c>
+      <c r="X181">
+        <v>27.705</v>
+      </c>
+      <c r="Y181">
+        <v>22707</v>
+      </c>
+      <c r="Z181">
+        <v>0.8506</v>
+      </c>
+      <c r="AA181">
+        <v>298.52</v>
+      </c>
+      <c r="AB181">
+        <v>101.0882</v>
+      </c>
+      <c r="AC181">
+        <v>0.9265</v>
+      </c>
+      <c r="AD181">
+        <v>6902.7</v>
+      </c>
+      <c r="AE181">
+        <v>26.6685</v>
+      </c>
+      <c r="AF181">
+        <v>4.2071</v>
+      </c>
+      <c r="AG181">
+        <v>15.6584</v>
+      </c>
+      <c r="AH181">
+        <v>0.7258</v>
+      </c>
+      <c r="AI181">
+        <v>8.5206</v>
+      </c>
+      <c r="AJ181">
+        <v>4.113</v>
+      </c>
+      <c r="AK181">
+        <v>98.3081</v>
+      </c>
+      <c r="AL181">
+        <v>780.59</v>
+      </c>
+      <c r="AM181">
+        <v>3812.08</v>
+      </c>
+      <c r="AN181">
+        <v>24</v>
+      </c>
+      <c r="AO181">
+        <v>56.404</v>
+      </c>
+      <c r="AP181">
+        <v>49.955</v>
+      </c>
+      <c r="AQ181">
+        <v>19.9543</v>
+      </c>
+      <c r="AR181">
+        <v>42.6</v>
+      </c>
+      <c r="AS181">
+        <v>7.7246</v>
+      </c>
+      <c r="AT181">
+        <v>14.6071</v>
+      </c>
+      <c r="AU181">
+        <v>5.2607</v>
+      </c>
+      <c r="AV181">
+        <v>42000</v>
+      </c>
+      <c r="AW181">
+        <v>3.75</v>
+      </c>
+      <c r="AX181">
+        <v>4.157</v>
+      </c>
+      <c r="AY181">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="AZ181">
+        <v>73.5125</v>
+      </c>
+      <c r="BA181">
+        <v>14250</v>
+      </c>
+      <c r="BB181">
+        <v>167.5621</v>
+      </c>
+      <c r="BC181">
+        <v>3.2123</v>
+      </c>
+      <c r="BD181">
+        <v>424.59</v>
+      </c>
+      <c r="BE181">
+        <v>1171.53</v>
+      </c>
+      <c r="BF181">
+        <v>109.71</v>
+      </c>
+      <c r="BG181">
+        <v>6.4527</v>
+      </c>
+      <c r="BH181">
+        <v>3.8907</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -735,6 +735,33 @@
   <si>
     <t>20-09-2021</t>
   </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1091,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH181"/>
+  <dimension ref="A1:BH190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34039,6 +34066,1644 @@
         <v>3.8907</v>
       </c>
     </row>
+    <row r="182" spans="1:60">
+      <c r="A182" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182">
+        <v>33.349</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>4031725.8626</v>
+      </c>
+      <c r="E182">
+        <v>6.86</v>
+      </c>
+      <c r="F182">
+        <v>621.76</v>
+      </c>
+      <c r="G182">
+        <v>21.722</v>
+      </c>
+      <c r="H182">
+        <v>6.3398</v>
+      </c>
+      <c r="I182">
+        <v>129.42</v>
+      </c>
+      <c r="J182">
+        <v>8.7316</v>
+      </c>
+      <c r="K182">
+        <v>8.6927</v>
+      </c>
+      <c r="L182">
+        <v>0.7048</v>
+      </c>
+      <c r="M182">
+        <v>3.672</v>
+      </c>
+      <c r="N182">
+        <v>8.987399999999999</v>
+      </c>
+      <c r="O182">
+        <v>1.3806</v>
+      </c>
+      <c r="P182">
+        <v>1.2828</v>
+      </c>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+      <c r="R182">
+        <v>2.0978</v>
+      </c>
+      <c r="S182">
+        <v>0.82</v>
+      </c>
+      <c r="T182">
+        <v>1</v>
+      </c>
+      <c r="U182">
+        <v>1.352</v>
+      </c>
+      <c r="V182">
+        <v>7.7877</v>
+      </c>
+      <c r="W182">
+        <v>1.4237</v>
+      </c>
+      <c r="X182">
+        <v>27.714</v>
+      </c>
+      <c r="Y182">
+        <v>22770</v>
+      </c>
+      <c r="Z182">
+        <v>0.8527</v>
+      </c>
+      <c r="AA182">
+        <v>302.19</v>
+      </c>
+      <c r="AB182">
+        <v>101.3336</v>
+      </c>
+      <c r="AC182">
+        <v>0.9277</v>
+      </c>
+      <c r="AD182">
+        <v>6870.4</v>
+      </c>
+      <c r="AE182">
+        <v>26.4387</v>
+      </c>
+      <c r="AF182">
+        <v>4.2184</v>
+      </c>
+      <c r="AG182">
+        <v>15.6595</v>
+      </c>
+      <c r="AH182">
+        <v>0.7322</v>
+      </c>
+      <c r="AI182">
+        <v>8.676500000000001</v>
+      </c>
+      <c r="AJ182">
+        <v>4.1195</v>
+      </c>
+      <c r="AK182">
+        <v>98.474</v>
+      </c>
+      <c r="AL182">
+        <v>788.05</v>
+      </c>
+      <c r="AM182">
+        <v>3845.65</v>
+      </c>
+      <c r="AN182">
+        <v>24</v>
+      </c>
+      <c r="AO182">
+        <v>56.49</v>
+      </c>
+      <c r="AP182">
+        <v>50.2</v>
+      </c>
+      <c r="AQ182">
+        <v>20.1604</v>
+      </c>
+      <c r="AR182">
+        <v>42.715</v>
+      </c>
+      <c r="AS182">
+        <v>7.7034</v>
+      </c>
+      <c r="AT182">
+        <v>14.8082</v>
+      </c>
+      <c r="AU182">
+        <v>5.3398</v>
+      </c>
+      <c r="AV182">
+        <v>42000</v>
+      </c>
+      <c r="AW182">
+        <v>3.75</v>
+      </c>
+      <c r="AX182">
+        <v>4.191</v>
+      </c>
+      <c r="AY182">
+        <v>73.5562</v>
+      </c>
+      <c r="AZ182">
+        <v>73.7375</v>
+      </c>
+      <c r="BA182">
+        <v>14240</v>
+      </c>
+      <c r="BB182">
+        <v>168.4896</v>
+      </c>
+      <c r="BC182">
+        <v>3.2119</v>
+      </c>
+      <c r="BD182">
+        <v>426.36</v>
+      </c>
+      <c r="BE182">
+        <v>1186.86</v>
+      </c>
+      <c r="BF182">
+        <v>109.37</v>
+      </c>
+      <c r="BG182">
+        <v>6.4823</v>
+      </c>
+      <c r="BH182">
+        <v>3.9312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:60">
+      <c r="A183" t="s">
+        <v>241</v>
+      </c>
+      <c r="B183">
+        <v>33.351</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>4033688.1836</v>
+      </c>
+      <c r="E183">
+        <v>6.86</v>
+      </c>
+      <c r="F183">
+        <v>623.42</v>
+      </c>
+      <c r="G183">
+        <v>21.668</v>
+      </c>
+      <c r="H183">
+        <v>6.3418</v>
+      </c>
+      <c r="I183">
+        <v>129.79</v>
+      </c>
+      <c r="J183">
+        <v>8.6867</v>
+      </c>
+      <c r="K183">
+        <v>8.682399999999999</v>
+      </c>
+      <c r="L183">
+        <v>0.7044</v>
+      </c>
+      <c r="M183">
+        <v>3.672</v>
+      </c>
+      <c r="N183">
+        <v>8.9861</v>
+      </c>
+      <c r="O183">
+        <v>1.3826</v>
+      </c>
+      <c r="P183">
+        <v>1.2802</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="R183">
+        <v>2.0978</v>
+      </c>
+      <c r="S183">
+        <v>0.82</v>
+      </c>
+      <c r="T183">
+        <v>1</v>
+      </c>
+      <c r="U183">
+        <v>1.3526</v>
+      </c>
+      <c r="V183">
+        <v>7.7871</v>
+      </c>
+      <c r="W183">
+        <v>1.4278</v>
+      </c>
+      <c r="X183">
+        <v>27.72</v>
+      </c>
+      <c r="Y183">
+        <v>22764</v>
+      </c>
+      <c r="Z183">
+        <v>0.8529</v>
+      </c>
+      <c r="AA183">
+        <v>300.51</v>
+      </c>
+      <c r="AB183">
+        <v>101.277</v>
+      </c>
+      <c r="AC183">
+        <v>0.9238</v>
+      </c>
+      <c r="AD183">
+        <v>6870.8</v>
+      </c>
+      <c r="AE183">
+        <v>26.5725</v>
+      </c>
+      <c r="AF183">
+        <v>4.2179</v>
+      </c>
+      <c r="AG183">
+        <v>15.6967</v>
+      </c>
+      <c r="AH183">
+        <v>0.7323</v>
+      </c>
+      <c r="AI183">
+        <v>8.629899999999999</v>
+      </c>
+      <c r="AJ183">
+        <v>4.1091</v>
+      </c>
+      <c r="AK183">
+        <v>98.46939999999999</v>
+      </c>
+      <c r="AL183">
+        <v>785.1</v>
+      </c>
+      <c r="AM183">
+        <v>3838.37</v>
+      </c>
+      <c r="AN183">
+        <v>24</v>
+      </c>
+      <c r="AO183">
+        <v>56.441</v>
+      </c>
+      <c r="AP183">
+        <v>50.135</v>
+      </c>
+      <c r="AQ183">
+        <v>20.1358</v>
+      </c>
+      <c r="AR183">
+        <v>42.6118</v>
+      </c>
+      <c r="AS183">
+        <v>7.7033</v>
+      </c>
+      <c r="AT183">
+        <v>14.8256</v>
+      </c>
+      <c r="AU183">
+        <v>5.2865</v>
+      </c>
+      <c r="AV183">
+        <v>42000</v>
+      </c>
+      <c r="AW183">
+        <v>3.75</v>
+      </c>
+      <c r="AX183">
+        <v>4.1835</v>
+      </c>
+      <c r="AY183">
+        <v>72.9774</v>
+      </c>
+      <c r="AZ183">
+        <v>73.61</v>
+      </c>
+      <c r="BA183">
+        <v>14235</v>
+      </c>
+      <c r="BB183">
+        <v>168.3</v>
+      </c>
+      <c r="BC183">
+        <v>3.2036</v>
+      </c>
+      <c r="BD183">
+        <v>425.93</v>
+      </c>
+      <c r="BE183">
+        <v>1184.27</v>
+      </c>
+      <c r="BF183">
+        <v>109.25</v>
+      </c>
+      <c r="BG183">
+        <v>6.4821</v>
+      </c>
+      <c r="BH183">
+        <v>3.9429</v>
+      </c>
+    </row>
+    <row r="184" spans="1:60">
+      <c r="A184" t="s">
+        <v>242</v>
+      </c>
+      <c r="B184">
+        <v>33.43</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>4016250.6114</v>
+      </c>
+      <c r="E184">
+        <v>6.86</v>
+      </c>
+      <c r="F184">
+        <v>625.17</v>
+      </c>
+      <c r="G184">
+        <v>21.6444</v>
+      </c>
+      <c r="H184">
+        <v>6.3408</v>
+      </c>
+      <c r="I184">
+        <v>129.34</v>
+      </c>
+      <c r="J184">
+        <v>8.636799999999999</v>
+      </c>
+      <c r="K184">
+        <v>8.663600000000001</v>
+      </c>
+      <c r="L184">
+        <v>0.7045</v>
+      </c>
+      <c r="M184">
+        <v>3.672</v>
+      </c>
+      <c r="N184">
+        <v>8.984999999999999</v>
+      </c>
+      <c r="O184">
+        <v>1.3776</v>
+      </c>
+      <c r="P184">
+        <v>1.2736</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>2.1013</v>
+      </c>
+      <c r="S184">
+        <v>0.82</v>
+      </c>
+      <c r="T184">
+        <v>1</v>
+      </c>
+      <c r="U184">
+        <v>1.3509</v>
+      </c>
+      <c r="V184">
+        <v>7.7853</v>
+      </c>
+      <c r="W184">
+        <v>1.4239</v>
+      </c>
+      <c r="X184">
+        <v>27.764</v>
+      </c>
+      <c r="Y184">
+        <v>22737</v>
+      </c>
+      <c r="Z184">
+        <v>0.8527</v>
+      </c>
+      <c r="AA184">
+        <v>302.91</v>
+      </c>
+      <c r="AB184">
+        <v>101.2479</v>
+      </c>
+      <c r="AC184">
+        <v>0.9235</v>
+      </c>
+      <c r="AD184">
+        <v>6869.9</v>
+      </c>
+      <c r="AE184">
+        <v>26.4449</v>
+      </c>
+      <c r="AF184">
+        <v>4.2196</v>
+      </c>
+      <c r="AG184">
+        <v>15.6543</v>
+      </c>
+      <c r="AH184">
+        <v>0.7326</v>
+      </c>
+      <c r="AI184">
+        <v>8.637</v>
+      </c>
+      <c r="AJ184">
+        <v>4.1081</v>
+      </c>
+      <c r="AK184">
+        <v>98.49290000000001</v>
+      </c>
+      <c r="AL184">
+        <v>785.03</v>
+      </c>
+      <c r="AM184">
+        <v>3835.05</v>
+      </c>
+      <c r="AN184">
+        <v>24</v>
+      </c>
+      <c r="AO184">
+        <v>56.361</v>
+      </c>
+      <c r="AP184">
+        <v>50.25</v>
+      </c>
+      <c r="AQ184">
+        <v>20.0237</v>
+      </c>
+      <c r="AR184">
+        <v>42.5305</v>
+      </c>
+      <c r="AS184">
+        <v>7.7265</v>
+      </c>
+      <c r="AT184">
+        <v>14.7371</v>
+      </c>
+      <c r="AU184">
+        <v>5.2805</v>
+      </c>
+      <c r="AV184">
+        <v>42000</v>
+      </c>
+      <c r="AW184">
+        <v>3.75</v>
+      </c>
+      <c r="AX184">
+        <v>4.191</v>
+      </c>
+      <c r="AY184">
+        <v>72.877</v>
+      </c>
+      <c r="AZ184">
+        <v>73.86</v>
+      </c>
+      <c r="BA184">
+        <v>14240</v>
+      </c>
+      <c r="BB184">
+        <v>168.25</v>
+      </c>
+      <c r="BC184">
+        <v>3.1997</v>
+      </c>
+      <c r="BD184">
+        <v>425.22</v>
+      </c>
+      <c r="BE184">
+        <v>1182.96</v>
+      </c>
+      <c r="BF184">
+        <v>109.62</v>
+      </c>
+      <c r="BG184">
+        <v>6.46</v>
+      </c>
+      <c r="BH184">
+        <v>3.9413</v>
+      </c>
+    </row>
+    <row r="185" spans="1:60">
+      <c r="A185" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185">
+        <v>33.376</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>4022048.2453</v>
+      </c>
+      <c r="E185">
+        <v>6.86</v>
+      </c>
+      <c r="F185">
+        <v>624.15</v>
+      </c>
+      <c r="G185">
+        <v>21.604</v>
+      </c>
+      <c r="H185">
+        <v>6.3308</v>
+      </c>
+      <c r="I185">
+        <v>128.21</v>
+      </c>
+      <c r="J185">
+        <v>8.560600000000001</v>
+      </c>
+      <c r="K185">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="L185">
+        <v>0.7047</v>
+      </c>
+      <c r="M185">
+        <v>3.672</v>
+      </c>
+      <c r="N185">
+        <v>8.9544</v>
+      </c>
+      <c r="O185">
+        <v>1.3686</v>
+      </c>
+      <c r="P185">
+        <v>1.2645</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="R185">
+        <v>2.1017</v>
+      </c>
+      <c r="S185">
+        <v>0.82</v>
+      </c>
+      <c r="T185">
+        <v>1</v>
+      </c>
+      <c r="U185">
+        <v>1.3476</v>
+      </c>
+      <c r="V185">
+        <v>7.7842</v>
+      </c>
+      <c r="W185">
+        <v>1.4124</v>
+      </c>
+      <c r="X185">
+        <v>27.744</v>
+      </c>
+      <c r="Y185">
+        <v>22762</v>
+      </c>
+      <c r="Z185">
+        <v>0.8514</v>
+      </c>
+      <c r="AA185">
+        <v>302.94</v>
+      </c>
+      <c r="AB185">
+        <v>101.3228</v>
+      </c>
+      <c r="AC185">
+        <v>0.9232</v>
+      </c>
+      <c r="AD185">
+        <v>6884.9</v>
+      </c>
+      <c r="AE185">
+        <v>26.4897</v>
+      </c>
+      <c r="AF185">
+        <v>4.213</v>
+      </c>
+      <c r="AG185">
+        <v>15.7047</v>
+      </c>
+      <c r="AH185">
+        <v>0.7279</v>
+      </c>
+      <c r="AI185">
+        <v>8.765000000000001</v>
+      </c>
+      <c r="AJ185">
+        <v>4.1115</v>
+      </c>
+      <c r="AK185">
+        <v>98.5226</v>
+      </c>
+      <c r="AL185">
+        <v>787.24</v>
+      </c>
+      <c r="AM185">
+        <v>3834</v>
+      </c>
+      <c r="AN185">
+        <v>24</v>
+      </c>
+      <c r="AO185">
+        <v>56.322</v>
+      </c>
+      <c r="AP185">
+        <v>50.33</v>
+      </c>
+      <c r="AQ185">
+        <v>20.0011</v>
+      </c>
+      <c r="AR185">
+        <v>42.4764</v>
+      </c>
+      <c r="AS185">
+        <v>7.728</v>
+      </c>
+      <c r="AT185">
+        <v>14.7218</v>
+      </c>
+      <c r="AU185">
+        <v>5.2903</v>
+      </c>
+      <c r="AV185">
+        <v>42000</v>
+      </c>
+      <c r="AW185">
+        <v>3.75</v>
+      </c>
+      <c r="AX185">
+        <v>4.18</v>
+      </c>
+      <c r="AY185">
+        <v>72.75700000000001</v>
+      </c>
+      <c r="AZ185">
+        <v>73.63500000000001</v>
+      </c>
+      <c r="BA185">
+        <v>14240</v>
+      </c>
+      <c r="BB185">
+        <v>168.8</v>
+      </c>
+      <c r="BC185">
+        <v>3.1977</v>
+      </c>
+      <c r="BD185">
+        <v>424.73</v>
+      </c>
+      <c r="BE185">
+        <v>1175.6</v>
+      </c>
+      <c r="BF185">
+        <v>110.17</v>
+      </c>
+      <c r="BG185">
+        <v>6.4581</v>
+      </c>
+      <c r="BH185">
+        <v>3.9245</v>
+      </c>
+    </row>
+    <row r="186" spans="1:60">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+      <c r="B186">
+        <v>33.395</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>4030769.3202</v>
+      </c>
+      <c r="E186">
+        <v>6.86</v>
+      </c>
+      <c r="F186">
+        <v>624.96</v>
+      </c>
+      <c r="G186">
+        <v>21.6789</v>
+      </c>
+      <c r="H186">
+        <v>6.3451</v>
+      </c>
+      <c r="I186">
+        <v>128.34</v>
+      </c>
+      <c r="J186">
+        <v>8.5909</v>
+      </c>
+      <c r="K186">
+        <v>8.651300000000001</v>
+      </c>
+      <c r="L186">
+        <v>0.7047</v>
+      </c>
+      <c r="M186">
+        <v>3.672</v>
+      </c>
+      <c r="N186">
+        <v>8.99</v>
+      </c>
+      <c r="O186">
+        <v>1.3778</v>
+      </c>
+      <c r="P186">
+        <v>1.2656</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>2.0921</v>
+      </c>
+      <c r="S186">
+        <v>0.82</v>
+      </c>
+      <c r="T186">
+        <v>1</v>
+      </c>
+      <c r="U186">
+        <v>1.3528</v>
+      </c>
+      <c r="V186">
+        <v>7.785</v>
+      </c>
+      <c r="W186">
+        <v>1.4261</v>
+      </c>
+      <c r="X186">
+        <v>27.71</v>
+      </c>
+      <c r="Y186">
+        <v>22767</v>
+      </c>
+      <c r="Z186">
+        <v>0.8534</v>
+      </c>
+      <c r="AA186">
+        <v>304.47</v>
+      </c>
+      <c r="AB186">
+        <v>101.2928</v>
+      </c>
+      <c r="AC186">
+        <v>0.9248</v>
+      </c>
+      <c r="AD186">
+        <v>6883.1</v>
+      </c>
+      <c r="AE186">
+        <v>26.4697</v>
+      </c>
+      <c r="AF186">
+        <v>4.2227</v>
+      </c>
+      <c r="AG186">
+        <v>15.6593</v>
+      </c>
+      <c r="AH186">
+        <v>0.7313</v>
+      </c>
+      <c r="AI186">
+        <v>8.836399999999999</v>
+      </c>
+      <c r="AJ186">
+        <v>4.1047</v>
+      </c>
+      <c r="AK186">
+        <v>98.5558</v>
+      </c>
+      <c r="AL186">
+        <v>788.98</v>
+      </c>
+      <c r="AM186">
+        <v>3838.8</v>
+      </c>
+      <c r="AN186">
+        <v>24</v>
+      </c>
+      <c r="AO186">
+        <v>56.265</v>
+      </c>
+      <c r="AP186">
+        <v>50.61</v>
+      </c>
+      <c r="AQ186">
+        <v>20.0605</v>
+      </c>
+      <c r="AR186">
+        <v>42.51</v>
+      </c>
+      <c r="AS186">
+        <v>7.7157</v>
+      </c>
+      <c r="AT186">
+        <v>14.9272</v>
+      </c>
+      <c r="AU186">
+        <v>5.3379</v>
+      </c>
+      <c r="AV186">
+        <v>42000</v>
+      </c>
+      <c r="AW186">
+        <v>3.75</v>
+      </c>
+      <c r="AX186">
+        <v>4.1865</v>
+      </c>
+      <c r="AY186">
+        <v>72.7544</v>
+      </c>
+      <c r="AZ186">
+        <v>73.6875</v>
+      </c>
+      <c r="BA186">
+        <v>14255</v>
+      </c>
+      <c r="BB186">
+        <v>168.9</v>
+      </c>
+      <c r="BC186">
+        <v>3.1967</v>
+      </c>
+      <c r="BD186">
+        <v>424.66</v>
+      </c>
+      <c r="BE186">
+        <v>1176.52</v>
+      </c>
+      <c r="BF186">
+        <v>110.74</v>
+      </c>
+      <c r="BG186">
+        <v>6.462</v>
+      </c>
+      <c r="BH186">
+        <v>3.9295</v>
+      </c>
+    </row>
+    <row r="187" spans="1:60">
+      <c r="A187" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187">
+        <v>33.57</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>4093957.4444</v>
+      </c>
+      <c r="E187">
+        <v>6.86</v>
+      </c>
+      <c r="F187">
+        <v>624.17</v>
+      </c>
+      <c r="G187">
+        <v>21.7208</v>
+      </c>
+      <c r="H187">
+        <v>6.3534</v>
+      </c>
+      <c r="I187">
+        <v>127.82</v>
+      </c>
+      <c r="J187">
+        <v>8.6045</v>
+      </c>
+      <c r="K187">
+        <v>8.6974</v>
+      </c>
+      <c r="L187">
+        <v>0.7054</v>
+      </c>
+      <c r="M187">
+        <v>3.672</v>
+      </c>
+      <c r="N187">
+        <v>8.9899</v>
+      </c>
+      <c r="O187">
+        <v>1.3725</v>
+      </c>
+      <c r="P187">
+        <v>1.2625</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>2.1017</v>
+      </c>
+      <c r="S187">
+        <v>0.82</v>
+      </c>
+      <c r="T187">
+        <v>1</v>
+      </c>
+      <c r="U187">
+        <v>1.3534</v>
+      </c>
+      <c r="V187">
+        <v>7.7827</v>
+      </c>
+      <c r="W187">
+        <v>1.4263</v>
+      </c>
+      <c r="X187">
+        <v>27.711</v>
+      </c>
+      <c r="Y187">
+        <v>22762</v>
+      </c>
+      <c r="Z187">
+        <v>0.8545</v>
+      </c>
+      <c r="AA187">
+        <v>305.99</v>
+      </c>
+      <c r="AB187">
+        <v>101.297</v>
+      </c>
+      <c r="AC187">
+        <v>0.9254</v>
+      </c>
+      <c r="AD187">
+        <v>6875.3</v>
+      </c>
+      <c r="AE187">
+        <v>26.5697</v>
+      </c>
+      <c r="AF187">
+        <v>4.2273</v>
+      </c>
+      <c r="AG187">
+        <v>15.6763</v>
+      </c>
+      <c r="AH187">
+        <v>0.7299</v>
+      </c>
+      <c r="AI187">
+        <v>8.821199999999999</v>
+      </c>
+      <c r="AJ187">
+        <v>4.1223</v>
+      </c>
+      <c r="AK187">
+        <v>98.6421</v>
+      </c>
+      <c r="AL187">
+        <v>795.48</v>
+      </c>
+      <c r="AM187">
+        <v>3836.02</v>
+      </c>
+      <c r="AN187">
+        <v>24</v>
+      </c>
+      <c r="AO187">
+        <v>56.265</v>
+      </c>
+      <c r="AP187">
+        <v>50.99</v>
+      </c>
+      <c r="AQ187">
+        <v>20.1241</v>
+      </c>
+      <c r="AR187">
+        <v>42.5826</v>
+      </c>
+      <c r="AS187">
+        <v>7.7066</v>
+      </c>
+      <c r="AT187">
+        <v>14.9272</v>
+      </c>
+      <c r="AU187">
+        <v>5.3725</v>
+      </c>
+      <c r="AV187">
+        <v>42000</v>
+      </c>
+      <c r="AW187">
+        <v>3.75</v>
+      </c>
+      <c r="AX187">
+        <v>4.1865</v>
+      </c>
+      <c r="AY187">
+        <v>72.581</v>
+      </c>
+      <c r="AZ187">
+        <v>73.83499999999999</v>
+      </c>
+      <c r="BA187">
+        <v>14250</v>
+      </c>
+      <c r="BB187">
+        <v>168.7209</v>
+      </c>
+      <c r="BC187">
+        <v>3.2002</v>
+      </c>
+      <c r="BD187">
+        <v>424.26</v>
+      </c>
+      <c r="BE187">
+        <v>1176.33</v>
+      </c>
+      <c r="BF187">
+        <v>110.96</v>
+      </c>
+      <c r="BG187">
+        <v>6.4575</v>
+      </c>
+      <c r="BH187">
+        <v>3.9288</v>
+      </c>
+    </row>
+    <row r="188" spans="1:60">
+      <c r="A188" t="s">
+        <v>246</v>
+      </c>
+      <c r="B188">
+        <v>33.861</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>4132370.2211</v>
+      </c>
+      <c r="E188">
+        <v>6.86</v>
+      </c>
+      <c r="F188">
+        <v>625.6799999999999</v>
+      </c>
+      <c r="G188">
+        <v>21.8283</v>
+      </c>
+      <c r="H188">
+        <v>6.3648</v>
+      </c>
+      <c r="I188">
+        <v>128.22</v>
+      </c>
+      <c r="J188">
+        <v>8.6683</v>
+      </c>
+      <c r="K188">
+        <v>8.7295</v>
+      </c>
+      <c r="L188">
+        <v>0.7065</v>
+      </c>
+      <c r="M188">
+        <v>3.672</v>
+      </c>
+      <c r="N188">
+        <v>9.001300000000001</v>
+      </c>
+      <c r="O188">
+        <v>1.3822</v>
+      </c>
+      <c r="P188">
+        <v>1.2689</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>2.0982</v>
+      </c>
+      <c r="S188">
+        <v>0.82</v>
+      </c>
+      <c r="T188">
+        <v>1</v>
+      </c>
+      <c r="U188">
+        <v>1.3573</v>
+      </c>
+      <c r="V188">
+        <v>7.7837</v>
+      </c>
+      <c r="W188">
+        <v>1.4382</v>
+      </c>
+      <c r="X188">
+        <v>27.73</v>
+      </c>
+      <c r="Y188">
+        <v>22766</v>
+      </c>
+      <c r="Z188">
+        <v>0.856</v>
+      </c>
+      <c r="AA188">
+        <v>307.83</v>
+      </c>
+      <c r="AB188">
+        <v>101.4975</v>
+      </c>
+      <c r="AC188">
+        <v>0.9292</v>
+      </c>
+      <c r="AD188">
+        <v>6881.3</v>
+      </c>
+      <c r="AE188">
+        <v>26.3094</v>
+      </c>
+      <c r="AF188">
+        <v>4.236</v>
+      </c>
+      <c r="AG188">
+        <v>15.66</v>
+      </c>
+      <c r="AH188">
+        <v>0.7388</v>
+      </c>
+      <c r="AI188">
+        <v>8.8706</v>
+      </c>
+      <c r="AJ188">
+        <v>4.123</v>
+      </c>
+      <c r="AK188">
+        <v>98.66540000000001</v>
+      </c>
+      <c r="AL188">
+        <v>798.63</v>
+      </c>
+      <c r="AM188">
+        <v>3836.46</v>
+      </c>
+      <c r="AN188">
+        <v>24</v>
+      </c>
+      <c r="AO188">
+        <v>56.249</v>
+      </c>
+      <c r="AP188">
+        <v>50.989</v>
+      </c>
+      <c r="AQ188">
+        <v>20.3407</v>
+      </c>
+      <c r="AR188">
+        <v>42.75</v>
+      </c>
+      <c r="AS188">
+        <v>7.7259</v>
+      </c>
+      <c r="AT188">
+        <v>15.1085</v>
+      </c>
+      <c r="AU188">
+        <v>5.4366</v>
+      </c>
+      <c r="AV188">
+        <v>42000</v>
+      </c>
+      <c r="AW188">
+        <v>3.75</v>
+      </c>
+      <c r="AX188">
+        <v>4.1835</v>
+      </c>
+      <c r="AY188">
+        <v>72.9337</v>
+      </c>
+      <c r="AZ188">
+        <v>74.0425</v>
+      </c>
+      <c r="BA188">
+        <v>14270</v>
+      </c>
+      <c r="BB188">
+        <v>169.9471</v>
+      </c>
+      <c r="BC188">
+        <v>3.2126</v>
+      </c>
+      <c r="BD188">
+        <v>423.98</v>
+      </c>
+      <c r="BE188">
+        <v>1184.26</v>
+      </c>
+      <c r="BF188">
+        <v>111.46</v>
+      </c>
+      <c r="BG188">
+        <v>6.4643</v>
+      </c>
+      <c r="BH188">
+        <v>3.9702</v>
+      </c>
+    </row>
+    <row r="189" spans="1:60">
+      <c r="A189" t="s">
+        <v>247</v>
+      </c>
+      <c r="B189">
+        <v>33.977</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>4128271.0164</v>
+      </c>
+      <c r="E189">
+        <v>6.86</v>
+      </c>
+      <c r="F189">
+        <v>625.45</v>
+      </c>
+      <c r="G189">
+        <v>21.968</v>
+      </c>
+      <c r="H189">
+        <v>6.4091</v>
+      </c>
+      <c r="I189">
+        <v>129.89</v>
+      </c>
+      <c r="J189">
+        <v>8.770300000000001</v>
+      </c>
+      <c r="K189">
+        <v>8.804</v>
+      </c>
+      <c r="L189">
+        <v>0.7074</v>
+      </c>
+      <c r="M189">
+        <v>3.672</v>
+      </c>
+      <c r="N189">
+        <v>9.030099999999999</v>
+      </c>
+      <c r="O189">
+        <v>1.3931</v>
+      </c>
+      <c r="P189">
+        <v>1.2763</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>2.1079</v>
+      </c>
+      <c r="S189">
+        <v>0.82</v>
+      </c>
+      <c r="T189">
+        <v>1</v>
+      </c>
+      <c r="U189">
+        <v>1.3617</v>
+      </c>
+      <c r="V189">
+        <v>7.7849</v>
+      </c>
+      <c r="W189">
+        <v>1.4571</v>
+      </c>
+      <c r="X189">
+        <v>27.789</v>
+      </c>
+      <c r="Y189">
+        <v>22735</v>
+      </c>
+      <c r="Z189">
+        <v>0.862</v>
+      </c>
+      <c r="AA189">
+        <v>310.6</v>
+      </c>
+      <c r="AB189">
+        <v>102.2868</v>
+      </c>
+      <c r="AC189">
+        <v>0.9351</v>
+      </c>
+      <c r="AD189">
+        <v>6880</v>
+      </c>
+      <c r="AE189">
+        <v>26.56</v>
+      </c>
+      <c r="AF189">
+        <v>4.2611</v>
+      </c>
+      <c r="AG189">
+        <v>15.6644</v>
+      </c>
+      <c r="AH189">
+        <v>0.7452</v>
+      </c>
+      <c r="AI189">
+        <v>8.922700000000001</v>
+      </c>
+      <c r="AJ189">
+        <v>4.1275</v>
+      </c>
+      <c r="AK189">
+        <v>98.705</v>
+      </c>
+      <c r="AL189">
+        <v>803.59</v>
+      </c>
+      <c r="AM189">
+        <v>3835.5</v>
+      </c>
+      <c r="AN189">
+        <v>24</v>
+      </c>
+      <c r="AO189">
+        <v>56.236</v>
+      </c>
+      <c r="AP189">
+        <v>50.85</v>
+      </c>
+      <c r="AQ189">
+        <v>20.5958</v>
+      </c>
+      <c r="AR189">
+        <v>42.765</v>
+      </c>
+      <c r="AS189">
+        <v>7.7259</v>
+      </c>
+      <c r="AT189">
+        <v>15.2009</v>
+      </c>
+      <c r="AU189">
+        <v>5.4312</v>
+      </c>
+      <c r="AV189">
+        <v>42000</v>
+      </c>
+      <c r="AW189">
+        <v>3.75</v>
+      </c>
+      <c r="AX189">
+        <v>4.183</v>
+      </c>
+      <c r="AY189">
+        <v>72.8964</v>
+      </c>
+      <c r="AZ189">
+        <v>74.145</v>
+      </c>
+      <c r="BA189">
+        <v>14290</v>
+      </c>
+      <c r="BB189">
+        <v>170.2426</v>
+      </c>
+      <c r="BC189">
+        <v>3.2179</v>
+      </c>
+      <c r="BD189">
+        <v>425.05</v>
+      </c>
+      <c r="BE189">
+        <v>1181.89</v>
+      </c>
+      <c r="BF189">
+        <v>112.03</v>
+      </c>
+      <c r="BG189">
+        <v>6.478</v>
+      </c>
+      <c r="BH189">
+        <v>3.9918</v>
+      </c>
+    </row>
+    <row r="190" spans="1:60">
+      <c r="A190" t="s">
+        <v>248</v>
+      </c>
+      <c r="B190">
+        <v>33.664</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>4128271.0164</v>
+      </c>
+      <c r="E190">
+        <v>6.86</v>
+      </c>
+      <c r="F190">
+        <v>625.86</v>
+      </c>
+      <c r="G190">
+        <v>21.8943</v>
+      </c>
+      <c r="H190">
+        <v>6.4256</v>
+      </c>
+      <c r="I190">
+        <v>130.45</v>
+      </c>
+      <c r="J190">
+        <v>8.76</v>
+      </c>
+      <c r="K190">
+        <v>8.7689</v>
+      </c>
+      <c r="L190">
+        <v>0.7098</v>
+      </c>
+      <c r="M190">
+        <v>3.672</v>
+      </c>
+      <c r="N190">
+        <v>9.0639</v>
+      </c>
+      <c r="O190">
+        <v>1.3862</v>
+      </c>
+      <c r="P190">
+        <v>1.2698</v>
+      </c>
+      <c r="Q190">
+        <v>1</v>
+      </c>
+      <c r="R190">
+        <v>2.1209</v>
+      </c>
+      <c r="S190">
+        <v>0.82</v>
+      </c>
+      <c r="T190">
+        <v>1</v>
+      </c>
+      <c r="U190">
+        <v>1.3592</v>
+      </c>
+      <c r="V190">
+        <v>7.7853</v>
+      </c>
+      <c r="W190">
+        <v>1.4514</v>
+      </c>
+      <c r="X190">
+        <v>27.811</v>
+      </c>
+      <c r="Y190">
+        <v>22758</v>
+      </c>
+      <c r="Z190">
+        <v>0.8642</v>
+      </c>
+      <c r="AA190">
+        <v>310.87</v>
+      </c>
+      <c r="AB190">
+        <v>102.6062</v>
+      </c>
+      <c r="AC190">
+        <v>0.9338</v>
+      </c>
+      <c r="AD190">
+        <v>6900</v>
+      </c>
+      <c r="AE190">
+        <v>26.4398</v>
+      </c>
+      <c r="AF190">
+        <v>4.2752</v>
+      </c>
+      <c r="AG190">
+        <v>15.7011</v>
+      </c>
+      <c r="AH190">
+        <v>0.7429</v>
+      </c>
+      <c r="AI190">
+        <v>8.890700000000001</v>
+      </c>
+      <c r="AJ190">
+        <v>4.1354</v>
+      </c>
+      <c r="AK190">
+        <v>98.7289</v>
+      </c>
+      <c r="AL190">
+        <v>811.9</v>
+      </c>
+      <c r="AM190">
+        <v>3808.52</v>
+      </c>
+      <c r="AN190">
+        <v>24</v>
+      </c>
+      <c r="AO190">
+        <v>56.214</v>
+      </c>
+      <c r="AP190">
+        <v>51.007</v>
+      </c>
+      <c r="AQ190">
+        <v>20.5647</v>
+      </c>
+      <c r="AR190">
+        <v>42.82</v>
+      </c>
+      <c r="AS190">
+        <v>7.7309</v>
+      </c>
+      <c r="AT190">
+        <v>15.0979</v>
+      </c>
+      <c r="AU190">
+        <v>5.4576</v>
+      </c>
+      <c r="AV190">
+        <v>42000</v>
+      </c>
+      <c r="AW190">
+        <v>3.75</v>
+      </c>
+      <c r="AX190">
+        <v>4.1855</v>
+      </c>
+      <c r="AY190">
+        <v>72.7991</v>
+      </c>
+      <c r="AZ190">
+        <v>74.23</v>
+      </c>
+      <c r="BA190">
+        <v>14310</v>
+      </c>
+      <c r="BB190">
+        <v>170.4566</v>
+      </c>
+      <c r="BC190">
+        <v>3.2263</v>
+      </c>
+      <c r="BD190">
+        <v>425.6</v>
+      </c>
+      <c r="BE190">
+        <v>1183.91</v>
+      </c>
+      <c r="BF190">
+        <v>111.37</v>
+      </c>
+      <c r="BG190">
+        <v>6.4535</v>
+      </c>
+      <c r="BH190">
+        <v>3.9868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Serie</t>
   </si>
@@ -762,6 +762,12 @@
   <si>
     <t>01-10-2021</t>
   </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1118,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH190"/>
+  <dimension ref="A1:BH192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35533,7 +35539,7 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4128271.0164</v>
+        <v>4.1283</v>
       </c>
       <c r="E190">
         <v>6.86</v>
@@ -35702,6 +35708,370 @@
       </c>
       <c r="BH190">
         <v>3.9868</v>
+      </c>
+    </row>
+    <row r="191" spans="1:60">
+      <c r="A191" t="s">
+        <v>249</v>
+      </c>
+      <c r="B191">
+        <v>33.625</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>4.1283</v>
+      </c>
+      <c r="E191">
+        <v>6.86</v>
+      </c>
+      <c r="F191">
+        <v>624.45</v>
+      </c>
+      <c r="G191">
+        <v>21.8209</v>
+      </c>
+      <c r="H191">
+        <v>6.4116</v>
+      </c>
+      <c r="I191">
+        <v>129.46</v>
+      </c>
+      <c r="J191">
+        <v>8.6213</v>
+      </c>
+      <c r="K191">
+        <v>8.747199999999999</v>
+      </c>
+      <c r="L191">
+        <v>0.7084</v>
+      </c>
+      <c r="M191">
+        <v>3.672</v>
+      </c>
+      <c r="N191">
+        <v>9.0548</v>
+      </c>
+      <c r="O191">
+        <v>1.3748</v>
+      </c>
+      <c r="P191">
+        <v>1.264</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>2.1124</v>
+      </c>
+      <c r="S191">
+        <v>0.82</v>
+      </c>
+      <c r="T191">
+        <v>1</v>
+      </c>
+      <c r="U191">
+        <v>1.3549</v>
+      </c>
+      <c r="V191">
+        <v>7.7849</v>
+      </c>
+      <c r="W191">
+        <v>1.4401</v>
+      </c>
+      <c r="X191">
+        <v>27.837</v>
+      </c>
+      <c r="Y191">
+        <v>22737</v>
+      </c>
+      <c r="Z191">
+        <v>0.8622</v>
+      </c>
+      <c r="AA191">
+        <v>307.84</v>
+      </c>
+      <c r="AB191">
+        <v>102.6012</v>
+      </c>
+      <c r="AC191">
+        <v>0.9297</v>
+      </c>
+      <c r="AD191">
+        <v>6902</v>
+      </c>
+      <c r="AE191">
+        <v>26.61</v>
+      </c>
+      <c r="AF191">
+        <v>4.2618</v>
+      </c>
+      <c r="AG191">
+        <v>15.69</v>
+      </c>
+      <c r="AH191">
+        <v>0.7374000000000001</v>
+      </c>
+      <c r="AI191">
+        <v>8.8528</v>
+      </c>
+      <c r="AJ191">
+        <v>4.1277</v>
+      </c>
+      <c r="AK191">
+        <v>98.77209999999999</v>
+      </c>
+      <c r="AL191">
+        <v>803.9</v>
+      </c>
+      <c r="AM191">
+        <v>3783.96</v>
+      </c>
+      <c r="AN191">
+        <v>24</v>
+      </c>
+      <c r="AO191">
+        <v>56.231</v>
+      </c>
+      <c r="AP191">
+        <v>50.79</v>
+      </c>
+      <c r="AQ191">
+        <v>20.4288</v>
+      </c>
+      <c r="AR191">
+        <v>42.78</v>
+      </c>
+      <c r="AS191">
+        <v>7.7283</v>
+      </c>
+      <c r="AT191">
+        <v>14.858</v>
+      </c>
+      <c r="AU191">
+        <v>5.3652</v>
+      </c>
+      <c r="AV191">
+        <v>42000</v>
+      </c>
+      <c r="AW191">
+        <v>3.75</v>
+      </c>
+      <c r="AX191">
+        <v>4.177</v>
+      </c>
+      <c r="AY191">
+        <v>72.69580000000001</v>
+      </c>
+      <c r="AZ191">
+        <v>74.12</v>
+      </c>
+      <c r="BA191">
+        <v>14305</v>
+      </c>
+      <c r="BB191">
+        <v>169.75</v>
+      </c>
+      <c r="BC191">
+        <v>3.215</v>
+      </c>
+      <c r="BD191">
+        <v>426.14</v>
+      </c>
+      <c r="BE191">
+        <v>1187.73</v>
+      </c>
+      <c r="BF191">
+        <v>110.99</v>
+      </c>
+      <c r="BG191">
+        <v>6.4302</v>
+      </c>
+      <c r="BH191">
+        <v>3.9469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:60">
+      <c r="A192" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192">
+        <v>33.749</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>4.1713</v>
+      </c>
+      <c r="E192">
+        <v>6.86</v>
+      </c>
+      <c r="F192">
+        <v>623.53</v>
+      </c>
+      <c r="G192">
+        <v>21.8194</v>
+      </c>
+      <c r="H192">
+        <v>6.4008</v>
+      </c>
+      <c r="I192">
+        <v>127.98</v>
+      </c>
+      <c r="J192">
+        <v>8.582000000000001</v>
+      </c>
+      <c r="K192">
+        <v>8.727499999999999</v>
+      </c>
+      <c r="L192">
+        <v>0.7076</v>
+      </c>
+      <c r="M192">
+        <v>3.672</v>
+      </c>
+      <c r="N192">
+        <v>9.002800000000001</v>
+      </c>
+      <c r="O192">
+        <v>1.3729</v>
+      </c>
+      <c r="P192">
+        <v>1.258</v>
+      </c>
+      <c r="Q192">
+        <v>1</v>
+      </c>
+      <c r="R192">
+        <v>2.107</v>
+      </c>
+      <c r="S192">
+        <v>0.82</v>
+      </c>
+      <c r="T192">
+        <v>1</v>
+      </c>
+      <c r="U192">
+        <v>1.3571</v>
+      </c>
+      <c r="V192">
+        <v>7.7868</v>
+      </c>
+      <c r="W192">
+        <v>1.4362</v>
+      </c>
+      <c r="X192">
+        <v>27.863</v>
+      </c>
+      <c r="Y192">
+        <v>22734</v>
+      </c>
+      <c r="Z192">
+        <v>0.8607</v>
+      </c>
+      <c r="AA192">
+        <v>306.58</v>
+      </c>
+      <c r="AB192">
+        <v>102.3917</v>
+      </c>
+      <c r="AC192">
+        <v>0.9249000000000001</v>
+      </c>
+      <c r="AD192">
+        <v>6905.4</v>
+      </c>
+      <c r="AE192">
+        <v>26.3598</v>
+      </c>
+      <c r="AF192">
+        <v>4.2583</v>
+      </c>
+      <c r="AG192">
+        <v>15.66</v>
+      </c>
+      <c r="AH192">
+        <v>0.7345</v>
+      </c>
+      <c r="AI192">
+        <v>8.860900000000001</v>
+      </c>
+      <c r="AJ192">
+        <v>4.13</v>
+      </c>
+      <c r="AK192">
+        <v>98.8767</v>
+      </c>
+      <c r="AL192">
+        <v>805.89</v>
+      </c>
+      <c r="AM192">
+        <v>3789</v>
+      </c>
+      <c r="AN192">
+        <v>24</v>
+      </c>
+      <c r="AO192">
+        <v>56.217</v>
+      </c>
+      <c r="AP192">
+        <v>50.68</v>
+      </c>
+      <c r="AQ192">
+        <v>20.5513</v>
+      </c>
+      <c r="AR192">
+        <v>42.8339</v>
+      </c>
+      <c r="AS192">
+        <v>7.7287</v>
+      </c>
+      <c r="AT192">
+        <v>15.0611</v>
+      </c>
+      <c r="AU192">
+        <v>5.4357</v>
+      </c>
+      <c r="AV192">
+        <v>42000</v>
+      </c>
+      <c r="AW192">
+        <v>3.75</v>
+      </c>
+      <c r="AX192">
+        <v>4.173</v>
+      </c>
+      <c r="AY192">
+        <v>72.4712</v>
+      </c>
+      <c r="AZ192">
+        <v>74.3075</v>
+      </c>
+      <c r="BA192">
+        <v>14265</v>
+      </c>
+      <c r="BB192">
+        <v>170.5</v>
+      </c>
+      <c r="BC192">
+        <v>3.2236</v>
+      </c>
+      <c r="BD192">
+        <v>424.9</v>
+      </c>
+      <c r="BE192">
+        <v>1181.97</v>
+      </c>
+      <c r="BF192">
+        <v>110.9</v>
+      </c>
+      <c r="BG192">
+        <v>6.4494</v>
+      </c>
+      <c r="BH192">
+        <v>3.9533</v>
       </c>
     </row>
   </sheetData>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>Serie</t>
   </si>
@@ -768,6 +768,15 @@
   <si>
     <t>05-10-2021</t>
   </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1124,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH192"/>
+  <dimension ref="A1:BH195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36074,6 +36083,552 @@
         <v>3.9533</v>
       </c>
     </row>
+    <row r="193" spans="1:60">
+      <c r="A193" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193">
+        <v>33.812</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>4.1651</v>
+      </c>
+      <c r="E193">
+        <v>6.86</v>
+      </c>
+      <c r="F193">
+        <v>626.55</v>
+      </c>
+      <c r="G193">
+        <v>21.838</v>
+      </c>
+      <c r="H193">
+        <v>6.41</v>
+      </c>
+      <c r="I193">
+        <v>128.13</v>
+      </c>
+      <c r="J193">
+        <v>8.527900000000001</v>
+      </c>
+      <c r="K193">
+        <v>8.7301</v>
+      </c>
+      <c r="L193">
+        <v>0.7079</v>
+      </c>
+      <c r="M193">
+        <v>3.672</v>
+      </c>
+      <c r="N193">
+        <v>9.0403</v>
+      </c>
+      <c r="O193">
+        <v>1.3706</v>
+      </c>
+      <c r="P193">
+        <v>1.2571</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>2.103</v>
+      </c>
+      <c r="S193">
+        <v>0.82</v>
+      </c>
+      <c r="T193">
+        <v>1</v>
+      </c>
+      <c r="U193">
+        <v>1.3566</v>
+      </c>
+      <c r="V193">
+        <v>7.7848</v>
+      </c>
+      <c r="W193">
+        <v>1.4349</v>
+      </c>
+      <c r="X193">
+        <v>27.885</v>
+      </c>
+      <c r="Y193">
+        <v>22756</v>
+      </c>
+      <c r="Z193">
+        <v>0.8618</v>
+      </c>
+      <c r="AA193">
+        <v>308.39</v>
+      </c>
+      <c r="AB193">
+        <v>102.3612</v>
+      </c>
+      <c r="AC193">
+        <v>0.9277</v>
+      </c>
+      <c r="AD193">
+        <v>6920.5</v>
+      </c>
+      <c r="AE193">
+        <v>26.3965</v>
+      </c>
+      <c r="AF193">
+        <v>4.26</v>
+      </c>
+      <c r="AG193">
+        <v>15.6697</v>
+      </c>
+      <c r="AH193">
+        <v>0.7334000000000001</v>
+      </c>
+      <c r="AI193">
+        <v>8.871</v>
+      </c>
+      <c r="AJ193">
+        <v>4.1285</v>
+      </c>
+      <c r="AK193">
+        <v>98.8875</v>
+      </c>
+      <c r="AL193">
+        <v>810.63</v>
+      </c>
+      <c r="AM193">
+        <v>3784.05</v>
+      </c>
+      <c r="AN193">
+        <v>24</v>
+      </c>
+      <c r="AO193">
+        <v>56.161</v>
+      </c>
+      <c r="AP193">
+        <v>50.643</v>
+      </c>
+      <c r="AQ193">
+        <v>20.5331</v>
+      </c>
+      <c r="AR193">
+        <v>42.85</v>
+      </c>
+      <c r="AS193">
+        <v>7.7272</v>
+      </c>
+      <c r="AT193">
+        <v>14.9867</v>
+      </c>
+      <c r="AU193">
+        <v>5.4681</v>
+      </c>
+      <c r="AV193">
+        <v>42000</v>
+      </c>
+      <c r="AW193">
+        <v>3.75</v>
+      </c>
+      <c r="AX193">
+        <v>4.1785</v>
+      </c>
+      <c r="AY193">
+        <v>72.28830000000001</v>
+      </c>
+      <c r="AZ193">
+        <v>74.44750000000001</v>
+      </c>
+      <c r="BA193">
+        <v>14250</v>
+      </c>
+      <c r="BB193">
+        <v>170.5</v>
+      </c>
+      <c r="BC193">
+        <v>3.2306</v>
+      </c>
+      <c r="BD193">
+        <v>424.7</v>
+      </c>
+      <c r="BE193">
+        <v>1188.7</v>
+      </c>
+      <c r="BF193">
+        <v>111.45</v>
+      </c>
+      <c r="BG193">
+        <v>6.4454</v>
+      </c>
+      <c r="BH193">
+        <v>3.9732</v>
+      </c>
+    </row>
+    <row r="194" spans="1:60">
+      <c r="A194" t="s">
+        <v>252</v>
+      </c>
+      <c r="B194">
+        <v>33.817</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>4.184</v>
+      </c>
+      <c r="E194">
+        <v>6.86</v>
+      </c>
+      <c r="F194">
+        <v>626.8099999999999</v>
+      </c>
+      <c r="G194">
+        <v>22.001</v>
+      </c>
+      <c r="H194">
+        <v>6.4419</v>
+      </c>
+      <c r="I194">
+        <v>128.58</v>
+      </c>
+      <c r="J194">
+        <v>8.5916</v>
+      </c>
+      <c r="K194">
+        <v>8.8094</v>
+      </c>
+      <c r="L194">
+        <v>0.7094</v>
+      </c>
+      <c r="M194">
+        <v>3.672</v>
+      </c>
+      <c r="N194">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="O194">
+        <v>1.3776</v>
+      </c>
+      <c r="P194">
+        <v>1.2604</v>
+      </c>
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>2.103</v>
+      </c>
+      <c r="S194">
+        <v>0.82</v>
+      </c>
+      <c r="T194">
+        <v>1</v>
+      </c>
+      <c r="U194">
+        <v>1.3599</v>
+      </c>
+      <c r="V194">
+        <v>7.7866</v>
+      </c>
+      <c r="W194">
+        <v>1.4476</v>
+      </c>
+      <c r="X194">
+        <v>27.977</v>
+      </c>
+      <c r="Y194">
+        <v>22759</v>
+      </c>
+      <c r="Z194">
+        <v>0.866</v>
+      </c>
+      <c r="AA194">
+        <v>310.79</v>
+      </c>
+      <c r="AB194">
+        <v>103.3354</v>
+      </c>
+      <c r="AC194">
+        <v>0.9282</v>
+      </c>
+      <c r="AD194">
+        <v>6912.6</v>
+      </c>
+      <c r="AE194">
+        <v>26.335</v>
+      </c>
+      <c r="AF194">
+        <v>4.2809</v>
+      </c>
+      <c r="AG194">
+        <v>15.6538</v>
+      </c>
+      <c r="AH194">
+        <v>0.7372</v>
+      </c>
+      <c r="AI194">
+        <v>8.8773</v>
+      </c>
+      <c r="AJ194">
+        <v>4.1345</v>
+      </c>
+      <c r="AK194">
+        <v>98.9126</v>
+      </c>
+      <c r="AL194">
+        <v>816.28</v>
+      </c>
+      <c r="AM194">
+        <v>3786.01</v>
+      </c>
+      <c r="AN194">
+        <v>24</v>
+      </c>
+      <c r="AO194">
+        <v>56.152</v>
+      </c>
+      <c r="AP194">
+        <v>50.865</v>
+      </c>
+      <c r="AQ194">
+        <v>20.6459</v>
+      </c>
+      <c r="AR194">
+        <v>42.8901</v>
+      </c>
+      <c r="AS194">
+        <v>7.7272</v>
+      </c>
+      <c r="AT194">
+        <v>15.0508</v>
+      </c>
+      <c r="AU194">
+        <v>5.5214</v>
+      </c>
+      <c r="AV194">
+        <v>42000</v>
+      </c>
+      <c r="AW194">
+        <v>3.75</v>
+      </c>
+      <c r="AX194">
+        <v>4.1825</v>
+      </c>
+      <c r="AY194">
+        <v>72.43689999999999</v>
+      </c>
+      <c r="AZ194">
+        <v>74.98</v>
+      </c>
+      <c r="BA194">
+        <v>14250</v>
+      </c>
+      <c r="BB194">
+        <v>170.75</v>
+      </c>
+      <c r="BC194">
+        <v>3.2369</v>
+      </c>
+      <c r="BD194">
+        <v>424.68</v>
+      </c>
+      <c r="BE194">
+        <v>1192.45</v>
+      </c>
+      <c r="BF194">
+        <v>111.43</v>
+      </c>
+      <c r="BG194">
+        <v>6.4576</v>
+      </c>
+      <c r="BH194">
+        <v>3.946</v>
+      </c>
+    </row>
+    <row r="195" spans="1:60">
+      <c r="A195" t="s">
+        <v>253</v>
+      </c>
+      <c r="B195">
+        <v>33.773</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>4.1551</v>
+      </c>
+      <c r="E195">
+        <v>6.86</v>
+      </c>
+      <c r="F195">
+        <v>627.2</v>
+      </c>
+      <c r="G195">
+        <v>22.0013</v>
+      </c>
+      <c r="H195">
+        <v>6.4348</v>
+      </c>
+      <c r="I195">
+        <v>128.77</v>
+      </c>
+      <c r="J195">
+        <v>8.5616</v>
+      </c>
+      <c r="K195">
+        <v>8.7759</v>
+      </c>
+      <c r="L195">
+        <v>0.7088</v>
+      </c>
+      <c r="M195">
+        <v>3.672</v>
+      </c>
+      <c r="N195">
+        <v>9.048</v>
+      </c>
+      <c r="O195">
+        <v>1.3667</v>
+      </c>
+      <c r="P195">
+        <v>1.2553</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>2.1079</v>
+      </c>
+      <c r="S195">
+        <v>0.82</v>
+      </c>
+      <c r="T195">
+        <v>1</v>
+      </c>
+      <c r="U195">
+        <v>1.3581</v>
+      </c>
+      <c r="V195">
+        <v>7.7842</v>
+      </c>
+      <c r="W195">
+        <v>1.4413</v>
+      </c>
+      <c r="X195">
+        <v>27.96</v>
+      </c>
+      <c r="Y195">
+        <v>22758</v>
+      </c>
+      <c r="Z195">
+        <v>0.8648</v>
+      </c>
+      <c r="AA195">
+        <v>309.8</v>
+      </c>
+      <c r="AB195">
+        <v>102.6367</v>
+      </c>
+      <c r="AC195">
+        <v>0.9277</v>
+      </c>
+      <c r="AD195">
+        <v>6901</v>
+      </c>
+      <c r="AE195">
+        <v>26.3</v>
+      </c>
+      <c r="AF195">
+        <v>4.2772</v>
+      </c>
+      <c r="AG195">
+        <v>15.66</v>
+      </c>
+      <c r="AH195">
+        <v>0.7341</v>
+      </c>
+      <c r="AI195">
+        <v>8.871600000000001</v>
+      </c>
+      <c r="AJ195">
+        <v>4.0915</v>
+      </c>
+      <c r="AK195">
+        <v>98.94</v>
+      </c>
+      <c r="AL195">
+        <v>813.62</v>
+      </c>
+      <c r="AM195">
+        <v>3777.76</v>
+      </c>
+      <c r="AN195">
+        <v>24</v>
+      </c>
+      <c r="AO195">
+        <v>56.221</v>
+      </c>
+      <c r="AP195">
+        <v>50.56</v>
+      </c>
+      <c r="AQ195">
+        <v>20.619</v>
+      </c>
+      <c r="AR195">
+        <v>43.19</v>
+      </c>
+      <c r="AS195">
+        <v>7.7054</v>
+      </c>
+      <c r="AT195">
+        <v>14.9242</v>
+      </c>
+      <c r="AU195">
+        <v>5.5014</v>
+      </c>
+      <c r="AV195">
+        <v>42000</v>
+      </c>
+      <c r="AW195">
+        <v>3.75</v>
+      </c>
+      <c r="AX195">
+        <v>4.182</v>
+      </c>
+      <c r="AY195">
+        <v>71.7338</v>
+      </c>
+      <c r="AZ195">
+        <v>74.78</v>
+      </c>
+      <c r="BA195">
+        <v>14215</v>
+      </c>
+      <c r="BB195">
+        <v>170.25</v>
+      </c>
+      <c r="BC195">
+        <v>3.2238</v>
+      </c>
+      <c r="BD195">
+        <v>425.45</v>
+      </c>
+      <c r="BE195">
+        <v>1190.57</v>
+      </c>
+      <c r="BF195">
+        <v>111.58</v>
+      </c>
+      <c r="BG195">
+        <v>6.4533</v>
+      </c>
+      <c r="BH195">
+        <v>3.9566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Serie</t>
   </si>
@@ -777,6 +777,9 @@
   <si>
     <t>08-10-2021</t>
   </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH195"/>
+  <dimension ref="A1:BH196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36629,6 +36632,188 @@
         <v>3.9566</v>
       </c>
     </row>
+    <row r="196" spans="1:60">
+      <c r="A196" t="s">
+        <v>254</v>
+      </c>
+      <c r="B196">
+        <v>33.904</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>4.1447</v>
+      </c>
+      <c r="E196">
+        <v>6.86</v>
+      </c>
+      <c r="F196">
+        <v>627.7</v>
+      </c>
+      <c r="G196">
+        <v>22.0073</v>
+      </c>
+      <c r="H196">
+        <v>6.4355</v>
+      </c>
+      <c r="I196">
+        <v>129.12</v>
+      </c>
+      <c r="J196">
+        <v>8.5623</v>
+      </c>
+      <c r="K196">
+        <v>8.7431</v>
+      </c>
+      <c r="L196">
+        <v>0.7088</v>
+      </c>
+      <c r="M196">
+        <v>3.672</v>
+      </c>
+      <c r="N196">
+        <v>9.067</v>
+      </c>
+      <c r="O196">
+        <v>1.3697</v>
+      </c>
+      <c r="P196">
+        <v>1.2483</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>2.1035</v>
+      </c>
+      <c r="S196">
+        <v>0.82</v>
+      </c>
+      <c r="T196">
+        <v>1</v>
+      </c>
+      <c r="U196">
+        <v>1.3553</v>
+      </c>
+      <c r="V196">
+        <v>7.7841</v>
+      </c>
+      <c r="W196">
+        <v>1.4438</v>
+      </c>
+      <c r="X196">
+        <v>28.074</v>
+      </c>
+      <c r="Y196">
+        <v>22756</v>
+      </c>
+      <c r="Z196">
+        <v>0.8649</v>
+      </c>
+      <c r="AA196">
+        <v>311.72</v>
+      </c>
+      <c r="AB196">
+        <v>102.6989</v>
+      </c>
+      <c r="AC196">
+        <v>0.9274</v>
+      </c>
+      <c r="AD196">
+        <v>6900.7</v>
+      </c>
+      <c r="AE196">
+        <v>26.3447</v>
+      </c>
+      <c r="AF196">
+        <v>4.2782</v>
+      </c>
+      <c r="AG196">
+        <v>15.6598</v>
+      </c>
+      <c r="AH196">
+        <v>0.7345</v>
+      </c>
+      <c r="AI196">
+        <v>8.952</v>
+      </c>
+      <c r="AJ196">
+        <v>4.0852</v>
+      </c>
+      <c r="AK196">
+        <v>98.94240000000001</v>
+      </c>
+      <c r="AL196">
+        <v>820.1799999999999</v>
+      </c>
+      <c r="AM196">
+        <v>3764.11</v>
+      </c>
+      <c r="AN196">
+        <v>24</v>
+      </c>
+      <c r="AO196">
+        <v>56.243</v>
+      </c>
+      <c r="AP196">
+        <v>50.55</v>
+      </c>
+      <c r="AQ196">
+        <v>20.7404</v>
+      </c>
+      <c r="AR196">
+        <v>43.29</v>
+      </c>
+      <c r="AS196">
+        <v>7.7054</v>
+      </c>
+      <c r="AT196">
+        <v>14.9531</v>
+      </c>
+      <c r="AU196">
+        <v>5.5221</v>
+      </c>
+      <c r="AV196">
+        <v>42000</v>
+      </c>
+      <c r="AW196">
+        <v>3.75</v>
+      </c>
+      <c r="AX196">
+        <v>4.175</v>
+      </c>
+      <c r="AY196">
+        <v>71.93510000000001</v>
+      </c>
+      <c r="AZ196">
+        <v>74.9875</v>
+      </c>
+      <c r="BA196">
+        <v>14220</v>
+      </c>
+      <c r="BB196">
+        <v>170.3</v>
+      </c>
+      <c r="BC196">
+        <v>3.2308</v>
+      </c>
+      <c r="BD196">
+        <v>425.58</v>
+      </c>
+      <c r="BE196">
+        <v>1194.69</v>
+      </c>
+      <c r="BF196">
+        <v>112.21</v>
+      </c>
+      <c r="BG196">
+        <v>6.449</v>
+      </c>
+      <c r="BH196">
+        <v>3.9868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Serie</t>
   </si>
@@ -780,6 +780,18 @@
   <si>
     <t>12-10-2021</t>
   </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1136,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH196"/>
+  <dimension ref="A1:BH200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36814,6 +36826,734 @@
         <v>3.9868</v>
       </c>
     </row>
+    <row r="197" spans="1:60">
+      <c r="A197" t="s">
+        <v>255</v>
+      </c>
+      <c r="B197">
+        <v>33.306</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>4.1537</v>
+      </c>
+      <c r="E197">
+        <v>6.86</v>
+      </c>
+      <c r="F197">
+        <v>628.55</v>
+      </c>
+      <c r="G197">
+        <v>22.0315</v>
+      </c>
+      <c r="H197">
+        <v>6.4555</v>
+      </c>
+      <c r="I197">
+        <v>129.97</v>
+      </c>
+      <c r="J197">
+        <v>8.5602</v>
+      </c>
+      <c r="K197">
+        <v>8.7826</v>
+      </c>
+      <c r="L197">
+        <v>0.7097</v>
+      </c>
+      <c r="M197">
+        <v>3.672</v>
+      </c>
+      <c r="N197">
+        <v>9.08</v>
+      </c>
+      <c r="O197">
+        <v>1.3604</v>
+      </c>
+      <c r="P197">
+        <v>1.2465</v>
+      </c>
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>2.1017</v>
+      </c>
+      <c r="S197">
+        <v>0.82</v>
+      </c>
+      <c r="T197">
+        <v>1</v>
+      </c>
+      <c r="U197">
+        <v>1.3572</v>
+      </c>
+      <c r="V197">
+        <v>7.7813</v>
+      </c>
+      <c r="W197">
+        <v>1.4424</v>
+      </c>
+      <c r="X197">
+        <v>28.155</v>
+      </c>
+      <c r="Y197">
+        <v>22734</v>
+      </c>
+      <c r="Z197">
+        <v>0.8677</v>
+      </c>
+      <c r="AA197">
+        <v>312.57</v>
+      </c>
+      <c r="AB197">
+        <v>102.8307</v>
+      </c>
+      <c r="AC197">
+        <v>0.9312</v>
+      </c>
+      <c r="AD197">
+        <v>6880</v>
+      </c>
+      <c r="AE197">
+        <v>26.1143</v>
+      </c>
+      <c r="AF197">
+        <v>4.2932</v>
+      </c>
+      <c r="AG197">
+        <v>15.6935</v>
+      </c>
+      <c r="AH197">
+        <v>0.7363</v>
+      </c>
+      <c r="AI197">
+        <v>9.034700000000001</v>
+      </c>
+      <c r="AJ197">
+        <v>4.0555</v>
+      </c>
+      <c r="AK197">
+        <v>99.09099999999999</v>
+      </c>
+      <c r="AL197">
+        <v>827.5599999999999</v>
+      </c>
+      <c r="AM197">
+        <v>3727.32</v>
+      </c>
+      <c r="AN197">
+        <v>24</v>
+      </c>
+      <c r="AO197">
+        <v>56.045</v>
+      </c>
+      <c r="AP197">
+        <v>50.835</v>
+      </c>
+      <c r="AQ197">
+        <v>20.7613</v>
+      </c>
+      <c r="AR197">
+        <v>43.4046</v>
+      </c>
+      <c r="AS197">
+        <v>7.7183</v>
+      </c>
+      <c r="AT197">
+        <v>14.9639</v>
+      </c>
+      <c r="AU197">
+        <v>5.5373</v>
+      </c>
+      <c r="AV197">
+        <v>42000</v>
+      </c>
+      <c r="AW197">
+        <v>3.75</v>
+      </c>
+      <c r="AX197">
+        <v>4.163</v>
+      </c>
+      <c r="AY197">
+        <v>71.8329</v>
+      </c>
+      <c r="AZ197">
+        <v>75.51000000000001</v>
+      </c>
+      <c r="BA197">
+        <v>14215</v>
+      </c>
+      <c r="BB197">
+        <v>170.9846</v>
+      </c>
+      <c r="BC197">
+        <v>3.2301</v>
+      </c>
+      <c r="BD197">
+        <v>424.64</v>
+      </c>
+      <c r="BE197">
+        <v>1198.72</v>
+      </c>
+      <c r="BF197">
+        <v>113.65</v>
+      </c>
+      <c r="BG197">
+        <v>6.4558</v>
+      </c>
+      <c r="BH197">
+        <v>3.9732</v>
+      </c>
+    </row>
+    <row r="198" spans="1:60">
+      <c r="A198" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198">
+        <v>33.173</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>4.1528</v>
+      </c>
+      <c r="E198">
+        <v>6.86</v>
+      </c>
+      <c r="F198">
+        <v>628.48</v>
+      </c>
+      <c r="G198">
+        <v>21.9075</v>
+      </c>
+      <c r="H198">
+        <v>6.4212</v>
+      </c>
+      <c r="I198">
+        <v>128.84</v>
+      </c>
+      <c r="J198">
+        <v>8.4953</v>
+      </c>
+      <c r="K198">
+        <v>8.6957</v>
+      </c>
+      <c r="L198">
+        <v>0.7095</v>
+      </c>
+      <c r="M198">
+        <v>3.672</v>
+      </c>
+      <c r="N198">
+        <v>9.0291</v>
+      </c>
+      <c r="O198">
+        <v>1.3552</v>
+      </c>
+      <c r="P198">
+        <v>1.2435</v>
+      </c>
+      <c r="Q198">
+        <v>1</v>
+      </c>
+      <c r="R198">
+        <v>2.0995</v>
+      </c>
+      <c r="S198">
+        <v>0.82</v>
+      </c>
+      <c r="T198">
+        <v>1</v>
+      </c>
+      <c r="U198">
+        <v>1.3522</v>
+      </c>
+      <c r="V198">
+        <v>7.7793</v>
+      </c>
+      <c r="W198">
+        <v>1.4364</v>
+      </c>
+      <c r="X198">
+        <v>28.092</v>
+      </c>
+      <c r="Y198">
+        <v>22736</v>
+      </c>
+      <c r="Z198">
+        <v>0.863</v>
+      </c>
+      <c r="AA198">
+        <v>310.67</v>
+      </c>
+      <c r="AB198">
+        <v>102.711</v>
+      </c>
+      <c r="AC198">
+        <v>0.9243</v>
+      </c>
+      <c r="AD198">
+        <v>6890</v>
+      </c>
+      <c r="AE198">
+        <v>26.3399</v>
+      </c>
+      <c r="AF198">
+        <v>4.2695</v>
+      </c>
+      <c r="AG198">
+        <v>15.6537</v>
+      </c>
+      <c r="AH198">
+        <v>0.7323</v>
+      </c>
+      <c r="AI198">
+        <v>9.066000000000001</v>
+      </c>
+      <c r="AJ198">
+        <v>3.9872</v>
+      </c>
+      <c r="AK198">
+        <v>99.1211</v>
+      </c>
+      <c r="AL198">
+        <v>820.1900000000001</v>
+      </c>
+      <c r="AM198">
+        <v>3734.8</v>
+      </c>
+      <c r="AN198">
+        <v>24</v>
+      </c>
+      <c r="AO198">
+        <v>56.06</v>
+      </c>
+      <c r="AP198">
+        <v>50.655</v>
+      </c>
+      <c r="AQ198">
+        <v>20.6412</v>
+      </c>
+      <c r="AR198">
+        <v>43.62</v>
+      </c>
+      <c r="AS198">
+        <v>7.7053</v>
+      </c>
+      <c r="AT198">
+        <v>14.8014</v>
+      </c>
+      <c r="AU198">
+        <v>5.57</v>
+      </c>
+      <c r="AV198">
+        <v>42000</v>
+      </c>
+      <c r="AW198">
+        <v>3.75</v>
+      </c>
+      <c r="AX198">
+        <v>4.159</v>
+      </c>
+      <c r="AY198">
+        <v>71.97969999999999</v>
+      </c>
+      <c r="AZ198">
+        <v>75.37</v>
+      </c>
+      <c r="BA198">
+        <v>14215</v>
+      </c>
+      <c r="BB198">
+        <v>171</v>
+      </c>
+      <c r="BC198">
+        <v>3.2294</v>
+      </c>
+      <c r="BD198">
+        <v>425.57</v>
+      </c>
+      <c r="BE198">
+        <v>1193.56</v>
+      </c>
+      <c r="BF198">
+        <v>113.36</v>
+      </c>
+      <c r="BG198">
+        <v>6.4256</v>
+      </c>
+      <c r="BH198">
+        <v>3.9508</v>
+      </c>
+    </row>
+    <row r="199" spans="1:60">
+      <c r="A199" t="s">
+        <v>257</v>
+      </c>
+      <c r="B199">
+        <v>33.169</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>4.1711</v>
+      </c>
+      <c r="E199">
+        <v>6.86</v>
+      </c>
+      <c r="F199">
+        <v>628.0700000000001</v>
+      </c>
+      <c r="G199">
+        <v>21.8998</v>
+      </c>
+      <c r="H199">
+        <v>6.4201</v>
+      </c>
+      <c r="I199">
+        <v>128.98</v>
+      </c>
+      <c r="J199">
+        <v>8.4617</v>
+      </c>
+      <c r="K199">
+        <v>8.6424</v>
+      </c>
+      <c r="L199">
+        <v>0.708</v>
+      </c>
+      <c r="M199">
+        <v>3.672</v>
+      </c>
+      <c r="N199">
+        <v>9.053800000000001</v>
+      </c>
+      <c r="O199">
+        <v>1.3495</v>
+      </c>
+      <c r="P199">
+        <v>1.2372</v>
+      </c>
+      <c r="Q199">
+        <v>1</v>
+      </c>
+      <c r="R199">
+        <v>2.0964</v>
+      </c>
+      <c r="S199">
+        <v>0.82</v>
+      </c>
+      <c r="T199">
+        <v>1</v>
+      </c>
+      <c r="U199">
+        <v>1.3491</v>
+      </c>
+      <c r="V199">
+        <v>7.7783</v>
+      </c>
+      <c r="W199">
+        <v>1.4239</v>
+      </c>
+      <c r="X199">
+        <v>28.089</v>
+      </c>
+      <c r="Y199">
+        <v>22736</v>
+      </c>
+      <c r="Z199">
+        <v>0.8629</v>
+      </c>
+      <c r="AA199">
+        <v>309.36</v>
+      </c>
+      <c r="AB199">
+        <v>102.4964</v>
+      </c>
+      <c r="AC199">
+        <v>0.9237</v>
+      </c>
+      <c r="AD199">
+        <v>6895</v>
+      </c>
+      <c r="AE199">
+        <v>26.3399</v>
+      </c>
+      <c r="AF199">
+        <v>4.2701</v>
+      </c>
+      <c r="AG199">
+        <v>15.6537</v>
+      </c>
+      <c r="AH199">
+        <v>0.731</v>
+      </c>
+      <c r="AI199">
+        <v>9.1843</v>
+      </c>
+      <c r="AJ199">
+        <v>3.9207</v>
+      </c>
+      <c r="AK199">
+        <v>99.1508</v>
+      </c>
+      <c r="AL199">
+        <v>816.8099999999999</v>
+      </c>
+      <c r="AM199">
+        <v>3765.34</v>
+      </c>
+      <c r="AN199">
+        <v>24</v>
+      </c>
+      <c r="AO199">
+        <v>56.24</v>
+      </c>
+      <c r="AP199">
+        <v>50.6</v>
+      </c>
+      <c r="AQ199">
+        <v>20.5732</v>
+      </c>
+      <c r="AR199">
+        <v>43.735</v>
+      </c>
+      <c r="AS199">
+        <v>7.7271</v>
+      </c>
+      <c r="AT199">
+        <v>14.795</v>
+      </c>
+      <c r="AU199">
+        <v>5.5111</v>
+      </c>
+      <c r="AV199">
+        <v>42000</v>
+      </c>
+      <c r="AW199">
+        <v>3.75</v>
+      </c>
+      <c r="AX199">
+        <v>4.1525</v>
+      </c>
+      <c r="AY199">
+        <v>71.4169</v>
+      </c>
+      <c r="AZ199">
+        <v>75.2525</v>
+      </c>
+      <c r="BA199">
+        <v>14115</v>
+      </c>
+      <c r="BB199">
+        <v>171</v>
+      </c>
+      <c r="BC199">
+        <v>3.221</v>
+      </c>
+      <c r="BD199">
+        <v>425.46</v>
+      </c>
+      <c r="BE199">
+        <v>1186.52</v>
+      </c>
+      <c r="BF199">
+        <v>113.68</v>
+      </c>
+      <c r="BG199">
+        <v>6.4368</v>
+      </c>
+      <c r="BH199">
+        <v>3.941</v>
+      </c>
+    </row>
+    <row r="200" spans="1:60">
+      <c r="A200" t="s">
+        <v>258</v>
+      </c>
+      <c r="B200">
+        <v>33.396</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>4.1515</v>
+      </c>
+      <c r="E200">
+        <v>6.86</v>
+      </c>
+      <c r="F200">
+        <v>625.28</v>
+      </c>
+      <c r="G200">
+        <v>21.868</v>
+      </c>
+      <c r="H200">
+        <v>6.4158</v>
+      </c>
+      <c r="I200">
+        <v>128.71</v>
+      </c>
+      <c r="J200">
+        <v>8.4245</v>
+      </c>
+      <c r="K200">
+        <v>8.610300000000001</v>
+      </c>
+      <c r="L200">
+        <v>0.7083</v>
+      </c>
+      <c r="M200">
+        <v>3.672</v>
+      </c>
+      <c r="N200">
+        <v>9.042999999999999</v>
+      </c>
+      <c r="O200">
+        <v>1.3484</v>
+      </c>
+      <c r="P200">
+        <v>1.2385</v>
+      </c>
+      <c r="Q200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>2.0886</v>
+      </c>
+      <c r="S200">
+        <v>0.82</v>
+      </c>
+      <c r="T200">
+        <v>1</v>
+      </c>
+      <c r="U200">
+        <v>1.3485</v>
+      </c>
+      <c r="V200">
+        <v>7.7791</v>
+      </c>
+      <c r="W200">
+        <v>1.4144</v>
+      </c>
+      <c r="X200">
+        <v>27.985</v>
+      </c>
+      <c r="Y200">
+        <v>22734</v>
+      </c>
+      <c r="Z200">
+        <v>0.8623</v>
+      </c>
+      <c r="AA200">
+        <v>309.76</v>
+      </c>
+      <c r="AB200">
+        <v>102.5114</v>
+      </c>
+      <c r="AC200">
+        <v>0.9236</v>
+      </c>
+      <c r="AD200">
+        <v>6905</v>
+      </c>
+      <c r="AE200">
+        <v>26.3433</v>
+      </c>
+      <c r="AF200">
+        <v>4.2638</v>
+      </c>
+      <c r="AG200">
+        <v>15.6845</v>
+      </c>
+      <c r="AH200">
+        <v>0.727</v>
+      </c>
+      <c r="AI200">
+        <v>9.222899999999999</v>
+      </c>
+      <c r="AJ200">
+        <v>3.9305</v>
+      </c>
+      <c r="AK200">
+        <v>99.18000000000001</v>
+      </c>
+      <c r="AL200">
+        <v>826.1900000000001</v>
+      </c>
+      <c r="AM200">
+        <v>3766.5</v>
+      </c>
+      <c r="AN200">
+        <v>24</v>
+      </c>
+      <c r="AO200">
+        <v>56.26</v>
+      </c>
+      <c r="AP200">
+        <v>50.708</v>
+      </c>
+      <c r="AQ200">
+        <v>20.3738</v>
+      </c>
+      <c r="AR200">
+        <v>43.79</v>
+      </c>
+      <c r="AS200">
+        <v>7.7031</v>
+      </c>
+      <c r="AT200">
+        <v>14.6227</v>
+      </c>
+      <c r="AU200">
+        <v>5.4427</v>
+      </c>
+      <c r="AV200">
+        <v>42000</v>
+      </c>
+      <c r="AW200">
+        <v>3.75</v>
+      </c>
+      <c r="AX200">
+        <v>4.156</v>
+      </c>
+      <c r="AY200">
+        <v>71.01130000000001</v>
+      </c>
+      <c r="AZ200">
+        <v>75.2525</v>
+      </c>
+      <c r="BA200">
+        <v>14070</v>
+      </c>
+      <c r="BB200">
+        <v>171.0862</v>
+      </c>
+      <c r="BC200">
+        <v>3.2199</v>
+      </c>
+      <c r="BD200">
+        <v>425.61</v>
+      </c>
+      <c r="BE200">
+        <v>1182.2</v>
+      </c>
+      <c r="BF200">
+        <v>114.27</v>
+      </c>
+      <c r="BG200">
+        <v>6.4343</v>
+      </c>
+      <c r="BH200">
+        <v>3.934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>Serie</t>
   </si>
@@ -792,6 +792,36 @@
   <si>
     <t>18-10-2021</t>
   </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1148,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH200"/>
+  <dimension ref="A1:BH210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37554,6 +37584,1826 @@
         <v>3.934</v>
       </c>
     </row>
+    <row r="201" spans="1:60">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201">
+        <v>33.451</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>4.1289</v>
+      </c>
+      <c r="E201">
+        <v>6.86</v>
+      </c>
+      <c r="F201">
+        <v>627.13</v>
+      </c>
+      <c r="G201">
+        <v>21.93</v>
+      </c>
+      <c r="H201">
+        <v>6.4057</v>
+      </c>
+      <c r="I201">
+        <v>129.01</v>
+      </c>
+      <c r="J201">
+        <v>8.4217</v>
+      </c>
+      <c r="K201">
+        <v>8.6553</v>
+      </c>
+      <c r="L201">
+        <v>0.7087</v>
+      </c>
+      <c r="M201">
+        <v>3.672</v>
+      </c>
+      <c r="N201">
+        <v>9.0357</v>
+      </c>
+      <c r="O201">
+        <v>1.3488</v>
+      </c>
+      <c r="P201">
+        <v>1.2376</v>
+      </c>
+      <c r="Q201">
+        <v>1</v>
+      </c>
+      <c r="R201">
+        <v>2.0864</v>
+      </c>
+      <c r="S201">
+        <v>0.82</v>
+      </c>
+      <c r="T201">
+        <v>1</v>
+      </c>
+      <c r="U201">
+        <v>1.349</v>
+      </c>
+      <c r="V201">
+        <v>7.7782</v>
+      </c>
+      <c r="W201">
+        <v>1.412</v>
+      </c>
+      <c r="X201">
+        <v>28.002</v>
+      </c>
+      <c r="Y201">
+        <v>22749</v>
+      </c>
+      <c r="Z201">
+        <v>0.861</v>
+      </c>
+      <c r="AA201">
+        <v>311.38</v>
+      </c>
+      <c r="AB201">
+        <v>102.5873</v>
+      </c>
+      <c r="AC201">
+        <v>0.9229000000000001</v>
+      </c>
+      <c r="AD201">
+        <v>6906.7</v>
+      </c>
+      <c r="AE201">
+        <v>26.3099</v>
+      </c>
+      <c r="AF201">
+        <v>4.258</v>
+      </c>
+      <c r="AG201">
+        <v>15.6546</v>
+      </c>
+      <c r="AH201">
+        <v>0.7281</v>
+      </c>
+      <c r="AI201">
+        <v>9.3116</v>
+      </c>
+      <c r="AJ201">
+        <v>3.9495</v>
+      </c>
+      <c r="AK201">
+        <v>99.2723</v>
+      </c>
+      <c r="AL201">
+        <v>820.29</v>
+      </c>
+      <c r="AM201">
+        <v>3762.22</v>
+      </c>
+      <c r="AN201">
+        <v>24</v>
+      </c>
+      <c r="AO201">
+        <v>56.204</v>
+      </c>
+      <c r="AP201">
+        <v>50.835</v>
+      </c>
+      <c r="AQ201">
+        <v>20.3288</v>
+      </c>
+      <c r="AR201">
+        <v>43.6411</v>
+      </c>
+      <c r="AS201">
+        <v>7.7196</v>
+      </c>
+      <c r="AT201">
+        <v>14.673</v>
+      </c>
+      <c r="AU201">
+        <v>5.5123</v>
+      </c>
+      <c r="AV201">
+        <v>42000</v>
+      </c>
+      <c r="AW201">
+        <v>3.75</v>
+      </c>
+      <c r="AX201">
+        <v>4.169</v>
+      </c>
+      <c r="AY201">
+        <v>71.2525</v>
+      </c>
+      <c r="AZ201">
+        <v>75.3425</v>
+      </c>
+      <c r="BA201">
+        <v>14105</v>
+      </c>
+      <c r="BB201">
+        <v>172</v>
+      </c>
+      <c r="BC201">
+        <v>3.2157</v>
+      </c>
+      <c r="BD201">
+        <v>425</v>
+      </c>
+      <c r="BE201">
+        <v>1187.53</v>
+      </c>
+      <c r="BF201">
+        <v>114.26</v>
+      </c>
+      <c r="BG201">
+        <v>6.4271</v>
+      </c>
+      <c r="BH201">
+        <v>3.9486</v>
+      </c>
+    </row>
+    <row r="202" spans="1:60">
+      <c r="A202" t="s">
+        <v>260</v>
+      </c>
+      <c r="B202">
+        <v>33.349</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>4.1406</v>
+      </c>
+      <c r="E202">
+        <v>6.86</v>
+      </c>
+      <c r="F202">
+        <v>628.64</v>
+      </c>
+      <c r="G202">
+        <v>21.908</v>
+      </c>
+      <c r="H202">
+        <v>6.3908</v>
+      </c>
+      <c r="I202">
+        <v>128.69</v>
+      </c>
+      <c r="J202">
+        <v>8.345000000000001</v>
+      </c>
+      <c r="K202">
+        <v>8.611800000000001</v>
+      </c>
+      <c r="L202">
+        <v>0.7063</v>
+      </c>
+      <c r="M202">
+        <v>3.672</v>
+      </c>
+      <c r="N202">
+        <v>9.0235</v>
+      </c>
+      <c r="O202">
+        <v>1.3362</v>
+      </c>
+      <c r="P202">
+        <v>1.2351</v>
+      </c>
+      <c r="Q202">
+        <v>1</v>
+      </c>
+      <c r="R202">
+        <v>2.0859</v>
+      </c>
+      <c r="S202">
+        <v>0.82</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+      <c r="U202">
+        <v>1.3439</v>
+      </c>
+      <c r="V202">
+        <v>7.776</v>
+      </c>
+      <c r="W202">
+        <v>1.3943</v>
+      </c>
+      <c r="X202">
+        <v>27.864</v>
+      </c>
+      <c r="Y202">
+        <v>22756</v>
+      </c>
+      <c r="Z202">
+        <v>0.859</v>
+      </c>
+      <c r="AA202">
+        <v>311.05</v>
+      </c>
+      <c r="AB202">
+        <v>102.4777</v>
+      </c>
+      <c r="AC202">
+        <v>0.9225</v>
+      </c>
+      <c r="AD202">
+        <v>6910.8</v>
+      </c>
+      <c r="AE202">
+        <v>26.0915</v>
+      </c>
+      <c r="AF202">
+        <v>4.2492</v>
+      </c>
+      <c r="AG202">
+        <v>15.7064</v>
+      </c>
+      <c r="AH202">
+        <v>0.7243000000000001</v>
+      </c>
+      <c r="AI202">
+        <v>9.299899999999999</v>
+      </c>
+      <c r="AJ202">
+        <v>3.9437</v>
+      </c>
+      <c r="AK202">
+        <v>99.2972</v>
+      </c>
+      <c r="AL202">
+        <v>813.33</v>
+      </c>
+      <c r="AM202">
+        <v>3765.19</v>
+      </c>
+      <c r="AN202">
+        <v>24</v>
+      </c>
+      <c r="AO202">
+        <v>56.166</v>
+      </c>
+      <c r="AP202">
+        <v>50.72</v>
+      </c>
+      <c r="AQ202">
+        <v>20.2226</v>
+      </c>
+      <c r="AR202">
+        <v>43.64</v>
+      </c>
+      <c r="AS202">
+        <v>7.7123</v>
+      </c>
+      <c r="AT202">
+        <v>14.5029</v>
+      </c>
+      <c r="AU202">
+        <v>5.561</v>
+      </c>
+      <c r="AV202">
+        <v>42000</v>
+      </c>
+      <c r="AW202">
+        <v>3.75</v>
+      </c>
+      <c r="AX202">
+        <v>4.169</v>
+      </c>
+      <c r="AY202">
+        <v>70.8758</v>
+      </c>
+      <c r="AZ202">
+        <v>75.3425</v>
+      </c>
+      <c r="BA202">
+        <v>14073</v>
+      </c>
+      <c r="BB202">
+        <v>172.2477</v>
+      </c>
+      <c r="BC202">
+        <v>3.2114</v>
+      </c>
+      <c r="BD202">
+        <v>425.12</v>
+      </c>
+      <c r="BE202">
+        <v>1178.58</v>
+      </c>
+      <c r="BF202">
+        <v>114.24</v>
+      </c>
+      <c r="BG202">
+        <v>6.3688</v>
+      </c>
+      <c r="BH202">
+        <v>3.936</v>
+      </c>
+    </row>
+    <row r="203" spans="1:60">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+      <c r="B203">
+        <v>33.356</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>4.146</v>
+      </c>
+      <c r="E203">
+        <v>6.86</v>
+      </c>
+      <c r="F203">
+        <v>627.78</v>
+      </c>
+      <c r="G203">
+        <v>21.907</v>
+      </c>
+      <c r="H203">
+        <v>6.3851</v>
+      </c>
+      <c r="I203">
+        <v>128.63</v>
+      </c>
+      <c r="J203">
+        <v>8.3255</v>
+      </c>
+      <c r="K203">
+        <v>8.587999999999999</v>
+      </c>
+      <c r="L203">
+        <v>0.7073</v>
+      </c>
+      <c r="M203">
+        <v>3.672</v>
+      </c>
+      <c r="N203">
+        <v>9.0031</v>
+      </c>
+      <c r="O203">
+        <v>1.3316</v>
+      </c>
+      <c r="P203">
+        <v>1.2323</v>
+      </c>
+      <c r="Q203">
+        <v>1</v>
+      </c>
+      <c r="R203">
+        <v>2.0756</v>
+      </c>
+      <c r="S203">
+        <v>0.82</v>
+      </c>
+      <c r="T203">
+        <v>1</v>
+      </c>
+      <c r="U203">
+        <v>1.3431</v>
+      </c>
+      <c r="V203">
+        <v>7.7744</v>
+      </c>
+      <c r="W203">
+        <v>1.3889</v>
+      </c>
+      <c r="X203">
+        <v>27.871</v>
+      </c>
+      <c r="Y203">
+        <v>22755</v>
+      </c>
+      <c r="Z203">
+        <v>0.8582</v>
+      </c>
+      <c r="AA203">
+        <v>310.72</v>
+      </c>
+      <c r="AB203">
+        <v>102.4778</v>
+      </c>
+      <c r="AC203">
+        <v>0.919</v>
+      </c>
+      <c r="AD203">
+        <v>6902.3</v>
+      </c>
+      <c r="AE203">
+        <v>26.1694</v>
+      </c>
+      <c r="AF203">
+        <v>4.2417</v>
+      </c>
+      <c r="AG203">
+        <v>15.678</v>
+      </c>
+      <c r="AH203">
+        <v>0.7235</v>
+      </c>
+      <c r="AI203">
+        <v>9.2136</v>
+      </c>
+      <c r="AJ203">
+        <v>3.9425</v>
+      </c>
+      <c r="AK203">
+        <v>99.3385</v>
+      </c>
+      <c r="AL203">
+        <v>811.55</v>
+      </c>
+      <c r="AM203">
+        <v>3768</v>
+      </c>
+      <c r="AN203">
+        <v>24</v>
+      </c>
+      <c r="AO203">
+        <v>56.214</v>
+      </c>
+      <c r="AP203">
+        <v>50.801</v>
+      </c>
+      <c r="AQ203">
+        <v>20.2053</v>
+      </c>
+      <c r="AR203">
+        <v>43.67</v>
+      </c>
+      <c r="AS203">
+        <v>7.7032</v>
+      </c>
+      <c r="AT203">
+        <v>14.4163</v>
+      </c>
+      <c r="AU203">
+        <v>5.5607</v>
+      </c>
+      <c r="AV203">
+        <v>42000</v>
+      </c>
+      <c r="AW203">
+        <v>3.75</v>
+      </c>
+      <c r="AX203">
+        <v>4.158</v>
+      </c>
+      <c r="AY203">
+        <v>70.82040000000001</v>
+      </c>
+      <c r="AZ203">
+        <v>74.87</v>
+      </c>
+      <c r="BA203">
+        <v>14073</v>
+      </c>
+      <c r="BB203">
+        <v>173.2</v>
+      </c>
+      <c r="BC203">
+        <v>3.2108</v>
+      </c>
+      <c r="BD203">
+        <v>426.07</v>
+      </c>
+      <c r="BE203">
+        <v>1174.25</v>
+      </c>
+      <c r="BF203">
+        <v>114.22</v>
+      </c>
+      <c r="BG203">
+        <v>6.3931</v>
+      </c>
+      <c r="BH203">
+        <v>3.9335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:60">
+      <c r="A204" t="s">
+        <v>262</v>
+      </c>
+      <c r="B204">
+        <v>33.392</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>4.1641</v>
+      </c>
+      <c r="E204">
+        <v>6.86</v>
+      </c>
+      <c r="F204">
+        <v>630.76</v>
+      </c>
+      <c r="G204">
+        <v>22.0411</v>
+      </c>
+      <c r="H204">
+        <v>6.3926</v>
+      </c>
+      <c r="I204">
+        <v>128.76</v>
+      </c>
+      <c r="J204">
+        <v>8.351100000000001</v>
+      </c>
+      <c r="K204">
+        <v>8.5936</v>
+      </c>
+      <c r="L204">
+        <v>0.7068</v>
+      </c>
+      <c r="M204">
+        <v>3.672</v>
+      </c>
+      <c r="N204">
+        <v>9.039199999999999</v>
+      </c>
+      <c r="O204">
+        <v>1.339</v>
+      </c>
+      <c r="P204">
+        <v>1.2368</v>
+      </c>
+      <c r="Q204">
+        <v>1</v>
+      </c>
+      <c r="R204">
+        <v>2.0687</v>
+      </c>
+      <c r="S204">
+        <v>0.82</v>
+      </c>
+      <c r="T204">
+        <v>1</v>
+      </c>
+      <c r="U204">
+        <v>1.3465</v>
+      </c>
+      <c r="V204">
+        <v>7.7745</v>
+      </c>
+      <c r="W204">
+        <v>1.3986</v>
+      </c>
+      <c r="X204">
+        <v>27.864</v>
+      </c>
+      <c r="Y204">
+        <v>22740</v>
+      </c>
+      <c r="Z204">
+        <v>0.8593</v>
+      </c>
+      <c r="AA204">
+        <v>313.1</v>
+      </c>
+      <c r="AB204">
+        <v>102.4355</v>
+      </c>
+      <c r="AC204">
+        <v>0.9179</v>
+      </c>
+      <c r="AD204">
+        <v>6910</v>
+      </c>
+      <c r="AE204">
+        <v>26.3592</v>
+      </c>
+      <c r="AF204">
+        <v>4.2487</v>
+      </c>
+      <c r="AG204">
+        <v>15.6623</v>
+      </c>
+      <c r="AH204">
+        <v>0.725</v>
+      </c>
+      <c r="AI204">
+        <v>9.4504</v>
+      </c>
+      <c r="AJ204">
+        <v>3.9505</v>
+      </c>
+      <c r="AK204">
+        <v>99.36450000000001</v>
+      </c>
+      <c r="AL204">
+        <v>817.61</v>
+      </c>
+      <c r="AM204">
+        <v>3777.55</v>
+      </c>
+      <c r="AN204">
+        <v>24</v>
+      </c>
+      <c r="AO204">
+        <v>56.259</v>
+      </c>
+      <c r="AP204">
+        <v>50.792</v>
+      </c>
+      <c r="AQ204">
+        <v>20.2951</v>
+      </c>
+      <c r="AR204">
+        <v>43.76</v>
+      </c>
+      <c r="AS204">
+        <v>7.7272</v>
+      </c>
+      <c r="AT204">
+        <v>14.6339</v>
+      </c>
+      <c r="AU204">
+        <v>5.6587</v>
+      </c>
+      <c r="AV204">
+        <v>42000</v>
+      </c>
+      <c r="AW204">
+        <v>3.75</v>
+      </c>
+      <c r="AX204">
+        <v>4.1565</v>
+      </c>
+      <c r="AY204">
+        <v>71.17310000000001</v>
+      </c>
+      <c r="AZ204">
+        <v>74.86</v>
+      </c>
+      <c r="BA204">
+        <v>14120</v>
+      </c>
+      <c r="BB204">
+        <v>173.1884</v>
+      </c>
+      <c r="BC204">
+        <v>3.2075</v>
+      </c>
+      <c r="BD204">
+        <v>425.71</v>
+      </c>
+      <c r="BE204">
+        <v>1176.9</v>
+      </c>
+      <c r="BF204">
+        <v>113.7</v>
+      </c>
+      <c r="BG204">
+        <v>6.3909</v>
+      </c>
+      <c r="BH204">
+        <v>3.9576</v>
+      </c>
+    </row>
+    <row r="205" spans="1:60">
+      <c r="A205" t="s">
+        <v>263</v>
+      </c>
+      <c r="B205">
+        <v>33.333</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>4.2006</v>
+      </c>
+      <c r="E205">
+        <v>6.86</v>
+      </c>
+      <c r="F205">
+        <v>630</v>
+      </c>
+      <c r="G205">
+        <v>22.0679</v>
+      </c>
+      <c r="H205">
+        <v>6.3995</v>
+      </c>
+      <c r="I205">
+        <v>129.1</v>
+      </c>
+      <c r="J205">
+        <v>8.3682</v>
+      </c>
+      <c r="K205">
+        <v>8.5885</v>
+      </c>
+      <c r="L205">
+        <v>0.7067</v>
+      </c>
+      <c r="M205">
+        <v>3.672</v>
+      </c>
+      <c r="N205">
+        <v>9.055999999999999</v>
+      </c>
+      <c r="O205">
+        <v>1.341</v>
+      </c>
+      <c r="P205">
+        <v>1.2376</v>
+      </c>
+      <c r="Q205">
+        <v>1</v>
+      </c>
+      <c r="R205">
+        <v>2.0764</v>
+      </c>
+      <c r="S205">
+        <v>0.82</v>
+      </c>
+      <c r="T205">
+        <v>1</v>
+      </c>
+      <c r="U205">
+        <v>1.3491</v>
+      </c>
+      <c r="V205">
+        <v>7.7726</v>
+      </c>
+      <c r="W205">
+        <v>1.4002</v>
+      </c>
+      <c r="X205">
+        <v>27.856</v>
+      </c>
+      <c r="Y205">
+        <v>22754</v>
+      </c>
+      <c r="Z205">
+        <v>0.8601</v>
+      </c>
+      <c r="AA205">
+        <v>313.54</v>
+      </c>
+      <c r="AB205">
+        <v>102.4355</v>
+      </c>
+      <c r="AC205">
+        <v>0.9174</v>
+      </c>
+      <c r="AD205">
+        <v>6906.5</v>
+      </c>
+      <c r="AE205">
+        <v>26.2798</v>
+      </c>
+      <c r="AF205">
+        <v>4.2531</v>
+      </c>
+      <c r="AG205">
+        <v>15.653</v>
+      </c>
+      <c r="AH205">
+        <v>0.7277</v>
+      </c>
+      <c r="AI205">
+        <v>9.6</v>
+      </c>
+      <c r="AJ205">
+        <v>3.963</v>
+      </c>
+      <c r="AK205">
+        <v>99.4041</v>
+      </c>
+      <c r="AL205">
+        <v>816.58</v>
+      </c>
+      <c r="AM205">
+        <v>3776.85</v>
+      </c>
+      <c r="AN205">
+        <v>24</v>
+      </c>
+      <c r="AO205">
+        <v>56.268</v>
+      </c>
+      <c r="AP205">
+        <v>50.78</v>
+      </c>
+      <c r="AQ205">
+        <v>20.173</v>
+      </c>
+      <c r="AR205">
+        <v>43.7851</v>
+      </c>
+      <c r="AS205">
+        <v>7.7288</v>
+      </c>
+      <c r="AT205">
+        <v>14.8158</v>
+      </c>
+      <c r="AU205">
+        <v>5.6744</v>
+      </c>
+      <c r="AV205">
+        <v>42000</v>
+      </c>
+      <c r="AW205">
+        <v>3.75</v>
+      </c>
+      <c r="AX205">
+        <v>4.149</v>
+      </c>
+      <c r="AY205">
+        <v>70.3777</v>
+      </c>
+      <c r="AZ205">
+        <v>74.895</v>
+      </c>
+      <c r="BA205">
+        <v>14120</v>
+      </c>
+      <c r="BB205">
+        <v>173.95</v>
+      </c>
+      <c r="BC205">
+        <v>3.2072</v>
+      </c>
+      <c r="BD205">
+        <v>424.67</v>
+      </c>
+      <c r="BE205">
+        <v>1176.92</v>
+      </c>
+      <c r="BF205">
+        <v>113.53</v>
+      </c>
+      <c r="BG205">
+        <v>6.3854</v>
+      </c>
+      <c r="BH205">
+        <v>3.9594</v>
+      </c>
+    </row>
+    <row r="206" spans="1:60">
+      <c r="A206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B206">
+        <v>33.05</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>4.2282</v>
+      </c>
+      <c r="E206">
+        <v>6.86</v>
+      </c>
+      <c r="F206">
+        <v>632.54</v>
+      </c>
+      <c r="G206">
+        <v>22.1479</v>
+      </c>
+      <c r="H206">
+        <v>6.4059</v>
+      </c>
+      <c r="I206">
+        <v>129.04</v>
+      </c>
+      <c r="J206">
+        <v>8.3497</v>
+      </c>
+      <c r="K206">
+        <v>8.604200000000001</v>
+      </c>
+      <c r="L206">
+        <v>0.707</v>
+      </c>
+      <c r="M206">
+        <v>3.672</v>
+      </c>
+      <c r="N206">
+        <v>9.066599999999999</v>
+      </c>
+      <c r="O206">
+        <v>1.3344</v>
+      </c>
+      <c r="P206">
+        <v>1.2388</v>
+      </c>
+      <c r="Q206">
+        <v>1</v>
+      </c>
+      <c r="R206">
+        <v>2.076</v>
+      </c>
+      <c r="S206">
+        <v>0.82</v>
+      </c>
+      <c r="T206">
+        <v>1</v>
+      </c>
+      <c r="U206">
+        <v>1.347</v>
+      </c>
+      <c r="V206">
+        <v>7.7735</v>
+      </c>
+      <c r="W206">
+        <v>1.3959</v>
+      </c>
+      <c r="X206">
+        <v>27.86</v>
+      </c>
+      <c r="Y206">
+        <v>22752</v>
+      </c>
+      <c r="Z206">
+        <v>0.8612</v>
+      </c>
+      <c r="AA206">
+        <v>315</v>
+      </c>
+      <c r="AB206">
+        <v>102.4974</v>
+      </c>
+      <c r="AC206">
+        <v>0.9192</v>
+      </c>
+      <c r="AD206">
+        <v>6901.8</v>
+      </c>
+      <c r="AE206">
+        <v>26.4092</v>
+      </c>
+      <c r="AF206">
+        <v>4.2589</v>
+      </c>
+      <c r="AG206">
+        <v>15.6516</v>
+      </c>
+      <c r="AH206">
+        <v>0.7262999999999999</v>
+      </c>
+      <c r="AI206">
+        <v>9.5739</v>
+      </c>
+      <c r="AJ206">
+        <v>3.97</v>
+      </c>
+      <c r="AK206">
+        <v>99.48</v>
+      </c>
+      <c r="AL206">
+        <v>810.16</v>
+      </c>
+      <c r="AM206">
+        <v>3771.67</v>
+      </c>
+      <c r="AN206">
+        <v>24</v>
+      </c>
+      <c r="AO206">
+        <v>56.236</v>
+      </c>
+      <c r="AP206">
+        <v>50.699</v>
+      </c>
+      <c r="AQ206">
+        <v>20.2003</v>
+      </c>
+      <c r="AR206">
+        <v>43.6404</v>
+      </c>
+      <c r="AS206">
+        <v>7.7257</v>
+      </c>
+      <c r="AT206">
+        <v>14.7001</v>
+      </c>
+      <c r="AU206">
+        <v>5.556</v>
+      </c>
+      <c r="AV206">
+        <v>42000</v>
+      </c>
+      <c r="AW206">
+        <v>3.75</v>
+      </c>
+      <c r="AX206">
+        <v>4.148</v>
+      </c>
+      <c r="AY206">
+        <v>69.77079999999999</v>
+      </c>
+      <c r="AZ206">
+        <v>75.08</v>
+      </c>
+      <c r="BA206">
+        <v>14155</v>
+      </c>
+      <c r="BB206">
+        <v>174.3</v>
+      </c>
+      <c r="BC206">
+        <v>3.1993</v>
+      </c>
+      <c r="BD206">
+        <v>424.81</v>
+      </c>
+      <c r="BE206">
+        <v>1168.1</v>
+      </c>
+      <c r="BF206">
+        <v>113.7</v>
+      </c>
+      <c r="BG206">
+        <v>6.3835</v>
+      </c>
+      <c r="BH206">
+        <v>3.9744</v>
+      </c>
+    </row>
+    <row r="207" spans="1:60">
+      <c r="A207" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207">
+        <v>33.209</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>4.2621</v>
+      </c>
+      <c r="E207">
+        <v>6.86</v>
+      </c>
+      <c r="F207">
+        <v>633.41</v>
+      </c>
+      <c r="G207">
+        <v>22.1529</v>
+      </c>
+      <c r="H207">
+        <v>6.4165</v>
+      </c>
+      <c r="I207">
+        <v>129.26</v>
+      </c>
+      <c r="J207">
+        <v>8.365500000000001</v>
+      </c>
+      <c r="K207">
+        <v>8.6153</v>
+      </c>
+      <c r="L207">
+        <v>0.7068</v>
+      </c>
+      <c r="M207">
+        <v>3.672</v>
+      </c>
+      <c r="N207">
+        <v>9.0724</v>
+      </c>
+      <c r="O207">
+        <v>1.3337</v>
+      </c>
+      <c r="P207">
+        <v>1.2384</v>
+      </c>
+      <c r="Q207">
+        <v>1</v>
+      </c>
+      <c r="R207">
+        <v>2.073</v>
+      </c>
+      <c r="S207">
+        <v>0.82</v>
+      </c>
+      <c r="T207">
+        <v>1</v>
+      </c>
+      <c r="U207">
+        <v>1.3475</v>
+      </c>
+      <c r="V207">
+        <v>7.7756</v>
+      </c>
+      <c r="W207">
+        <v>1.3972</v>
+      </c>
+      <c r="X207">
+        <v>27.824</v>
+      </c>
+      <c r="Y207">
+        <v>22755</v>
+      </c>
+      <c r="Z207">
+        <v>0.8626</v>
+      </c>
+      <c r="AA207">
+        <v>314.39</v>
+      </c>
+      <c r="AB207">
+        <v>102.5164</v>
+      </c>
+      <c r="AC207">
+        <v>0.9199000000000001</v>
+      </c>
+      <c r="AD207">
+        <v>6901.8</v>
+      </c>
+      <c r="AE207">
+        <v>26.4171</v>
+      </c>
+      <c r="AF207">
+        <v>4.2655</v>
+      </c>
+      <c r="AG207">
+        <v>15.6569</v>
+      </c>
+      <c r="AH207">
+        <v>0.7266</v>
+      </c>
+      <c r="AI207">
+        <v>9.5341</v>
+      </c>
+      <c r="AJ207">
+        <v>3.992</v>
+      </c>
+      <c r="AK207">
+        <v>99.53530000000001</v>
+      </c>
+      <c r="AL207">
+        <v>806.55</v>
+      </c>
+      <c r="AM207">
+        <v>3771.45</v>
+      </c>
+      <c r="AN207">
+        <v>24</v>
+      </c>
+      <c r="AO207">
+        <v>56.295</v>
+      </c>
+      <c r="AP207">
+        <v>50.762</v>
+      </c>
+      <c r="AQ207">
+        <v>20.195</v>
+      </c>
+      <c r="AR207">
+        <v>43.4534</v>
+      </c>
+      <c r="AS207">
+        <v>7.721</v>
+      </c>
+      <c r="AT207">
+        <v>14.8385</v>
+      </c>
+      <c r="AU207">
+        <v>5.5757</v>
+      </c>
+      <c r="AV207">
+        <v>42000</v>
+      </c>
+      <c r="AW207">
+        <v>3.75</v>
+      </c>
+      <c r="AX207">
+        <v>4.145</v>
+      </c>
+      <c r="AY207">
+        <v>69.6086</v>
+      </c>
+      <c r="AZ207">
+        <v>74.9525</v>
+      </c>
+      <c r="BA207">
+        <v>14150</v>
+      </c>
+      <c r="BB207">
+        <v>174.5759</v>
+      </c>
+      <c r="BC207">
+        <v>3.198</v>
+      </c>
+      <c r="BD207">
+        <v>425.4</v>
+      </c>
+      <c r="BE207">
+        <v>1166.7</v>
+      </c>
+      <c r="BF207">
+        <v>114.14</v>
+      </c>
+      <c r="BG207">
+        <v>6.3807</v>
+      </c>
+      <c r="BH207">
+        <v>3.9706</v>
+      </c>
+    </row>
+    <row r="208" spans="1:60">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208">
+        <v>33.235</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>4.2837</v>
+      </c>
+      <c r="E208">
+        <v>6.86</v>
+      </c>
+      <c r="F208">
+        <v>635.78</v>
+      </c>
+      <c r="G208">
+        <v>22.1341</v>
+      </c>
+      <c r="H208">
+        <v>6.4073</v>
+      </c>
+      <c r="I208">
+        <v>129.1</v>
+      </c>
+      <c r="J208">
+        <v>8.395899999999999</v>
+      </c>
+      <c r="K208">
+        <v>8.5648</v>
+      </c>
+      <c r="L208">
+        <v>0.708</v>
+      </c>
+      <c r="M208">
+        <v>3.672</v>
+      </c>
+      <c r="N208">
+        <v>9.0639</v>
+      </c>
+      <c r="O208">
+        <v>1.3282</v>
+      </c>
+      <c r="P208">
+        <v>1.2332</v>
+      </c>
+      <c r="Q208">
+        <v>1</v>
+      </c>
+      <c r="R208">
+        <v>2.0725</v>
+      </c>
+      <c r="S208">
+        <v>0.82</v>
+      </c>
+      <c r="T208">
+        <v>1</v>
+      </c>
+      <c r="U208">
+        <v>1.3478</v>
+      </c>
+      <c r="V208">
+        <v>7.7775</v>
+      </c>
+      <c r="W208">
+        <v>1.3924</v>
+      </c>
+      <c r="X208">
+        <v>27.792</v>
+      </c>
+      <c r="Y208">
+        <v>22745</v>
+      </c>
+      <c r="Z208">
+        <v>0.8613</v>
+      </c>
+      <c r="AA208">
+        <v>312.68</v>
+      </c>
+      <c r="AB208">
+        <v>102.5127</v>
+      </c>
+      <c r="AC208">
+        <v>0.9172</v>
+      </c>
+      <c r="AD208">
+        <v>6900</v>
+      </c>
+      <c r="AE208">
+        <v>26.353</v>
+      </c>
+      <c r="AF208">
+        <v>4.2612</v>
+      </c>
+      <c r="AG208">
+        <v>15.66</v>
+      </c>
+      <c r="AH208">
+        <v>0.7272</v>
+      </c>
+      <c r="AI208">
+        <v>9.496</v>
+      </c>
+      <c r="AJ208">
+        <v>3.9833</v>
+      </c>
+      <c r="AK208">
+        <v>99.6259</v>
+      </c>
+      <c r="AL208">
+        <v>804.3200000000001</v>
+      </c>
+      <c r="AM208">
+        <v>3753</v>
+      </c>
+      <c r="AN208">
+        <v>24</v>
+      </c>
+      <c r="AO208">
+        <v>56.297</v>
+      </c>
+      <c r="AP208">
+        <v>50.72</v>
+      </c>
+      <c r="AQ208">
+        <v>20.2281</v>
+      </c>
+      <c r="AR208">
+        <v>43.48</v>
+      </c>
+      <c r="AS208">
+        <v>7.7062</v>
+      </c>
+      <c r="AT208">
+        <v>15.0127</v>
+      </c>
+      <c r="AU208">
+        <v>5.5742</v>
+      </c>
+      <c r="AV208">
+        <v>42000</v>
+      </c>
+      <c r="AW208">
+        <v>3.75</v>
+      </c>
+      <c r="AX208">
+        <v>4.153</v>
+      </c>
+      <c r="AY208">
+        <v>70.3511</v>
+      </c>
+      <c r="AZ208">
+        <v>75.02249999999999</v>
+      </c>
+      <c r="BA208">
+        <v>14170</v>
+      </c>
+      <c r="BB208">
+        <v>172.93</v>
+      </c>
+      <c r="BC208">
+        <v>3.1856</v>
+      </c>
+      <c r="BD208">
+        <v>426.49</v>
+      </c>
+      <c r="BE208">
+        <v>1170.3</v>
+      </c>
+      <c r="BF208">
+        <v>113.74</v>
+      </c>
+      <c r="BG208">
+        <v>6.3898</v>
+      </c>
+      <c r="BH208">
+        <v>3.9779</v>
+      </c>
+    </row>
+    <row r="209" spans="1:60">
+      <c r="A209" t="s">
+        <v>267</v>
+      </c>
+      <c r="B209">
+        <v>33.179</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>4.3136</v>
+      </c>
+      <c r="E209">
+        <v>6.86</v>
+      </c>
+      <c r="F209">
+        <v>635.5</v>
+      </c>
+      <c r="G209">
+        <v>22.021</v>
+      </c>
+      <c r="H209">
+        <v>6.3671</v>
+      </c>
+      <c r="I209">
+        <v>128.11</v>
+      </c>
+      <c r="J209">
+        <v>8.329800000000001</v>
+      </c>
+      <c r="K209">
+        <v>8.519299999999999</v>
+      </c>
+      <c r="L209">
+        <v>0.7075</v>
+      </c>
+      <c r="M209">
+        <v>3.672</v>
+      </c>
+      <c r="N209">
+        <v>9.0253</v>
+      </c>
+      <c r="O209">
+        <v>1.3249</v>
+      </c>
+      <c r="P209">
+        <v>1.2343</v>
+      </c>
+      <c r="Q209">
+        <v>1</v>
+      </c>
+      <c r="R209">
+        <v>2.0708</v>
+      </c>
+      <c r="S209">
+        <v>0.82</v>
+      </c>
+      <c r="T209">
+        <v>1</v>
+      </c>
+      <c r="U209">
+        <v>1.3441</v>
+      </c>
+      <c r="V209">
+        <v>7.7771</v>
+      </c>
+      <c r="W209">
+        <v>1.3883</v>
+      </c>
+      <c r="X209">
+        <v>27.797</v>
+      </c>
+      <c r="Y209">
+        <v>22753</v>
+      </c>
+      <c r="Z209">
+        <v>0.856</v>
+      </c>
+      <c r="AA209">
+        <v>309.18</v>
+      </c>
+      <c r="AB209">
+        <v>102.4092</v>
+      </c>
+      <c r="AC209">
+        <v>0.9118000000000001</v>
+      </c>
+      <c r="AD209">
+        <v>6907.2</v>
+      </c>
+      <c r="AE209">
+        <v>26.3198</v>
+      </c>
+      <c r="AF209">
+        <v>4.2343</v>
+      </c>
+      <c r="AG209">
+        <v>15.6646</v>
+      </c>
+      <c r="AH209">
+        <v>0.725</v>
+      </c>
+      <c r="AI209">
+        <v>9.523300000000001</v>
+      </c>
+      <c r="AJ209">
+        <v>3.9766</v>
+      </c>
+      <c r="AK209">
+        <v>99.68049999999999</v>
+      </c>
+      <c r="AL209">
+        <v>805.47</v>
+      </c>
+      <c r="AM209">
+        <v>3771.24</v>
+      </c>
+      <c r="AN209">
+        <v>24</v>
+      </c>
+      <c r="AO209">
+        <v>56.287</v>
+      </c>
+      <c r="AP209">
+        <v>50.7</v>
+      </c>
+      <c r="AQ209">
+        <v>20.3862</v>
+      </c>
+      <c r="AR209">
+        <v>43.82</v>
+      </c>
+      <c r="AS209">
+        <v>7.7313</v>
+      </c>
+      <c r="AT209">
+        <v>15.1278</v>
+      </c>
+      <c r="AU209">
+        <v>5.6148</v>
+      </c>
+      <c r="AV209">
+        <v>42000</v>
+      </c>
+      <c r="AW209">
+        <v>3.75</v>
+      </c>
+      <c r="AX209">
+        <v>4.1485</v>
+      </c>
+      <c r="AY209">
+        <v>70.2978</v>
+      </c>
+      <c r="AZ209">
+        <v>74.91500000000001</v>
+      </c>
+      <c r="BA209">
+        <v>14170</v>
+      </c>
+      <c r="BB209">
+        <v>171.73</v>
+      </c>
+      <c r="BC209">
+        <v>3.1642</v>
+      </c>
+      <c r="BD209">
+        <v>427.5</v>
+      </c>
+      <c r="BE209">
+        <v>1169.43</v>
+      </c>
+      <c r="BF209">
+        <v>113.46</v>
+      </c>
+      <c r="BG209">
+        <v>6.389</v>
+      </c>
+      <c r="BH209">
+        <v>3.9582</v>
+      </c>
+    </row>
+    <row r="210" spans="1:60">
+      <c r="A210" t="s">
+        <v>268</v>
+      </c>
+      <c r="B210">
+        <v>33.34</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>4.3771</v>
+      </c>
+      <c r="E210">
+        <v>6.86</v>
+      </c>
+      <c r="F210">
+        <v>636.88</v>
+      </c>
+      <c r="G210">
+        <v>22.1934</v>
+      </c>
+      <c r="H210">
+        <v>6.4371</v>
+      </c>
+      <c r="I210">
+        <v>129.69</v>
+      </c>
+      <c r="J210">
+        <v>8.449199999999999</v>
+      </c>
+      <c r="K210">
+        <v>8.588200000000001</v>
+      </c>
+      <c r="L210">
+        <v>0.7065</v>
+      </c>
+      <c r="M210">
+        <v>3.672</v>
+      </c>
+      <c r="N210">
+        <v>9.073</v>
+      </c>
+      <c r="O210">
+        <v>1.3296</v>
+      </c>
+      <c r="P210">
+        <v>1.2384</v>
+      </c>
+      <c r="Q210">
+        <v>1</v>
+      </c>
+      <c r="R210">
+        <v>2.0661</v>
+      </c>
+      <c r="S210">
+        <v>0.82</v>
+      </c>
+      <c r="T210">
+        <v>1</v>
+      </c>
+      <c r="U210">
+        <v>1.3485</v>
+      </c>
+      <c r="V210">
+        <v>7.7791</v>
+      </c>
+      <c r="W210">
+        <v>1.3968</v>
+      </c>
+      <c r="X210">
+        <v>27.786</v>
+      </c>
+      <c r="Y210">
+        <v>22750</v>
+      </c>
+      <c r="Z210">
+        <v>0.8653999999999999</v>
+      </c>
+      <c r="AA210">
+        <v>311.74</v>
+      </c>
+      <c r="AB210">
+        <v>102.2827</v>
+      </c>
+      <c r="AC210">
+        <v>0.9155</v>
+      </c>
+      <c r="AD210">
+        <v>6890</v>
+      </c>
+      <c r="AE210">
+        <v>26.2597</v>
+      </c>
+      <c r="AF210">
+        <v>4.2819</v>
+      </c>
+      <c r="AG210">
+        <v>15.6646</v>
+      </c>
+      <c r="AH210">
+        <v>0.7304</v>
+      </c>
+      <c r="AI210">
+        <v>9.6068</v>
+      </c>
+      <c r="AJ210">
+        <v>3.9905</v>
+      </c>
+      <c r="AK210">
+        <v>99.7243</v>
+      </c>
+      <c r="AL210">
+        <v>810.91</v>
+      </c>
+      <c r="AM210">
+        <v>3766.51</v>
+      </c>
+      <c r="AN210">
+        <v>24</v>
+      </c>
+      <c r="AO210">
+        <v>56.248</v>
+      </c>
+      <c r="AP210">
+        <v>50.408</v>
+      </c>
+      <c r="AQ210">
+        <v>20.6004</v>
+      </c>
+      <c r="AR210">
+        <v>44.06</v>
+      </c>
+      <c r="AS210">
+        <v>7.7154</v>
+      </c>
+      <c r="AT210">
+        <v>15.2559</v>
+      </c>
+      <c r="AU210">
+        <v>5.6396</v>
+      </c>
+      <c r="AV210">
+        <v>42000</v>
+      </c>
+      <c r="AW210">
+        <v>3.75</v>
+      </c>
+      <c r="AX210">
+        <v>4.139</v>
+      </c>
+      <c r="AY210">
+        <v>70.926</v>
+      </c>
+      <c r="AZ210">
+        <v>74.875</v>
+      </c>
+      <c r="BA210">
+        <v>14165</v>
+      </c>
+      <c r="BB210">
+        <v>170.55</v>
+      </c>
+      <c r="BC210">
+        <v>3.1636</v>
+      </c>
+      <c r="BD210">
+        <v>427.15</v>
+      </c>
+      <c r="BE210">
+        <v>1168.23</v>
+      </c>
+      <c r="BF210">
+        <v>113.94</v>
+      </c>
+      <c r="BG210">
+        <v>6.4085</v>
+      </c>
+      <c r="BH210">
+        <v>3.9889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>Serie</t>
   </si>
@@ -822,6 +822,12 @@
   <si>
     <t>02-11-2021</t>
   </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1178,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH210"/>
+  <dimension ref="A1:BH212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39404,6 +39410,370 @@
         <v>3.9889</v>
       </c>
     </row>
+    <row r="211" spans="1:60">
+      <c r="A211" t="s">
+        <v>269</v>
+      </c>
+      <c r="B211">
+        <v>33.254</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>4.367</v>
+      </c>
+      <c r="E211">
+        <v>6.86</v>
+      </c>
+      <c r="F211">
+        <v>639.27</v>
+      </c>
+      <c r="G211">
+        <v>22.0768</v>
+      </c>
+      <c r="H211">
+        <v>6.424</v>
+      </c>
+      <c r="I211">
+        <v>129.58</v>
+      </c>
+      <c r="J211">
+        <v>8.521000000000001</v>
+      </c>
+      <c r="K211">
+        <v>8.5716</v>
+      </c>
+      <c r="L211">
+        <v>0.7081</v>
+      </c>
+      <c r="M211">
+        <v>3.672</v>
+      </c>
+      <c r="N211">
+        <v>9.0701</v>
+      </c>
+      <c r="O211">
+        <v>1.3473</v>
+      </c>
+      <c r="P211">
+        <v>1.2403</v>
+      </c>
+      <c r="Q211">
+        <v>1</v>
+      </c>
+      <c r="R211">
+        <v>2.07</v>
+      </c>
+      <c r="S211">
+        <v>0.82</v>
+      </c>
+      <c r="T211">
+        <v>1</v>
+      </c>
+      <c r="U211">
+        <v>1.3495</v>
+      </c>
+      <c r="V211">
+        <v>7.7817</v>
+      </c>
+      <c r="W211">
+        <v>1.4088</v>
+      </c>
+      <c r="X211">
+        <v>27.843</v>
+      </c>
+      <c r="Y211">
+        <v>22748</v>
+      </c>
+      <c r="Z211">
+        <v>0.8636</v>
+      </c>
+      <c r="AA211">
+        <v>310.25</v>
+      </c>
+      <c r="AB211">
+        <v>102.4142</v>
+      </c>
+      <c r="AC211">
+        <v>0.9142</v>
+      </c>
+      <c r="AD211">
+        <v>6880</v>
+      </c>
+      <c r="AE211">
+        <v>26.2698</v>
+      </c>
+      <c r="AF211">
+        <v>4.2734</v>
+      </c>
+      <c r="AG211">
+        <v>15.6604</v>
+      </c>
+      <c r="AH211">
+        <v>0.7346</v>
+      </c>
+      <c r="AI211">
+        <v>9.584300000000001</v>
+      </c>
+      <c r="AJ211">
+        <v>4.0048</v>
+      </c>
+      <c r="AK211">
+        <v>99.8536</v>
+      </c>
+      <c r="AL211">
+        <v>814.42</v>
+      </c>
+      <c r="AM211">
+        <v>3790.39</v>
+      </c>
+      <c r="AN211">
+        <v>24</v>
+      </c>
+      <c r="AO211">
+        <v>56.211</v>
+      </c>
+      <c r="AP211">
+        <v>50.37</v>
+      </c>
+      <c r="AQ211">
+        <v>20.749</v>
+      </c>
+      <c r="AR211">
+        <v>43.9366</v>
+      </c>
+      <c r="AS211">
+        <v>7.708</v>
+      </c>
+      <c r="AT211">
+        <v>15.4091</v>
+      </c>
+      <c r="AU211">
+        <v>5.6834</v>
+      </c>
+      <c r="AV211">
+        <v>42000</v>
+      </c>
+      <c r="AW211">
+        <v>3.75</v>
+      </c>
+      <c r="AX211">
+        <v>4.148</v>
+      </c>
+      <c r="AY211">
+        <v>71.60509999999999</v>
+      </c>
+      <c r="AZ211">
+        <v>74.68000000000001</v>
+      </c>
+      <c r="BA211">
+        <v>14248</v>
+      </c>
+      <c r="BB211">
+        <v>169.84</v>
+      </c>
+      <c r="BC211">
+        <v>3.1331</v>
+      </c>
+      <c r="BD211">
+        <v>427.8</v>
+      </c>
+      <c r="BE211">
+        <v>1174.4</v>
+      </c>
+      <c r="BF211">
+        <v>113.91</v>
+      </c>
+      <c r="BG211">
+        <v>6.4023</v>
+      </c>
+      <c r="BH211">
+        <v>3.9795</v>
+      </c>
+    </row>
+    <row r="212" spans="1:60">
+      <c r="A212" t="s">
+        <v>270</v>
+      </c>
+      <c r="B212">
+        <v>33.443</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>4.3987</v>
+      </c>
+      <c r="E212">
+        <v>6.86</v>
+      </c>
+      <c r="F212">
+        <v>638.63</v>
+      </c>
+      <c r="G212">
+        <v>22.0583</v>
+      </c>
+      <c r="H212">
+        <v>6.4221</v>
+      </c>
+      <c r="I212">
+        <v>129.6</v>
+      </c>
+      <c r="J212">
+        <v>8.548400000000001</v>
+      </c>
+      <c r="K212">
+        <v>8.570600000000001</v>
+      </c>
+      <c r="L212">
+        <v>0.7084</v>
+      </c>
+      <c r="M212">
+        <v>3.672</v>
+      </c>
+      <c r="N212">
+        <v>9.0646</v>
+      </c>
+      <c r="O212">
+        <v>1.3481</v>
+      </c>
+      <c r="P212">
+        <v>1.2418</v>
+      </c>
+      <c r="Q212">
+        <v>1</v>
+      </c>
+      <c r="R212">
+        <v>2.0829</v>
+      </c>
+      <c r="S212">
+        <v>0.82</v>
+      </c>
+      <c r="T212">
+        <v>1</v>
+      </c>
+      <c r="U212">
+        <v>1.3507</v>
+      </c>
+      <c r="V212">
+        <v>7.7848</v>
+      </c>
+      <c r="W212">
+        <v>1.4025</v>
+      </c>
+      <c r="X212">
+        <v>27.857</v>
+      </c>
+      <c r="Y212">
+        <v>22735</v>
+      </c>
+      <c r="Z212">
+        <v>0.8636</v>
+      </c>
+      <c r="AA212">
+        <v>309.81</v>
+      </c>
+      <c r="AB212">
+        <v>102.4292</v>
+      </c>
+      <c r="AC212">
+        <v>0.9131</v>
+      </c>
+      <c r="AD212">
+        <v>6878.6</v>
+      </c>
+      <c r="AE212">
+        <v>26.2521</v>
+      </c>
+      <c r="AF212">
+        <v>4.2724</v>
+      </c>
+      <c r="AG212">
+        <v>15.6542</v>
+      </c>
+      <c r="AH212">
+        <v>0.7321</v>
+      </c>
+      <c r="AI212">
+        <v>9.662100000000001</v>
+      </c>
+      <c r="AJ212">
+        <v>4.0115</v>
+      </c>
+      <c r="AK212">
+        <v>99.89530000000001</v>
+      </c>
+      <c r="AL212">
+        <v>815.52</v>
+      </c>
+      <c r="AM212">
+        <v>3834</v>
+      </c>
+      <c r="AN212">
+        <v>24</v>
+      </c>
+      <c r="AO212">
+        <v>56.33</v>
+      </c>
+      <c r="AP212">
+        <v>50.563</v>
+      </c>
+      <c r="AQ212">
+        <v>20.8074</v>
+      </c>
+      <c r="AR212">
+        <v>44.1</v>
+      </c>
+      <c r="AS212">
+        <v>7.7285</v>
+      </c>
+      <c r="AT212">
+        <v>15.4485</v>
+      </c>
+      <c r="AU212">
+        <v>5.6164</v>
+      </c>
+      <c r="AV212">
+        <v>42000</v>
+      </c>
+      <c r="AW212">
+        <v>3.75</v>
+      </c>
+      <c r="AX212">
+        <v>4.153</v>
+      </c>
+      <c r="AY212">
+        <v>72.18729999999999</v>
+      </c>
+      <c r="AZ212">
+        <v>74.45</v>
+      </c>
+      <c r="BA212">
+        <v>14309</v>
+      </c>
+      <c r="BB212">
+        <v>169.71</v>
+      </c>
+      <c r="BC212">
+        <v>3.1187</v>
+      </c>
+      <c r="BD212">
+        <v>428.78</v>
+      </c>
+      <c r="BE212">
+        <v>1181.42</v>
+      </c>
+      <c r="BF212">
+        <v>114.01</v>
+      </c>
+      <c r="BG212">
+        <v>6.4038</v>
+      </c>
+      <c r="BH212">
+        <v>3.9655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>Serie</t>
   </si>
@@ -828,6 +828,9 @@
   <si>
     <t>04-11-2021</t>
   </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1184,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH212"/>
+  <dimension ref="A1:BH213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39774,6 +39777,188 @@
         <v>3.9655</v>
       </c>
     </row>
+    <row r="213" spans="1:60">
+      <c r="A213" t="s">
+        <v>271</v>
+      </c>
+      <c r="B213">
+        <v>33.331</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>4.4277</v>
+      </c>
+      <c r="E213">
+        <v>6.86</v>
+      </c>
+      <c r="F213">
+        <v>639.67</v>
+      </c>
+      <c r="G213">
+        <v>21.9409</v>
+      </c>
+      <c r="H213">
+        <v>6.4404</v>
+      </c>
+      <c r="I213">
+        <v>129.98</v>
+      </c>
+      <c r="J213">
+        <v>8.5625</v>
+      </c>
+      <c r="K213">
+        <v>8.5961</v>
+      </c>
+      <c r="L213">
+        <v>0.7095</v>
+      </c>
+      <c r="M213">
+        <v>3.672</v>
+      </c>
+      <c r="N213">
+        <v>9.087</v>
+      </c>
+      <c r="O213">
+        <v>1.3523</v>
+      </c>
+      <c r="P213">
+        <v>1.2461</v>
+      </c>
+      <c r="Q213">
+        <v>1</v>
+      </c>
+      <c r="R213">
+        <v>2.0829</v>
+      </c>
+      <c r="S213">
+        <v>0.82</v>
+      </c>
+      <c r="T213">
+        <v>1</v>
+      </c>
+      <c r="U213">
+        <v>1.3513</v>
+      </c>
+      <c r="V213">
+        <v>7.7837</v>
+      </c>
+      <c r="W213">
+        <v>1.4077</v>
+      </c>
+      <c r="X213">
+        <v>27.863</v>
+      </c>
+      <c r="Y213">
+        <v>22715</v>
+      </c>
+      <c r="Z213">
+        <v>0.866</v>
+      </c>
+      <c r="AA213">
+        <v>311.85</v>
+      </c>
+      <c r="AB213">
+        <v>102.3692</v>
+      </c>
+      <c r="AC213">
+        <v>0.9125</v>
+      </c>
+      <c r="AD213">
+        <v>6885.9</v>
+      </c>
+      <c r="AE213">
+        <v>26.1699</v>
+      </c>
+      <c r="AF213">
+        <v>4.2853</v>
+      </c>
+      <c r="AG213">
+        <v>15.7099</v>
+      </c>
+      <c r="AH213">
+        <v>0.7412</v>
+      </c>
+      <c r="AI213">
+        <v>9.6884</v>
+      </c>
+      <c r="AJ213">
+        <v>4.0095</v>
+      </c>
+      <c r="AK213">
+        <v>99.9415</v>
+      </c>
+      <c r="AL213">
+        <v>815.58</v>
+      </c>
+      <c r="AM213">
+        <v>3871.62</v>
+      </c>
+      <c r="AN213">
+        <v>24</v>
+      </c>
+      <c r="AO213">
+        <v>56.316</v>
+      </c>
+      <c r="AP213">
+        <v>50.61</v>
+      </c>
+      <c r="AQ213">
+        <v>20.6134</v>
+      </c>
+      <c r="AR213">
+        <v>43.9</v>
+      </c>
+      <c r="AS213">
+        <v>7.7269</v>
+      </c>
+      <c r="AT213">
+        <v>15.2649</v>
+      </c>
+      <c r="AU213">
+        <v>5.6102</v>
+      </c>
+      <c r="AV213">
+        <v>42000</v>
+      </c>
+      <c r="AW213">
+        <v>3.75</v>
+      </c>
+      <c r="AX213">
+        <v>4.153</v>
+      </c>
+      <c r="AY213">
+        <v>71.4436</v>
+      </c>
+      <c r="AZ213">
+        <v>74.45</v>
+      </c>
+      <c r="BA213">
+        <v>14357</v>
+      </c>
+      <c r="BB213">
+        <v>169.6699</v>
+      </c>
+      <c r="BC213">
+        <v>3.1137</v>
+      </c>
+      <c r="BD213">
+        <v>429.13</v>
+      </c>
+      <c r="BE213">
+        <v>1182.25</v>
+      </c>
+      <c r="BF213">
+        <v>113.7</v>
+      </c>
+      <c r="BG213">
+        <v>6.398</v>
+      </c>
+      <c r="BH213">
+        <v>3.983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>Serie</t>
   </si>
@@ -831,6 +831,9 @@
   <si>
     <t>05-11-2021</t>
   </si>
+  <si>
+    <t>08-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1187,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH213"/>
+  <dimension ref="A1:BH214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39959,6 +39962,188 @@
         <v>3.983</v>
       </c>
     </row>
+    <row r="214" spans="1:60">
+      <c r="A214" t="s">
+        <v>272</v>
+      </c>
+      <c r="B214">
+        <v>33.182</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>4.4123</v>
+      </c>
+      <c r="E214">
+        <v>6.86</v>
+      </c>
+      <c r="F214">
+        <v>638.8</v>
+      </c>
+      <c r="G214">
+        <v>21.8321</v>
+      </c>
+      <c r="H214">
+        <v>6.4329</v>
+      </c>
+      <c r="I214">
+        <v>129.79</v>
+      </c>
+      <c r="J214">
+        <v>8.5663</v>
+      </c>
+      <c r="K214">
+        <v>8.5748</v>
+      </c>
+      <c r="L214">
+        <v>0.7105</v>
+      </c>
+      <c r="M214">
+        <v>3.672</v>
+      </c>
+      <c r="N214">
+        <v>9.065300000000001</v>
+      </c>
+      <c r="O214">
+        <v>1.3517</v>
+      </c>
+      <c r="P214">
+        <v>1.2447</v>
+      </c>
+      <c r="Q214">
+        <v>1</v>
+      </c>
+      <c r="R214">
+        <v>2.0859</v>
+      </c>
+      <c r="S214">
+        <v>0.82</v>
+      </c>
+      <c r="T214">
+        <v>1</v>
+      </c>
+      <c r="U214">
+        <v>1.3502</v>
+      </c>
+      <c r="V214">
+        <v>7.7847</v>
+      </c>
+      <c r="W214">
+        <v>1.4057</v>
+      </c>
+      <c r="X214">
+        <v>27.865</v>
+      </c>
+      <c r="Y214">
+        <v>22679</v>
+      </c>
+      <c r="Z214">
+        <v>0.865</v>
+      </c>
+      <c r="AA214">
+        <v>310.13</v>
+      </c>
+      <c r="AB214">
+        <v>102.8622</v>
+      </c>
+      <c r="AC214">
+        <v>0.912</v>
+      </c>
+      <c r="AD214">
+        <v>6879.3</v>
+      </c>
+      <c r="AE214">
+        <v>26.0846</v>
+      </c>
+      <c r="AF214">
+        <v>4.2795</v>
+      </c>
+      <c r="AG214">
+        <v>15.6444</v>
+      </c>
+      <c r="AH214">
+        <v>0.7412</v>
+      </c>
+      <c r="AI214">
+        <v>9.6929</v>
+      </c>
+      <c r="AJ214">
+        <v>4.0155</v>
+      </c>
+      <c r="AK214">
+        <v>99.9281</v>
+      </c>
+      <c r="AL214">
+        <v>812.4</v>
+      </c>
+      <c r="AM214">
+        <v>3868.93</v>
+      </c>
+      <c r="AN214">
+        <v>24</v>
+      </c>
+      <c r="AO214">
+        <v>56.388</v>
+      </c>
+      <c r="AP214">
+        <v>50.327</v>
+      </c>
+      <c r="AQ214">
+        <v>20.3514</v>
+      </c>
+      <c r="AR214">
+        <v>43.6</v>
+      </c>
+      <c r="AS214">
+        <v>7.7297</v>
+      </c>
+      <c r="AT214">
+        <v>15.1105</v>
+      </c>
+      <c r="AU214">
+        <v>5.5262</v>
+      </c>
+      <c r="AV214">
+        <v>42000</v>
+      </c>
+      <c r="AW214">
+        <v>3.75</v>
+      </c>
+      <c r="AX214">
+        <v>4.1585</v>
+      </c>
+      <c r="AY214">
+        <v>71.28870000000001</v>
+      </c>
+      <c r="AZ214">
+        <v>74.4563</v>
+      </c>
+      <c r="BA214">
+        <v>14329</v>
+      </c>
+      <c r="BB214">
+        <v>169.6367</v>
+      </c>
+      <c r="BC214">
+        <v>3.1087</v>
+      </c>
+      <c r="BD214">
+        <v>429.19</v>
+      </c>
+      <c r="BE214">
+        <v>1185.2</v>
+      </c>
+      <c r="BF214">
+        <v>113.34</v>
+      </c>
+      <c r="BG214">
+        <v>6.3956</v>
+      </c>
+      <c r="BH214">
+        <v>3.9772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>Serie</t>
   </si>
@@ -834,6 +834,9 @@
   <si>
     <t>08-11-2021</t>
   </si>
+  <si>
+    <t>09-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1190,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH214"/>
+  <dimension ref="A1:BH215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40144,6 +40147,188 @@
         <v>3.9772</v>
       </c>
     </row>
+    <row r="215" spans="1:60">
+      <c r="A215" t="s">
+        <v>273</v>
+      </c>
+      <c r="B215">
+        <v>32.921</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>4.4339</v>
+      </c>
+      <c r="E215">
+        <v>6.86</v>
+      </c>
+      <c r="F215">
+        <v>641.11</v>
+      </c>
+      <c r="G215">
+        <v>21.788</v>
+      </c>
+      <c r="H215">
+        <v>6.4174</v>
+      </c>
+      <c r="I215">
+        <v>129.66</v>
+      </c>
+      <c r="J215">
+        <v>8.5061</v>
+      </c>
+      <c r="K215">
+        <v>8.575799999999999</v>
+      </c>
+      <c r="L215">
+        <v>0.7091</v>
+      </c>
+      <c r="M215">
+        <v>3.672</v>
+      </c>
+      <c r="N215">
+        <v>9.0413</v>
+      </c>
+      <c r="O215">
+        <v>1.347</v>
+      </c>
+      <c r="P215">
+        <v>1.2449</v>
+      </c>
+      <c r="Q215">
+        <v>1</v>
+      </c>
+      <c r="R215">
+        <v>2.0855</v>
+      </c>
+      <c r="S215">
+        <v>0.82</v>
+      </c>
+      <c r="T215">
+        <v>1</v>
+      </c>
+      <c r="U215">
+        <v>1.3471</v>
+      </c>
+      <c r="V215">
+        <v>7.7887</v>
+      </c>
+      <c r="W215">
+        <v>1.3947</v>
+      </c>
+      <c r="X215">
+        <v>27.826</v>
+      </c>
+      <c r="Y215">
+        <v>22655</v>
+      </c>
+      <c r="Z215">
+        <v>0.8628</v>
+      </c>
+      <c r="AA215">
+        <v>311.61</v>
+      </c>
+      <c r="AB215">
+        <v>102.6872</v>
+      </c>
+      <c r="AC215">
+        <v>0.9131</v>
+      </c>
+      <c r="AD215">
+        <v>6870.3</v>
+      </c>
+      <c r="AE215">
+        <v>26.0796</v>
+      </c>
+      <c r="AF215">
+        <v>4.2679</v>
+      </c>
+      <c r="AG215">
+        <v>15.668</v>
+      </c>
+      <c r="AH215">
+        <v>0.7373</v>
+      </c>
+      <c r="AI215">
+        <v>9.6744</v>
+      </c>
+      <c r="AJ215">
+        <v>4.014</v>
+      </c>
+      <c r="AK215">
+        <v>100.046</v>
+      </c>
+      <c r="AL215">
+        <v>806.61</v>
+      </c>
+      <c r="AM215">
+        <v>3872.51</v>
+      </c>
+      <c r="AN215">
+        <v>24</v>
+      </c>
+      <c r="AO215">
+        <v>56.372</v>
+      </c>
+      <c r="AP215">
+        <v>50.169</v>
+      </c>
+      <c r="AQ215">
+        <v>20.3199</v>
+      </c>
+      <c r="AR215">
+        <v>43.439</v>
+      </c>
+      <c r="AS215">
+        <v>7.7254</v>
+      </c>
+      <c r="AT215">
+        <v>14.9098</v>
+      </c>
+      <c r="AU215">
+        <v>5.5445</v>
+      </c>
+      <c r="AV215">
+        <v>42000</v>
+      </c>
+      <c r="AW215">
+        <v>3.75</v>
+      </c>
+      <c r="AX215">
+        <v>4.153</v>
+      </c>
+      <c r="AY215">
+        <v>71.2079</v>
+      </c>
+      <c r="AZ215">
+        <v>74.02</v>
+      </c>
+      <c r="BA215">
+        <v>14259</v>
+      </c>
+      <c r="BB215">
+        <v>169.93</v>
+      </c>
+      <c r="BC215">
+        <v>3.111</v>
+      </c>
+      <c r="BD215">
+        <v>428.82</v>
+      </c>
+      <c r="BE215">
+        <v>1182.93</v>
+      </c>
+      <c r="BF215">
+        <v>113.19</v>
+      </c>
+      <c r="BG215">
+        <v>6.3877</v>
+      </c>
+      <c r="BH215">
+        <v>3.9576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>Serie</t>
   </si>
@@ -837,6 +837,9 @@
   <si>
     <t>09-11-2021</t>
   </si>
+  <si>
+    <t>10-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1193,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH215"/>
+  <dimension ref="A1:BH216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40329,6 +40332,188 @@
         <v>3.9576</v>
       </c>
     </row>
+    <row r="216" spans="1:60">
+      <c r="A216" t="s">
+        <v>274</v>
+      </c>
+      <c r="B216">
+        <v>32.757</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>4.4267</v>
+      </c>
+      <c r="E216">
+        <v>6.86</v>
+      </c>
+      <c r="F216">
+        <v>641.6</v>
+      </c>
+      <c r="G216">
+        <v>21.7691</v>
+      </c>
+      <c r="H216">
+        <v>6.4176</v>
+      </c>
+      <c r="I216">
+        <v>129.67</v>
+      </c>
+      <c r="J216">
+        <v>8.5167</v>
+      </c>
+      <c r="K216">
+        <v>8.565799999999999</v>
+      </c>
+      <c r="L216">
+        <v>0.7084</v>
+      </c>
+      <c r="M216">
+        <v>3.672</v>
+      </c>
+      <c r="N216">
+        <v>9.053800000000001</v>
+      </c>
+      <c r="O216">
+        <v>1.3567</v>
+      </c>
+      <c r="P216">
+        <v>1.2444</v>
+      </c>
+      <c r="Q216">
+        <v>1</v>
+      </c>
+      <c r="R216">
+        <v>2.0794</v>
+      </c>
+      <c r="S216">
+        <v>0.82</v>
+      </c>
+      <c r="T216">
+        <v>1</v>
+      </c>
+      <c r="U216">
+        <v>1.3475</v>
+      </c>
+      <c r="V216">
+        <v>7.79</v>
+      </c>
+      <c r="W216">
+        <v>1.4041</v>
+      </c>
+      <c r="X216">
+        <v>27.749</v>
+      </c>
+      <c r="Y216">
+        <v>22650</v>
+      </c>
+      <c r="Z216">
+        <v>0.8629</v>
+      </c>
+      <c r="AA216">
+        <v>311.08</v>
+      </c>
+      <c r="AB216">
+        <v>102.5241</v>
+      </c>
+      <c r="AC216">
+        <v>0.9114</v>
+      </c>
+      <c r="AD216">
+        <v>6866.6</v>
+      </c>
+      <c r="AE216">
+        <v>26.0706</v>
+      </c>
+      <c r="AF216">
+        <v>4.2685</v>
+      </c>
+      <c r="AG216">
+        <v>15.6754</v>
+      </c>
+      <c r="AH216">
+        <v>0.7376</v>
+      </c>
+      <c r="AI216">
+        <v>9.7226</v>
+      </c>
+      <c r="AJ216">
+        <v>4.0165</v>
+      </c>
+      <c r="AK216">
+        <v>100.101</v>
+      </c>
+      <c r="AL216">
+        <v>797.78</v>
+      </c>
+      <c r="AM216">
+        <v>3873.5</v>
+      </c>
+      <c r="AN216">
+        <v>24</v>
+      </c>
+      <c r="AO216">
+        <v>56.332</v>
+      </c>
+      <c r="AP216">
+        <v>50.1</v>
+      </c>
+      <c r="AQ216">
+        <v>20.3204</v>
+      </c>
+      <c r="AR216">
+        <v>43.475</v>
+      </c>
+      <c r="AS216">
+        <v>7.7039</v>
+      </c>
+      <c r="AT216">
+        <v>15.0669</v>
+      </c>
+      <c r="AU216">
+        <v>5.4936</v>
+      </c>
+      <c r="AV216">
+        <v>42000</v>
+      </c>
+      <c r="AW216">
+        <v>3.75</v>
+      </c>
+      <c r="AX216">
+        <v>4.148</v>
+      </c>
+      <c r="AY216">
+        <v>70.9102</v>
+      </c>
+      <c r="AZ216">
+        <v>74.03</v>
+      </c>
+      <c r="BA216">
+        <v>14245</v>
+      </c>
+      <c r="BB216">
+        <v>170.9077</v>
+      </c>
+      <c r="BC216">
+        <v>3.1065</v>
+      </c>
+      <c r="BD216">
+        <v>428.92</v>
+      </c>
+      <c r="BE216">
+        <v>1176.74</v>
+      </c>
+      <c r="BF216">
+        <v>112.89</v>
+      </c>
+      <c r="BG216">
+        <v>6.3926</v>
+      </c>
+      <c r="BH216">
+        <v>3.9615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
